--- a/src/main/webapp/resources/setting/setting_20170222.xlsx
+++ b/src/main/webapp/resources/setting/setting_20170222.xlsx
@@ -5591,6 +5591,39 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5623,39 +5656,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6795,10 +6795,10 @@
   <dimension ref="A1:R615"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C124" sqref="C124"/>
+      <selection pane="bottomRight" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -8341,31 +8341,31 @@
       <c r="H57" s="4"/>
       <c r="I57" s="66"/>
     </row>
-    <row r="58" spans="1:9" s="143" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="144" t="s">
+    <row r="58" spans="1:9" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="133" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="145" t="s">
+      <c r="B58" s="134" t="s">
         <v>987</v>
       </c>
-      <c r="C58" s="146" t="s">
+      <c r="C58" s="135" t="s">
         <v>1253</v>
       </c>
-      <c r="D58" s="141" t="s">
+      <c r="D58" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="141" t="s">
+      <c r="E58" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="F58" s="141">
+      <c r="F58" s="130">
         <v>6</v>
       </c>
-      <c r="G58" s="141" t="str">
+      <c r="G58" s="130" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">--USER_IP VARCHAR(15), </v>
       </c>
-      <c r="H58" s="141"/>
-      <c r="I58" s="142"/>
+      <c r="H58" s="130"/>
+      <c r="I58" s="131"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="63" t="s">
@@ -8743,31 +8743,31 @@
       <c r="H73" s="4"/>
       <c r="I73" s="66"/>
     </row>
-    <row r="74" spans="1:9" s="143" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="144" t="s">
+    <row r="74" spans="1:9" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="133" t="s">
         <v>164</v>
       </c>
-      <c r="B74" s="145" t="s">
+      <c r="B74" s="134" t="s">
         <v>986</v>
       </c>
-      <c r="C74" s="146" t="s">
+      <c r="C74" s="135" t="s">
         <v>1253</v>
       </c>
-      <c r="D74" s="141" t="s">
+      <c r="D74" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="E74" s="141" t="s">
+      <c r="E74" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="F74" s="141">
+      <c r="F74" s="130">
         <v>9</v>
       </c>
-      <c r="G74" s="141" t="str">
+      <c r="G74" s="130" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">--USER_IP VARCHAR(15), </v>
       </c>
-      <c r="H74" s="141"/>
-      <c r="I74" s="142"/>
+      <c r="H74" s="130"/>
+      <c r="I74" s="131"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="63" t="s">
@@ -9315,31 +9315,31 @@
       <c r="H96" s="4"/>
       <c r="I96" s="66"/>
     </row>
-    <row r="97" spans="1:9" s="143" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="137" t="s">
+    <row r="97" spans="1:9" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="126" t="s">
         <v>153</v>
       </c>
-      <c r="B97" s="138" t="s">
+      <c r="B97" s="127" t="s">
         <v>991</v>
       </c>
-      <c r="C97" s="139" t="s">
+      <c r="C97" s="128" t="s">
         <v>1253</v>
       </c>
-      <c r="D97" s="140" t="s">
+      <c r="D97" s="129" t="s">
         <v>75</v>
       </c>
-      <c r="E97" s="140" t="s">
+      <c r="E97" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="F97" s="141">
+      <c r="F97" s="130">
         <v>6</v>
       </c>
-      <c r="G97" s="141" t="str">
+      <c r="G97" s="130" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">--USER_IP VARCHAR(15), </v>
       </c>
-      <c r="H97" s="141"/>
-      <c r="I97" s="142"/>
+      <c r="H97" s="130"/>
+      <c r="I97" s="131"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="64" t="s">
@@ -9911,31 +9911,31 @@
       <c r="H120" s="4"/>
       <c r="I120" s="66"/>
     </row>
-    <row r="121" spans="1:9" s="143" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="137" t="s">
+    <row r="121" spans="1:9" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="126" t="s">
         <v>138</v>
       </c>
-      <c r="B121" s="138" t="s">
+      <c r="B121" s="127" t="s">
         <v>984</v>
       </c>
-      <c r="C121" s="139" t="s">
+      <c r="C121" s="128" t="s">
         <v>1253</v>
       </c>
-      <c r="D121" s="140" t="s">
+      <c r="D121" s="129" t="s">
         <v>75</v>
       </c>
-      <c r="E121" s="140" t="s">
+      <c r="E121" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="F121" s="141">
+      <c r="F121" s="130">
         <v>6</v>
       </c>
-      <c r="G121" s="141" t="str">
+      <c r="G121" s="130" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">--USER_IP VARCHAR(15), </v>
       </c>
-      <c r="H121" s="141"/>
-      <c r="I121" s="142"/>
+      <c r="H121" s="130"/>
+      <c r="I121" s="131"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="64" t="s">
@@ -9963,31 +9963,31 @@
       <c r="H122" s="4"/>
       <c r="I122" s="66"/>
     </row>
-    <row r="123" spans="1:9" s="143" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="137" t="s">
+    <row r="123" spans="1:9" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="126" t="s">
         <v>138</v>
       </c>
-      <c r="B123" s="138" t="s">
+      <c r="B123" s="127" t="s">
         <v>984</v>
       </c>
-      <c r="C123" s="139" t="s">
+      <c r="C123" s="128" t="s">
         <v>1256</v>
       </c>
-      <c r="D123" s="140" t="s">
+      <c r="D123" s="129" t="s">
         <v>155</v>
       </c>
-      <c r="E123" s="140" t="s">
+      <c r="E123" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="F123" s="141">
+      <c r="F123" s="130">
         <v>8</v>
       </c>
-      <c r="G123" s="141" t="str">
+      <c r="G123" s="130" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">--REPLY_CNT INT, </v>
       </c>
-      <c r="H123" s="141"/>
-      <c r="I123" s="142"/>
+      <c r="H123" s="130"/>
+      <c r="I123" s="131"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="64" t="s">
@@ -10087,253 +10087,253 @@
       <c r="H127" s="4"/>
       <c r="I127" s="66"/>
     </row>
-    <row r="128" spans="1:9" s="143" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="137" t="s">
+    <row r="128" spans="1:9" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="B128" s="138" t="s">
+      <c r="B128" s="127" t="s">
         <v>985</v>
       </c>
-      <c r="C128" s="139"/>
-      <c r="D128" s="140"/>
-      <c r="E128" s="141"/>
-      <c r="F128" s="141">
+      <c r="C128" s="128"/>
+      <c r="D128" s="129"/>
+      <c r="E128" s="130"/>
+      <c r="F128" s="130">
         <v>0</v>
       </c>
-      <c r="G128" s="141" t="str">
+      <c r="G128" s="130" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">CREATE TABLE BOARD_QNA_ANSWER ( </v>
       </c>
-      <c r="H128" s="141"/>
-      <c r="I128" s="142"/>
-    </row>
-    <row r="129" spans="1:10" s="143" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="137" t="s">
+      <c r="H128" s="130"/>
+      <c r="I128" s="131"/>
+    </row>
+    <row r="129" spans="1:10" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="B129" s="138" t="s">
+      <c r="B129" s="127" t="s">
         <v>985</v>
       </c>
-      <c r="C129" s="139" t="s">
+      <c r="C129" s="128" t="s">
         <v>1249</v>
       </c>
-      <c r="D129" s="140" t="s">
+      <c r="D129" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="E129" s="140" t="s">
+      <c r="E129" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="F129" s="141">
+      <c r="F129" s="130">
         <v>1</v>
       </c>
-      <c r="G129" s="141" t="str">
+      <c r="G129" s="130" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">--SEQ INT NOT NULL auto_increment, </v>
       </c>
-      <c r="H129" s="141"/>
-      <c r="I129" s="142"/>
-    </row>
-    <row r="130" spans="1:10" s="143" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="137" t="s">
+      <c r="H129" s="130"/>
+      <c r="I129" s="131"/>
+    </row>
+    <row r="130" spans="1:10" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="B130" s="138" t="s">
+      <c r="B130" s="127" t="s">
         <v>985</v>
       </c>
-      <c r="C130" s="139" t="s">
+      <c r="C130" s="128" t="s">
         <v>1250</v>
       </c>
-      <c r="D130" s="140" t="s">
+      <c r="D130" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="E130" s="140" t="s">
+      <c r="E130" s="129" t="s">
         <v>136</v>
       </c>
-      <c r="F130" s="141">
+      <c r="F130" s="130">
         <v>2</v>
       </c>
-      <c r="G130" s="141" t="str">
+      <c r="G130" s="130" t="str">
         <f t="shared" ref="G130:G197" si="4">IF(F130=0,"CREATE TABLE "&amp;A130&amp;" ( ",IF(F130=100,C130&amp;" );",IF(F130=200,"ALTER TABLE "&amp;A130&amp;" ADD INDEX "&amp;A130&amp;"_IDX"&amp;C130&amp;"("&amp;D130&amp;");",C130&amp;" "&amp;D130&amp;", ")))</f>
         <v xml:space="preserve">--P_SEQ INT, </v>
       </c>
-      <c r="H130" s="141"/>
-      <c r="I130" s="142"/>
-    </row>
-    <row r="131" spans="1:10" s="143" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="137" t="s">
+      <c r="H130" s="130"/>
+      <c r="I130" s="131"/>
+    </row>
+    <row r="131" spans="1:10" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="B131" s="138" t="s">
+      <c r="B131" s="127" t="s">
         <v>985</v>
       </c>
-      <c r="C131" s="139" t="s">
+      <c r="C131" s="128" t="s">
         <v>1251</v>
       </c>
-      <c r="D131" s="141" t="s">
+      <c r="D131" s="130" t="s">
         <v>176</v>
       </c>
-      <c r="E131" s="140" t="s">
+      <c r="E131" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="F131" s="141">
+      <c r="F131" s="130">
         <v>3</v>
       </c>
-      <c r="G131" s="141" t="str">
+      <c r="G131" s="130" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">--CONTENTS TEXT, </v>
       </c>
-      <c r="H131" s="141"/>
-      <c r="I131" s="142"/>
-    </row>
-    <row r="132" spans="1:10" s="143" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="137" t="s">
+      <c r="H131" s="130"/>
+      <c r="I131" s="131"/>
+    </row>
+    <row r="132" spans="1:10" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="B132" s="138" t="s">
+      <c r="B132" s="127" t="s">
         <v>985</v>
       </c>
-      <c r="C132" s="139" t="s">
+      <c r="C132" s="128" t="s">
         <v>1252</v>
       </c>
-      <c r="D132" s="140" t="s">
+      <c r="D132" s="129" t="s">
         <v>75</v>
       </c>
-      <c r="E132" s="140" t="s">
+      <c r="E132" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="F132" s="141">
+      <c r="F132" s="130">
         <v>4</v>
       </c>
-      <c r="G132" s="141" t="str">
+      <c r="G132" s="130" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">--USER_ID VARCHAR(15), </v>
       </c>
-      <c r="H132" s="141"/>
-      <c r="I132" s="142"/>
-    </row>
-    <row r="133" spans="1:10" s="143" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="137" t="s">
+      <c r="H132" s="130"/>
+      <c r="I132" s="131"/>
+    </row>
+    <row r="133" spans="1:10" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="B133" s="138" t="s">
+      <c r="B133" s="127" t="s">
         <v>985</v>
       </c>
-      <c r="C133" s="139" t="s">
+      <c r="C133" s="128" t="s">
         <v>1253</v>
       </c>
-      <c r="D133" s="140" t="s">
+      <c r="D133" s="129" t="s">
         <v>75</v>
       </c>
-      <c r="E133" s="140" t="s">
+      <c r="E133" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="F133" s="141">
+      <c r="F133" s="130">
         <v>5</v>
       </c>
-      <c r="G133" s="141" t="str">
+      <c r="G133" s="130" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">--USER_IP VARCHAR(15), </v>
       </c>
-      <c r="H133" s="141"/>
-      <c r="I133" s="142"/>
-    </row>
-    <row r="134" spans="1:10" s="143" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="137" t="s">
+      <c r="H133" s="130"/>
+      <c r="I133" s="131"/>
+    </row>
+    <row r="134" spans="1:10" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="B134" s="138" t="s">
+      <c r="B134" s="127" t="s">
         <v>985</v>
       </c>
-      <c r="C134" s="139" t="s">
+      <c r="C134" s="128" t="s">
         <v>1254</v>
       </c>
-      <c r="D134" s="140" t="s">
+      <c r="D134" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="E134" s="140" t="s">
+      <c r="E134" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="F134" s="141">
+      <c r="F134" s="130">
         <v>6</v>
       </c>
-      <c r="G134" s="141" t="str">
+      <c r="G134" s="130" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">--CREATE_DATE DATETIME, </v>
       </c>
-      <c r="H134" s="141"/>
-      <c r="I134" s="142"/>
-    </row>
-    <row r="135" spans="1:10" s="143" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="137" t="s">
+      <c r="H134" s="130"/>
+      <c r="I134" s="131"/>
+    </row>
+    <row r="135" spans="1:10" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="B135" s="138" t="s">
+      <c r="B135" s="127" t="s">
         <v>985</v>
       </c>
-      <c r="C135" s="139" t="s">
+      <c r="C135" s="128" t="s">
         <v>1255</v>
       </c>
-      <c r="D135" s="140" t="s">
+      <c r="D135" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="E135" s="140" t="s">
+      <c r="E135" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="F135" s="141">
+      <c r="F135" s="130">
         <v>7</v>
       </c>
-      <c r="G135" s="141" t="str">
+      <c r="G135" s="130" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">--UPDATE_DATE DATETIME, </v>
       </c>
-      <c r="H135" s="141"/>
-      <c r="I135" s="142"/>
-    </row>
-    <row r="136" spans="1:10" s="143" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="137" t="s">
+      <c r="H135" s="130"/>
+      <c r="I135" s="131"/>
+    </row>
+    <row r="136" spans="1:10" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="B136" s="138" t="s">
+      <c r="B136" s="127" t="s">
         <v>985</v>
       </c>
-      <c r="C136" s="139" t="s">
+      <c r="C136" s="128" t="s">
         <v>126</v>
       </c>
-      <c r="D136" s="140"/>
-      <c r="E136" s="140"/>
-      <c r="F136" s="141">
+      <c r="D136" s="129"/>
+      <c r="E136" s="129"/>
+      <c r="F136" s="130">
         <v>100</v>
       </c>
-      <c r="G136" s="141" t="str">
+      <c r="G136" s="130" t="str">
         <f t="shared" si="4"/>
         <v>PRIMARY KEY(SEQ) );</v>
       </c>
-      <c r="H136" s="141"/>
-      <c r="I136" s="142"/>
-    </row>
-    <row r="137" spans="1:10" s="143" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="137" t="s">
+      <c r="H136" s="130"/>
+      <c r="I136" s="131"/>
+    </row>
+    <row r="137" spans="1:10" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="B137" s="138" t="s">
+      <c r="B137" s="127" t="s">
         <v>985</v>
       </c>
-      <c r="C137" s="139">
+      <c r="C137" s="128">
         <v>1</v>
       </c>
-      <c r="D137" s="140" t="s">
+      <c r="D137" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="E137" s="140"/>
-      <c r="F137" s="141">
+      <c r="E137" s="129"/>
+      <c r="F137" s="130">
         <v>200</v>
       </c>
-      <c r="G137" s="141" t="str">
+      <c r="G137" s="130" t="str">
         <f t="shared" si="4"/>
         <v>ALTER TABLE BOARD_QNA_ANSWER ADD INDEX BOARD_QNA_ANSWER_IDX1(P_SEQ);</v>
       </c>
-      <c r="H137" s="141"/>
-      <c r="I137" s="142"/>
+      <c r="H137" s="130"/>
+      <c r="I137" s="131"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="63" t="s">
@@ -10489,32 +10489,32 @@
       <c r="I143" s="66"/>
       <c r="J143" s="3"/>
     </row>
-    <row r="144" spans="1:10" s="147" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="144" t="s">
+    <row r="144" spans="1:10" s="136" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="133" t="s">
         <v>504</v>
       </c>
-      <c r="B144" s="145" t="s">
+      <c r="B144" s="134" t="s">
         <v>988</v>
       </c>
-      <c r="C144" s="146" t="s">
+      <c r="C144" s="135" t="s">
         <v>1253</v>
       </c>
-      <c r="D144" s="141" t="s">
+      <c r="D144" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="E144" s="141" t="s">
+      <c r="E144" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="F144" s="141">
+      <c r="F144" s="130">
         <v>6</v>
       </c>
-      <c r="G144" s="141" t="str">
+      <c r="G144" s="130" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">--USER_IP VARCHAR(15), </v>
       </c>
-      <c r="H144" s="141"/>
-      <c r="I144" s="142"/>
-      <c r="J144" s="143"/>
+      <c r="H144" s="130"/>
+      <c r="I144" s="131"/>
+      <c r="J144" s="132"/>
     </row>
     <row r="145" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="63" t="s">
@@ -23218,7 +23218,7 @@
       <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="142" t="s">
         <v>632</v>
       </c>
       <c r="B2" s="2"/>
@@ -23251,7 +23251,7 @@
       <c r="S2" s="23"/>
     </row>
     <row r="3" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="131"/>
+      <c r="A3" s="142"/>
       <c r="B3" s="32" t="str">
         <f t="shared" ref="B3:B18" si="0">"INSERT INTO CATEGORY("&amp;$C$2&amp;","&amp;$D$2&amp;","&amp;$E$2&amp;","&amp;$F$2&amp;","&amp;$G$2&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C01','IT','','1','Y',NOW(),'ADMIN');</v>
@@ -23283,7 +23283,7 @@
       <c r="S3" s="23"/>
     </row>
     <row r="4" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="131"/>
+      <c r="A4" s="142"/>
       <c r="B4" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C02','자격대비','','1','Y',NOW(),'ADMIN');</v>
@@ -23315,7 +23315,7 @@
       <c r="S4" s="23"/>
     </row>
     <row r="5" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="131"/>
+      <c r="A5" s="142"/>
       <c r="B5" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C03','경영/비즈니스','','1','Y',NOW(),'ADMIN');</v>
@@ -23347,7 +23347,7 @@
       <c r="S5" s="23"/>
     </row>
     <row r="6" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="131"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C04','아카데미 시리즈','','1','Y',NOW(),'ADMIN');</v>
@@ -23379,7 +23379,7 @@
       <c r="S6" s="23"/>
     </row>
     <row r="7" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="131"/>
+      <c r="A7" s="142"/>
       <c r="B7" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0101','보안','C01','2','Y',NOW(),'ADMIN');</v>
@@ -23414,7 +23414,7 @@
       <c r="S7" s="23"/>
     </row>
     <row r="8" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="131"/>
+      <c r="A8" s="142"/>
       <c r="B8" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0102','프로그래밍','C01','2','Y',NOW(),'ADMIN');</v>
@@ -23449,7 +23449,7 @@
       <c r="S8" s="23"/>
     </row>
     <row r="9" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="131"/>
+      <c r="A9" s="142"/>
       <c r="B9" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0103','모바일','C01','2','Y',NOW(),'ADMIN');</v>
@@ -23484,7 +23484,7 @@
       <c r="S9" s="23"/>
     </row>
     <row r="10" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="131"/>
+      <c r="A10" s="142"/>
       <c r="B10" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0104','OS','C01','2','Y',NOW(),'ADMIN');</v>
@@ -23519,7 +23519,7 @@
       <c r="S10" s="23"/>
     </row>
     <row r="11" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="131"/>
+      <c r="A11" s="142"/>
       <c r="B11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0105','DB','C01','2','Y',NOW(),'ADMIN');</v>
@@ -23554,7 +23554,7 @@
       <c r="S11" s="23"/>
     </row>
     <row r="12" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="131"/>
+      <c r="A12" s="142"/>
       <c r="B12" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0106','네트워크','C01','2','Y',NOW(),'ADMIN');</v>
@@ -23589,7 +23589,7 @@
       <c r="S12" s="23"/>
     </row>
     <row r="13" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="131"/>
+      <c r="A13" s="142"/>
       <c r="B13" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0201','경영 자격증','C02','2','Y',NOW(),'ADMIN');</v>
@@ -23624,7 +23624,7 @@
       <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="131"/>
+      <c r="A14" s="142"/>
       <c r="B14" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0202','IT 자격증','C02','2','Y',NOW(),'ADMIN');</v>
@@ -23659,7 +23659,7 @@
       <c r="S14" s="23"/>
     </row>
     <row r="15" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="131"/>
+      <c r="A15" s="142"/>
       <c r="B15" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0301','경영직무','C03','2','Y',NOW(),'ADMIN');</v>
@@ -23694,7 +23694,7 @@
       <c r="S15" s="23"/>
     </row>
     <row r="16" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="131"/>
+      <c r="A16" s="142"/>
       <c r="B16" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0302','Biz 스킬','C03','2','Y',NOW(),'ADMIN');</v>
@@ -23729,7 +23729,7 @@
       <c r="S16" s="23"/>
     </row>
     <row r="17" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="131"/>
+      <c r="A17" s="142"/>
       <c r="B17" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0303','리더쉽','C03','2','Y',NOW(),'ADMIN');</v>
@@ -23764,7 +23764,7 @@
       <c r="S17" s="23"/>
     </row>
     <row r="18" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="131"/>
+      <c r="A18" s="142"/>
       <c r="B18" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010201','HTML','C0102','3','Y',NOW(),'ADMIN');</v>
@@ -23799,7 +23799,7 @@
       <c r="S18" s="23"/>
     </row>
     <row r="19" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="131"/>
+      <c r="A19" s="142"/>
       <c r="B19" s="32" t="str">
         <f>"INSERT INTO CATEGORY("&amp;$C$2&amp;","&amp;$D$2&amp;","&amp;$E$2&amp;","&amp;$F$2&amp;","&amp;$G$2&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"','"&amp;F19&amp;"','"&amp;G19&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010202','JAVA','C0102','3','Y',NOW(),'ADMIN');</v>
@@ -23834,7 +23834,7 @@
       <c r="S19" s="23"/>
     </row>
     <row r="20" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="131"/>
+      <c r="A20" s="142"/>
       <c r="B20" s="32" t="str">
         <f t="shared" ref="B20:B27" si="3">"INSERT INTO CATEGORY("&amp;$C$2&amp;","&amp;$D$2&amp;","&amp;$E$2&amp;","&amp;$F$2&amp;","&amp;$G$2&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C20&amp;"','"&amp;D20&amp;"','"&amp;E20&amp;"','"&amp;F20&amp;"','"&amp;G20&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010203','.Net','C0102','3','Y',NOW(),'ADMIN');</v>
@@ -23869,7 +23869,7 @@
       <c r="S20" s="23"/>
     </row>
     <row r="21" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="131"/>
+      <c r="A21" s="142"/>
       <c r="B21" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010204','Web Programming','C0102','3','Y',NOW(),'ADMIN');</v>
@@ -23904,7 +23904,7 @@
       <c r="S21" s="23"/>
     </row>
     <row r="22" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="131"/>
+      <c r="A22" s="142"/>
       <c r="B22" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010205','Visual Basic','C0102','3','Y',NOW(),'ADMIN');</v>
@@ -23939,7 +23939,7 @@
       <c r="S22" s="23"/>
     </row>
     <row r="23" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="131"/>
+      <c r="A23" s="142"/>
       <c r="B23" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010501','Oracle','C0105','3','Y',NOW(),'ADMIN');</v>
@@ -23974,7 +23974,7 @@
       <c r="S23" s="23"/>
     </row>
     <row r="24" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="131"/>
+      <c r="A24" s="142"/>
       <c r="B24" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010502','Ms Sql','C0105','3','Y',NOW(),'ADMIN');</v>
@@ -24009,7 +24009,7 @@
       <c r="S24" s="23"/>
     </row>
     <row r="25" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="131"/>
+      <c r="A25" s="142"/>
       <c r="B25" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C05','대분류1','','1','Y',NOW(),'ADMIN');</v>
@@ -24041,7 +24041,7 @@
       <c r="S25" s="23"/>
     </row>
     <row r="26" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="131"/>
+      <c r="A26" s="142"/>
       <c r="B26" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C06','대분류2','','1','Y',NOW(),'ADMIN');</v>
@@ -24073,7 +24073,7 @@
       <c r="S26" s="23"/>
     </row>
     <row r="27" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="131"/>
+      <c r="A27" s="142"/>
       <c r="B27" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0601','대분류2-1','C06','2','Y',NOW(),'ADMIN');</v>
@@ -24107,7 +24107,7 @@
       <c r="S27" s="23"/>
     </row>
     <row r="28" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="131"/>
+      <c r="A28" s="142"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -24128,7 +24128,7 @@
       <c r="S28" s="23"/>
     </row>
     <row r="29" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="131"/>
+      <c r="A29" s="142"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -24149,7 +24149,7 @@
       <c r="S29" s="23"/>
     </row>
     <row r="30" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="131" t="s">
+      <c r="A30" s="142" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -24198,7 +24198,7 @@
       <c r="S30" s="23"/>
     </row>
     <row r="31" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="131"/>
+      <c r="A31" s="142"/>
       <c r="B31" s="30" t="str">
         <f>"INSERT INTO COURSE_CODE("&amp;$C$30&amp;","&amp;$D$30&amp;","&amp;$E$30&amp;","&amp;$F$30&amp;","&amp;$G$30&amp;","&amp;$H$30&amp;","&amp;$I$30&amp;","&amp;$J$30&amp;","&amp;$K$30&amp;","&amp;$L$30&amp;","&amp;$M$30&amp;","&amp;$N$30&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C31&amp;"','"&amp;D31&amp;"','"&amp;E31&amp;"','"&amp;F31&amp;"','"&amp;G31&amp;"','"&amp;H31&amp;"','"&amp;I31&amp;"','"&amp;J31&amp;"','"&amp;K31&amp;"','"&amp;L31&amp;"','"&amp;M31&amp;"','"&amp;N31&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_CODE(COURSE_CODE,COURSE_NAME,TEACHER_ID,H_PX,V_PX,CODE,USE_YN,DIRECTORY,COMPANY_RATE,TEACHER_RATE,TUTOR_RATE,POINT,CREATE_DATE,CREATE_USER) VALUES('C010202001','Java Master','teacher1','1000','900','C010202','Y','C010202001','80','10','10','0',NOW(),'ADMIN');</v>
@@ -24246,7 +24246,7 @@
       <c r="S31" s="23"/>
     </row>
     <row r="32" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="131"/>
+      <c r="A32" s="142"/>
       <c r="B32" s="30" t="str">
         <f t="shared" ref="B32:B33" si="4">"INSERT INTO COURSE_CODE("&amp;$C$30&amp;","&amp;$D$30&amp;","&amp;$E$30&amp;","&amp;$F$30&amp;","&amp;$G$30&amp;","&amp;$H$30&amp;","&amp;$I$30&amp;","&amp;$J$30&amp;","&amp;$K$30&amp;","&amp;$L$30&amp;","&amp;$M$30&amp;","&amp;$N$30&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C32&amp;"','"&amp;D32&amp;"','"&amp;E32&amp;"','"&amp;F32&amp;"','"&amp;G32&amp;"','"&amp;H32&amp;"','"&amp;I32&amp;"','"&amp;J32&amp;"','"&amp;K32&amp;"','"&amp;L32&amp;"','"&amp;M32&amp;"','"&amp;N32&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_CODE(COURSE_CODE,COURSE_NAME,TEACHER_ID,H_PX,V_PX,CODE,USE_YN,DIRECTORY,COMPANY_RATE,TEACHER_RATE,TUTOR_RATE,POINT,CREATE_DATE,CREATE_USER) VALUES('C010202002','Java 실무 과정','teacher2','1000','900','C010202','Y','C010202001','80','10','10','0',NOW(),'ADMIN');</v>
@@ -24294,7 +24294,7 @@
       <c r="S32" s="23"/>
     </row>
     <row r="33" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="131"/>
+      <c r="A33" s="142"/>
       <c r="B33" s="30" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO COURSE_CODE(COURSE_CODE,COURSE_NAME,TEACHER_ID,H_PX,V_PX,CODE,USE_YN,DIRECTORY,COMPANY_RATE,TEACHER_RATE,TUTOR_RATE,POINT,CREATE_DATE,CREATE_USER) VALUES('C010202003','Java 기초 문법','teacher3','1000','900','C010202','Y','C010202001','80','10','10','0',NOW(),'ADMIN');</v>
@@ -24342,7 +24342,7 @@
       <c r="S33" s="23"/>
     </row>
     <row r="34" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="131"/>
+      <c r="A34" s="142"/>
       <c r="B34" s="2"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -24363,7 +24363,7 @@
       <c r="S34" s="23"/>
     </row>
     <row r="35" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="131"/>
+      <c r="A35" s="142"/>
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
@@ -24384,7 +24384,7 @@
       <c r="S35" s="23"/>
     </row>
     <row r="36" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="132" t="s">
+      <c r="A36" s="143" t="s">
         <v>590</v>
       </c>
       <c r="B36" s="23" t="s">
@@ -24435,7 +24435,7 @@
       <c r="S36" s="23"/>
     </row>
     <row r="37" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="132"/>
+      <c r="A37" s="143"/>
       <c r="B37" s="30" t="str">
         <f>"INSERT INTO COURSE_MASTER("&amp;$C$36&amp;","&amp;$D$36&amp;","&amp;$E$36&amp;","&amp;$F$36&amp;","&amp;$G$36&amp;","&amp;$H$36&amp;","&amp;$I$36&amp;","&amp;$J$36&amp;","&amp;$K$36&amp;","&amp;$L$36&amp;","&amp;$M$36&amp;","&amp;$N$36&amp;","&amp;$O$36&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C37&amp;"','"&amp;D37&amp;"','"&amp;E37&amp;"','"&amp;F37&amp;"','"&amp;G37&amp;"','"&amp;H37&amp;"','"&amp;I37&amp;"','"&amp;J37&amp;"','"&amp;K37&amp;"','"&amp;L37&amp;"','"&amp;M37&amp;"','"&amp;N37&amp;"','"&amp;O37&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_MASTER(COURSE_CODE,TUTOR_ID,HTML_YN,LEARING_GOAL,LEARING_CONTENT,EVAL_METHOD,LEARING_TARGET,LEARING_COST,COURSE_COST,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,CREATE_DATE,CREATE_USER) VALUES('C010202001','TUTOR1','N','LEARING_GOAL','LEARING_CONTENT','EVAL_METHOD','LEARING_TARGET','LEARING_COST','50000','0','0','0','100',NOW(),'ADMIN');</v>
@@ -24485,7 +24485,7 @@
       <c r="S37" s="23"/>
     </row>
     <row r="38" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="132"/>
+      <c r="A38" s="143"/>
       <c r="B38" s="30" t="str">
         <f t="shared" ref="B38:B39" si="5">"INSERT INTO COURSE_MASTER("&amp;$C$36&amp;","&amp;$D$36&amp;","&amp;$E$36&amp;","&amp;$F$36&amp;","&amp;$G$36&amp;","&amp;$H$36&amp;","&amp;$I$36&amp;","&amp;$J$36&amp;","&amp;$K$36&amp;","&amp;$L$36&amp;","&amp;$M$36&amp;","&amp;$N$36&amp;","&amp;$O$36&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C38&amp;"','"&amp;D38&amp;"','"&amp;E38&amp;"','"&amp;F38&amp;"','"&amp;G38&amp;"','"&amp;H38&amp;"','"&amp;I38&amp;"','"&amp;J38&amp;"','"&amp;K38&amp;"','"&amp;L38&amp;"','"&amp;M38&amp;"','"&amp;N38&amp;"','"&amp;O38&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_MASTER(COURSE_CODE,TUTOR_ID,HTML_YN,LEARING_GOAL,LEARING_CONTENT,EVAL_METHOD,LEARING_TARGET,LEARING_COST,COURSE_COST,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,CREATE_DATE,CREATE_USER) VALUES('C010202002','TUTOR2','N','LEARING_GOAL','LEARING_CONTENT','EVAL_METHOD','LEARING_TARGET','LEARING_COST','50000','0','0','0','100',NOW(),'ADMIN');</v>
@@ -24535,7 +24535,7 @@
       <c r="S38" s="23"/>
     </row>
     <row r="39" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="132"/>
+      <c r="A39" s="143"/>
       <c r="B39" s="30" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO COURSE_MASTER(COURSE_CODE,TUTOR_ID,HTML_YN,LEARING_GOAL,LEARING_CONTENT,EVAL_METHOD,LEARING_TARGET,LEARING_COST,COURSE_COST,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,CREATE_DATE,CREATE_USER) VALUES('C010202003','TUTOR3','N','LEARING_GOAL','LEARING_CONTENT','EVAL_METHOD','LEARING_TARGET','LEARING_COST','50000','0','0','0','100',NOW(),'ADMIN');</v>
@@ -24585,7 +24585,7 @@
       <c r="S39" s="23"/>
     </row>
     <row r="40" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="132"/>
+      <c r="A40" s="143"/>
       <c r="B40" s="4"/>
       <c r="C40" s="31"/>
       <c r="D40" s="26"/>
@@ -24606,7 +24606,7 @@
       <c r="S40" s="23"/>
     </row>
     <row r="41" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="132"/>
+      <c r="A41" s="143"/>
       <c r="B41" s="4"/>
       <c r="C41" s="31"/>
       <c r="D41" s="26"/>
@@ -24627,7 +24627,7 @@
       <c r="S41" s="23"/>
     </row>
     <row r="42" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="128" t="s">
+      <c r="A42" s="139" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -24676,7 +24676,7 @@
       <c r="S42" s="23"/>
     </row>
     <row r="43" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="129"/>
+      <c r="A43" s="140"/>
       <c r="B43" s="30" t="str">
         <f>"INSERT INTO COURSE("&amp;$C$42&amp;","&amp;$D$42&amp;","&amp;$E$42&amp;","&amp;$F$42&amp;","&amp;$G$42&amp;","&amp;$H$42&amp;","&amp;$I$42&amp;","&amp;$J$42&amp;","&amp;$K$42&amp;","&amp;$L$42&amp;","&amp;$M$42&amp;","&amp;$N$42&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C43&amp;"','"&amp;D43&amp;"','"&amp;E43&amp;"','"&amp;F43&amp;"','"&amp;G43&amp;"','"&amp;H43&amp;"','"&amp;I43&amp;"','"&amp;J43&amp;"','"&amp;K43&amp;"','"&amp;L43&amp;"','"&amp;M43&amp;"','"&amp;N43&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('1','C010202001','NORMAL','50000','50000','','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -24722,7 +24722,7 @@
       <c r="S43" s="23"/>
     </row>
     <row r="44" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="129"/>
+      <c r="A44" s="140"/>
       <c r="B44" s="30" t="str">
         <f t="shared" ref="B44:B49" si="6">"INSERT INTO COURSE("&amp;$C$42&amp;","&amp;$D$42&amp;","&amp;$E$42&amp;","&amp;$F$42&amp;","&amp;$G$42&amp;","&amp;$H$42&amp;","&amp;$I$42&amp;","&amp;$J$42&amp;","&amp;$K$42&amp;","&amp;$L$42&amp;","&amp;$M$42&amp;","&amp;$N$42&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C44&amp;"','"&amp;D44&amp;"','"&amp;E44&amp;"','"&amp;F44&amp;"','"&amp;G44&amp;"','"&amp;H44&amp;"','"&amp;I44&amp;"','"&amp;J44&amp;"','"&amp;K44&amp;"','"&amp;L44&amp;"','"&amp;M44&amp;"','"&amp;N44&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('2','C010202001','NORMAL','50000','50000','','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -24768,7 +24768,7 @@
       <c r="S44" s="23"/>
     </row>
     <row r="45" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="129"/>
+      <c r="A45" s="140"/>
       <c r="B45" s="30" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('3','C010202002','NORMAL','50000','50000','','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -24814,7 +24814,7 @@
       <c r="S45" s="23"/>
     </row>
     <row r="46" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="129"/>
+      <c r="A46" s="140"/>
       <c r="B46" s="30" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('4','C010202002','NORMAL','50000','50000','','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -24860,7 +24860,7 @@
       <c r="S46" s="23"/>
     </row>
     <row r="47" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="129"/>
+      <c r="A47" s="140"/>
       <c r="B47" s="30" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('6','C010202003','COMPANY','50000','50000','COMP1','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -24908,7 +24908,7 @@
       <c r="S47" s="23"/>
     </row>
     <row r="48" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="129"/>
+      <c r="A48" s="140"/>
       <c r="B48" s="30" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('7','C010202003','COMPANY','50000','50000','COMP2','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -24956,7 +24956,7 @@
       <c r="S48" s="23"/>
     </row>
     <row r="49" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="129"/>
+      <c r="A49" s="140"/>
       <c r="B49" s="30" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('8','C010202003','COMPANY','50000','50000','COMP3','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -25004,7 +25004,7 @@
       <c r="S49" s="23"/>
     </row>
     <row r="50" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="129"/>
+      <c r="A50" s="140"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
@@ -25025,7 +25025,7 @@
       <c r="S50" s="23"/>
     </row>
     <row r="51" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="130"/>
+      <c r="A51" s="141"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
@@ -25046,7 +25046,7 @@
       <c r="S51" s="23"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A52" s="128" t="s">
+      <c r="A52" s="139" t="s">
         <v>614</v>
       </c>
       <c r="B52" s="29"/>
@@ -25089,7 +25089,7 @@
       <c r="S52" s="2"/>
     </row>
     <row r="53" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="129"/>
+      <c r="A53" s="140"/>
       <c r="B53" s="30" t="str">
         <f>"INSERT INTO COURSE_REGISTER("&amp;$C$52&amp;","&amp;$D$52&amp;","&amp;$E$52&amp;","&amp;$F$52&amp;","&amp;$G$52&amp;","&amp;$H$52&amp;","&amp;$I$52&amp;","&amp;$J$52&amp;","&amp;$K$52&amp;","&amp;$L$52&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C53&amp;"','"&amp;D53&amp;"','"&amp;E53&amp;"','"&amp;F53&amp;"','"&amp;G53&amp;"','"&amp;H53&amp;"','"&amp;I53&amp;"','"&amp;J53&amp;"','"&amp;K53&amp;"','"&amp;L53&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('1','USER001','A','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25131,7 +25131,7 @@
       <c r="S53" s="2"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="129"/>
+      <c r="A54" s="140"/>
       <c r="B54" s="30" t="str">
         <f t="shared" ref="B54:B70" si="7">"INSERT INTO COURSE_REGISTER("&amp;$C$52&amp;","&amp;$D$52&amp;","&amp;$E$52&amp;","&amp;$F$52&amp;","&amp;$G$52&amp;","&amp;$H$52&amp;","&amp;$I$52&amp;","&amp;$J$52&amp;","&amp;$K$52&amp;","&amp;$L$52&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C54&amp;"','"&amp;D54&amp;"','"&amp;E54&amp;"','"&amp;F54&amp;"','"&amp;G54&amp;"','"&amp;H54&amp;"','"&amp;I54&amp;"','"&amp;J54&amp;"','"&amp;K54&amp;"','"&amp;L54&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('1','USER002','A','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25173,7 +25173,7 @@
       <c r="S54" s="2"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="129"/>
+      <c r="A55" s="140"/>
       <c r="B55" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('1','USER003','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25215,7 +25215,7 @@
       <c r="S55" s="2"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="129"/>
+      <c r="A56" s="140"/>
       <c r="B56" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('2','USER002','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25257,7 +25257,7 @@
       <c r="S56" s="2"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="129"/>
+      <c r="A57" s="140"/>
       <c r="B57" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('3','USER003','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25299,7 +25299,7 @@
       <c r="S57" s="2"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="129"/>
+      <c r="A58" s="140"/>
       <c r="B58" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('4','USER004','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25341,7 +25341,7 @@
       <c r="S58" s="2"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="129"/>
+      <c r="A59" s="140"/>
       <c r="B59" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('5','USER005','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25383,7 +25383,7 @@
       <c r="S59" s="2"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="129"/>
+      <c r="A60" s="140"/>
       <c r="B60" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('6','COMP1','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25425,7 +25425,7 @@
       <c r="S60" s="2"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="129"/>
+      <c r="A61" s="140"/>
       <c r="B61" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('6','COMP_T_7','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25467,7 +25467,7 @@
       <c r="S61" s="2"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="129"/>
+      <c r="A62" s="140"/>
       <c r="B62" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('6','COMP_T_8','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25509,7 +25509,7 @@
       <c r="S62" s="2"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="129"/>
+      <c r="A63" s="140"/>
       <c r="B63" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('6','COMP_T_9','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25551,7 +25551,7 @@
       <c r="S63" s="2"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A64" s="129"/>
+      <c r="A64" s="140"/>
       <c r="B64" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('6','COMP_T_10','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25593,7 +25593,7 @@
       <c r="S64" s="2"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A65" s="129"/>
+      <c r="A65" s="140"/>
       <c r="B65" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('7','COMP2','A','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25635,7 +25635,7 @@
       <c r="S65" s="2"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A66" s="129"/>
+      <c r="A66" s="140"/>
       <c r="B66" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('8','COMP3','A','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25677,7 +25677,7 @@
       <c r="S66" s="2"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A67" s="129"/>
+      <c r="A67" s="140"/>
       <c r="B67" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('1','USER004','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25719,7 +25719,7 @@
       <c r="S67" s="2"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A68" s="129"/>
+      <c r="A68" s="140"/>
       <c r="B68" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('13','USER001','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25761,7 +25761,7 @@
       <c r="S68" s="2"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A69" s="129"/>
+      <c r="A69" s="140"/>
       <c r="B69" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('13','USER002','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25803,7 +25803,7 @@
       <c r="S69" s="2"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A70" s="129"/>
+      <c r="A70" s="140"/>
       <c r="B70" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('13','USER003','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25845,7 +25845,7 @@
       <c r="S70" s="2"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A71" s="129"/>
+      <c r="A71" s="140"/>
       <c r="B71" s="30"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
@@ -25866,7 +25866,7 @@
       <c r="S71" s="2"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A72" s="130"/>
+      <c r="A72" s="141"/>
       <c r="B72" s="30"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
@@ -25887,7 +25887,7 @@
       <c r="S72" s="2"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A73" s="133" t="s">
+      <c r="A73" s="144" t="s">
         <v>66</v>
       </c>
       <c r="B73" s="14" t="s">
@@ -25964,7 +25964,7 @@
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A74" s="134"/>
+      <c r="A74" s="145"/>
       <c r="B74" s="30" t="str">
         <f>"INSERT INTO USER("&amp;$C$73&amp;","&amp;$D$73&amp;","&amp;$E$73&amp;","&amp;$F$73&amp;","&amp;$G$73&amp;","&amp;$H$73&amp;","&amp;$I$73&amp;","&amp;$K$73&amp;","&amp;$L$73&amp;","&amp;$M$73&amp;","&amp;$N$73&amp;","&amp;$O$73&amp;","&amp;$P$73&amp;","&amp;$Q$73&amp;","&amp;$R$73&amp;","&amp;$S$73&amp;","&amp;$T$73&amp;","&amp;$U$73&amp;","&amp;$V$73&amp;","&amp;$W$73&amp;","&amp;$X$73&amp;","&amp;$Y$73&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C74&amp;"','"&amp;D74&amp;"','"&amp;E74&amp;"','"&amp;F74&amp;"','"&amp;G74&amp;"','"&amp;H74&amp;"',"&amp;I74&amp;",'"&amp;K74&amp;"','"&amp;L74&amp;"','"&amp;M74&amp;"','"&amp;N74&amp;"','"&amp;O74&amp;"','"&amp;P74&amp;"','"&amp;Q74&amp;"','"&amp;R74&amp;"','"&amp;S74&amp;"','"&amp;T74&amp;"','"&amp;U74&amp;"','"&amp;V74&amp;"','"&amp;W74&amp;"','"&amp;X74&amp;"','"&amp;Y74&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('admin','어드민','A','N','N','limsm9449@naver.com',PASSWORD(1),'','','','','','','010','1111','0001','','','N','','','',NOW(),'ADMIN');</v>
@@ -26011,7 +26011,7 @@
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A75" s="134"/>
+      <c r="A75" s="145"/>
       <c r="B75" s="30" t="str">
         <f>"INSERT INTO USER("&amp;$C$73&amp;","&amp;$D$73&amp;","&amp;$E$73&amp;","&amp;$F$73&amp;","&amp;$G$73&amp;","&amp;$H$73&amp;","&amp;$I$73&amp;","&amp;$K$73&amp;","&amp;$L$73&amp;","&amp;$M$73&amp;","&amp;$N$73&amp;","&amp;$O$73&amp;","&amp;$P$73&amp;","&amp;$Q$73&amp;","&amp;$R$73&amp;","&amp;$S$73&amp;","&amp;$T$73&amp;","&amp;$U$73&amp;","&amp;$V$73&amp;","&amp;$W$73&amp;","&amp;$X$73&amp;","&amp;$Y$73&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C75&amp;"','"&amp;D75&amp;"','"&amp;E75&amp;"','"&amp;F75&amp;"','"&amp;G75&amp;"','"&amp;H75&amp;"',"&amp;I75&amp;",'"&amp;K75&amp;"','"&amp;L75&amp;"','"&amp;M75&amp;"','"&amp;N75&amp;"','"&amp;O75&amp;"','"&amp;P75&amp;"','"&amp;Q75&amp;"','"&amp;R75&amp;"','"&amp;S75&amp;"','"&amp;T75&amp;"','"&amp;U75&amp;"','"&amp;V75&amp;"','"&amp;W75&amp;"','"&amp;X75&amp;"','"&amp;Y75&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('admin2','어드민','C','N','N','limsm9449@naver.com',PASSWORD(1),'','','','','','','010','1111','0001','','','N','','','',NOW(),'ADMIN');</v>
@@ -26058,7 +26058,7 @@
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A76" s="134"/>
+      <c r="A76" s="145"/>
       <c r="B76" s="30" t="str">
         <f>"INSERT INTO USER("&amp;$C$73&amp;","&amp;$D$73&amp;","&amp;$E$73&amp;","&amp;$F$73&amp;","&amp;$G$73&amp;","&amp;$H$73&amp;","&amp;$I$73&amp;","&amp;$K$73&amp;","&amp;$L$73&amp;","&amp;$M$73&amp;","&amp;$N$73&amp;","&amp;$O$73&amp;","&amp;$P$73&amp;","&amp;$Q$73&amp;","&amp;$R$73&amp;","&amp;$S$73&amp;","&amp;$T$73&amp;","&amp;$U$73&amp;","&amp;$V$73&amp;","&amp;$W$73&amp;","&amp;$X$73&amp;","&amp;$Y$73&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C76&amp;"','"&amp;D76&amp;"','"&amp;E76&amp;"','"&amp;F76&amp;"','"&amp;G76&amp;"','"&amp;H76&amp;"',"&amp;I76&amp;",'"&amp;K76&amp;"','"&amp;L76&amp;"','"&amp;M76&amp;"','"&amp;N76&amp;"','"&amp;O76&amp;"','"&amp;P76&amp;"','"&amp;Q76&amp;"','"&amp;R76&amp;"','"&amp;S76&amp;"','"&amp;T76&amp;"','"&amp;U76&amp;"','"&amp;V76&amp;"','"&amp;W76&amp;"','"&amp;X76&amp;"','"&amp;Y76&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('admin3','어드민','M','N','N','limsm9449@naver.com',PASSWORD(1),'','','','','','','010','1111','0001','','','N','','','',NOW(),'ADMIN');</v>
@@ -26105,7 +26105,7 @@
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A77" s="134"/>
+      <c r="A77" s="145"/>
       <c r="B77" s="30" t="str">
         <f t="shared" ref="B77:B116" si="8">"INSERT INTO USER("&amp;$C$73&amp;","&amp;$D$73&amp;","&amp;$E$73&amp;","&amp;$F$73&amp;","&amp;$G$73&amp;","&amp;$H$73&amp;","&amp;$I$73&amp;","&amp;$K$73&amp;","&amp;$L$73&amp;","&amp;$M$73&amp;","&amp;$N$73&amp;","&amp;$O$73&amp;","&amp;$P$73&amp;","&amp;$Q$73&amp;","&amp;$R$73&amp;","&amp;$S$73&amp;","&amp;$T$73&amp;","&amp;$U$73&amp;","&amp;$V$73&amp;","&amp;$W$73&amp;","&amp;$X$73&amp;","&amp;$Y$73&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C77&amp;"','"&amp;D77&amp;"','"&amp;E77&amp;"','"&amp;F77&amp;"','"&amp;G77&amp;"','"&amp;H77&amp;"',"&amp;I77&amp;",'"&amp;K77&amp;"','"&amp;L77&amp;"','"&amp;M77&amp;"','"&amp;N77&amp;"','"&amp;O77&amp;"','"&amp;P77&amp;"','"&amp;Q77&amp;"','"&amp;R77&amp;"','"&amp;S77&amp;"','"&amp;T77&amp;"','"&amp;U77&amp;"','"&amp;V77&amp;"','"&amp;W77&amp;"','"&amp;X77&amp;"','"&amp;Y77&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER001','USER001','N','N','N','limsm1@naver.com',PASSWORD(1),'','','','','','','010','1111','0002','','','N','','','',NOW(),'ADMIN');</v>
@@ -26152,7 +26152,7 @@
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A78" s="134"/>
+      <c r="A78" s="145"/>
       <c r="B78" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER002','USER002','N','N','N','limsm2@naver.com',PASSWORD(1),'','','','','','','010','1111','0003','','','N','','','',NOW(),'ADMIN');</v>
@@ -26199,7 +26199,7 @@
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A79" s="134"/>
+      <c r="A79" s="145"/>
       <c r="B79" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER003','USER003','N','N','N','limsm3@naver.com',PASSWORD(1),'','','','','','','010','1111','0004','','','N','','','',NOW(),'ADMIN');</v>
@@ -26246,7 +26246,7 @@
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A80" s="134"/>
+      <c r="A80" s="145"/>
       <c r="B80" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER004','USER004','N','N','N','limsm4@naver.com',PASSWORD(1),'','','','','','','010','1111','0005','','','N','','','',NOW(),'ADMIN');</v>
@@ -26293,7 +26293,7 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A81" s="134"/>
+      <c r="A81" s="145"/>
       <c r="B81" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER005','USER005','N','N','N','limsm5@naver.com',PASSWORD(1),'','','','','','','010','1111','0006','','','N','','','',NOW(),'ADMIN');</v>
@@ -26340,7 +26340,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A82" s="134"/>
+      <c r="A82" s="145"/>
       <c r="B82" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER006','USER006','N','N','N','limsm6@naver.com',PASSWORD(1),'','','','','','','010','1111','0007','','','N','','','',NOW(),'ADMIN');</v>
@@ -26387,7 +26387,7 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A83" s="134"/>
+      <c r="A83" s="145"/>
       <c r="B83" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER007','USER007','N','N','N','limsm7@naver.com',PASSWORD(1),'','','','','','','010','1111','0008','','','N','','','',NOW(),'ADMIN');</v>
@@ -26434,7 +26434,7 @@
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A84" s="134"/>
+      <c r="A84" s="145"/>
       <c r="B84" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER008','USER008','N','N','N','limsm8@naver.com',PASSWORD(1),'','','','','','','010','1111','0009','','','N','','','',NOW(),'ADMIN');</v>
@@ -26481,7 +26481,7 @@
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A85" s="134"/>
+      <c r="A85" s="145"/>
       <c r="B85" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER009','USER009','N','N','N','limsm9@naver.com',PASSWORD(1),'','','','','','','010','1111','0010','','','N','','','',NOW(),'ADMIN');</v>
@@ -26528,7 +26528,7 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A86" s="134"/>
+      <c r="A86" s="145"/>
       <c r="B86" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER010','USER010','N','N','N','limsm10@naver.com',PASSWORD(1),'','','','','','','010','1111','0011','','','N','','','',NOW(),'ADMIN');</v>
@@ -26575,7 +26575,7 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A87" s="134"/>
+      <c r="A87" s="145"/>
       <c r="B87" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER1','TEACHER1','N','N','Y','limsm11@naver.com',PASSWORD(1),'','','','','','','010','1111','0012','','','N','','','',NOW(),'ADMIN');</v>
@@ -26622,7 +26622,7 @@
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A88" s="134"/>
+      <c r="A88" s="145"/>
       <c r="B88" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER2','TEACHER2','N','N','Y','limsm12@naver.com',PASSWORD(1),'','','','','','','010','1111','0013','','','N','','','',NOW(),'ADMIN');</v>
@@ -26669,7 +26669,7 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A89" s="134"/>
+      <c r="A89" s="145"/>
       <c r="B89" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER3','TEACHER3','N','N','Y','limsm13@naver.com',PASSWORD(1),'','','','','','','010','1111','0014','','','N','','','',NOW(),'ADMIN');</v>
@@ -26716,7 +26716,7 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A90" s="134"/>
+      <c r="A90" s="145"/>
       <c r="B90" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER4','TEACHER4','N','N','Y','limsm14@naver.com',PASSWORD(1),'','','','','','','010','1111','0015','','','N','','','',NOW(),'ADMIN');</v>
@@ -26763,7 +26763,7 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A91" s="134"/>
+      <c r="A91" s="145"/>
       <c r="B91" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER5','TEACHER5','N','N','Y','limsm15@naver.com',PASSWORD(1),'','','','','','','010','1111','0016','','','N','','','',NOW(),'ADMIN');</v>
@@ -26810,7 +26810,7 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A92" s="134"/>
+      <c r="A92" s="145"/>
       <c r="B92" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER6','TEACHER6','N','N','Y','limsm16@naver.com',PASSWORD(1),'','','','','','','010','1111','0017','','','N','','','',NOW(),'ADMIN');</v>
@@ -26857,7 +26857,7 @@
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A93" s="134"/>
+      <c r="A93" s="145"/>
       <c r="B93" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER7','TEACHER7','N','N','Y','limsm17@naver.com',PASSWORD(1),'','','','','','','010','1111','0018','','','N','','','',NOW(),'ADMIN');</v>
@@ -26901,7 +26901,7 @@
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A94" s="134"/>
+      <c r="A94" s="145"/>
       <c r="B94" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER8','TEACHER8','N','N','Y','limsm18@naver.com',PASSWORD(1),'','','','','','','010','1111','0019','','','N','','','',NOW(),'ADMIN');</v>
@@ -26945,7 +26945,7 @@
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A95" s="134"/>
+      <c r="A95" s="145"/>
       <c r="B95" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER9','TEACHER9','N','N','Y','limsm19@naver.com',PASSWORD(1),'','','','','','','010','1111','0020','','','N','','','',NOW(),'ADMIN');</v>
@@ -26989,7 +26989,7 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A96" s="134"/>
+      <c r="A96" s="145"/>
       <c r="B96" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER10','TEACHER10','N','N','Y','limsm20@naver.com',PASSWORD(1),'','','','','','','010','1111','0021','','','N','','','',NOW(),'ADMIN');</v>
@@ -27033,7 +27033,7 @@
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A97" s="134"/>
+      <c r="A97" s="145"/>
       <c r="B97" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR1','TUTOR1','N','Y','N','limsm21@naver.com',PASSWORD(1),'','','','','','','010','1111','0022','','','N','','','',NOW(),'ADMIN');</v>
@@ -27077,7 +27077,7 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A98" s="134"/>
+      <c r="A98" s="145"/>
       <c r="B98" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR2','TUTOR2','N','Y','N','limsm22@naver.com',PASSWORD(1),'','','','','','','010','1111','0023','','','N','','','',NOW(),'ADMIN');</v>
@@ -27121,7 +27121,7 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A99" s="134"/>
+      <c r="A99" s="145"/>
       <c r="B99" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR3','TUTOR3','N','Y','N','limsm23@naver.com',PASSWORD(1),'','','','','','','010','1111','0024','','','N','','','',NOW(),'ADMIN');</v>
@@ -27165,7 +27165,7 @@
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A100" s="134"/>
+      <c r="A100" s="145"/>
       <c r="B100" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR4','TUTOR4','N','Y','N','limsm24@naver.com',PASSWORD(1),'','','','','','','010','1111','0025','','COMP1','N','','','',NOW(),'ADMIN');</v>
@@ -27212,7 +27212,7 @@
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A101" s="134"/>
+      <c r="A101" s="145"/>
       <c r="B101" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR5','TUTOR5','N','Y','N','limsm25@naver.com',PASSWORD(1),'','','','','','','010','1111','0026','','COMP2','N','','','',NOW(),'ADMIN');</v>
@@ -27259,7 +27259,7 @@
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A102" s="134"/>
+      <c r="A102" s="145"/>
       <c r="B102" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR6','TUTOR6','N','Y','N','limsm26@naver.com',PASSWORD(1),'','','','','','','010','1111','0027','','COMP3','N','','','',NOW(),'ADMIN');</v>
@@ -27306,7 +27306,7 @@
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A103" s="134"/>
+      <c r="A103" s="145"/>
       <c r="B103" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR7','TUTOR7','N','Y','N','limsm27@naver.com',PASSWORD(1),'','','','','','','010','1111','0028','','','N','','','',NOW(),'ADMIN');</v>
@@ -27350,7 +27350,7 @@
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A104" s="134"/>
+      <c r="A104" s="145"/>
       <c r="B104" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR8','TUTOR8','N','Y','N','limsm28@naver.com',PASSWORD(1),'','','','','','','010','1111','0029','','','N','','','',NOW(),'ADMIN');</v>
@@ -27394,7 +27394,7 @@
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A105" s="134"/>
+      <c r="A105" s="145"/>
       <c r="B105" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR9','TUTOR9','N','Y','N','limsm29@naver.com',PASSWORD(1),'','','','','','','010','1111','0030','','','N','','','',NOW(),'ADMIN');</v>
@@ -27438,7 +27438,7 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A106" s="134"/>
+      <c r="A106" s="145"/>
       <c r="B106" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR10','TUTOR10','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0031','','','N','','','',NOW(),'ADMIN');</v>
@@ -27482,7 +27482,7 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A107" s="134"/>
+      <c r="A107" s="145"/>
       <c r="B107" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_1','COMP_T_1','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0032','','COMP1','N','','','',NOW(),'ADMIN');</v>
@@ -27529,7 +27529,7 @@
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A108" s="134"/>
+      <c r="A108" s="145"/>
       <c r="B108" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_2','COMP_T_2','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0033','','COMP2','N','','','',NOW(),'ADMIN');</v>
@@ -27576,7 +27576,7 @@
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A109" s="134"/>
+      <c r="A109" s="145"/>
       <c r="B109" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_3','COMP_T_3','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0034','','COMP3','N','','','',NOW(),'ADMIN');</v>
@@ -27623,7 +27623,7 @@
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A110" s="134"/>
+      <c r="A110" s="145"/>
       <c r="B110" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_4','COMP_T_4','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0035','','COMP4','N','','','',NOW(),'ADMIN');</v>
@@ -27670,7 +27670,7 @@
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A111" s="134"/>
+      <c r="A111" s="145"/>
       <c r="B111" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_5','COMP_T_5','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0036','','COMP5','N','','','',NOW(),'ADMIN');</v>
@@ -27717,7 +27717,7 @@
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A112" s="134"/>
+      <c r="A112" s="145"/>
       <c r="B112" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_6','COMP_T_6','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0037','','COMP6','N','','','',NOW(),'ADMIN');</v>
@@ -27764,7 +27764,7 @@
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A113" s="134"/>
+      <c r="A113" s="145"/>
       <c r="B113" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_7','COMP_T_7','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0038','','COMP7','N','','','',NOW(),'ADMIN');</v>
@@ -27811,7 +27811,7 @@
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A114" s="134"/>
+      <c r="A114" s="145"/>
       <c r="B114" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_8','COMP_T_8','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0039','','COMP8','N','','','',NOW(),'ADMIN');</v>
@@ -27858,7 +27858,7 @@
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A115" s="134"/>
+      <c r="A115" s="145"/>
       <c r="B115" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_9','COMP_T_9','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0040','','COMP9','N','','','',NOW(),'ADMIN');</v>
@@ -27905,7 +27905,7 @@
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A116" s="134"/>
+      <c r="A116" s="145"/>
       <c r="B116" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_10','COMP_T_10','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0041','','COMP10','N','','','',NOW(),'ADMIN');</v>
@@ -27952,7 +27952,7 @@
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A117" s="134"/>
+      <c r="A117" s="145"/>
       <c r="B117" s="33"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
@@ -28182,7 +28182,7 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="127" t="s">
+      <c r="A132" s="138" t="s">
         <v>94</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -28202,7 +28202,7 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="127"/>
+      <c r="A133" s="138"/>
       <c r="B133" s="28" t="str">
         <f>"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C133&amp;"','"&amp;D133&amp;"','"&amp;E133&amp;"','"&amp;F133&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_KIND','NORMAL','일반 강좌','1');</v>
@@ -28225,7 +28225,7 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="127"/>
+      <c r="A134" s="138"/>
       <c r="B134" s="28" t="str">
         <f t="shared" ref="B134" si="11">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C134&amp;"','"&amp;D134&amp;"','"&amp;E134&amp;"','"&amp;F134&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_KIND','COMPANY','회사 강좌','3');</v>
@@ -28248,7 +28248,7 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="127"/>
+      <c r="A135" s="138"/>
       <c r="C135" s="3"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -28256,7 +28256,7 @@
       <c r="G135" s="3"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="127"/>
+      <c r="A136" s="138"/>
       <c r="C136" s="3"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -28264,7 +28264,7 @@
       <c r="G136" s="3"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="127"/>
+      <c r="A137" s="138"/>
       <c r="C137" s="3"/>
       <c r="D137" s="1"/>
       <c r="E137" s="19"/>
@@ -28272,7 +28272,7 @@
       <c r="G137" s="3"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="127"/>
+      <c r="A138" s="138"/>
       <c r="C138" s="3"/>
       <c r="D138" s="1"/>
       <c r="E138" s="19"/>
@@ -28280,7 +28280,7 @@
       <c r="G138" s="3"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="127"/>
+      <c r="A139" s="138"/>
       <c r="B139" s="28" t="str">
         <f t="shared" ref="B139:B149" si="12">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C139&amp;"','"&amp;D139&amp;"','"&amp;E139&amp;"','"&amp;F139&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('AUTH','ADMIN','Admin','1');</v>
@@ -28303,7 +28303,7 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="127"/>
+      <c r="A140" s="138"/>
       <c r="B140" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('AUTH','TEACHER','강사','2');</v>
@@ -28326,7 +28326,7 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="127"/>
+      <c r="A141" s="138"/>
       <c r="B141" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('AUTH','TUTOR','튜터','3');</v>
@@ -28349,7 +28349,7 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="127"/>
+      <c r="A142" s="138"/>
       <c r="B142" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('AUTH','USER','사용자','4');</v>
@@ -28372,7 +28372,7 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="127"/>
+      <c r="A143" s="138"/>
       <c r="B143" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('REG_STATUS','Y','승인요청','1');</v>
@@ -28395,7 +28395,7 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="127"/>
+      <c r="A144" s="138"/>
       <c r="B144" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('REG_STATUS','B','현금입금','1');</v>
@@ -28418,7 +28418,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="127"/>
+      <c r="A145" s="138"/>
       <c r="B145" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('REG_STATUS','A','승인','2');</v>
@@ -28441,7 +28441,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="127"/>
+      <c r="A146" s="138"/>
       <c r="B146" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('REG_STATUS','C','거절','3');</v>
@@ -28464,7 +28464,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="127"/>
+      <c r="A147" s="138"/>
       <c r="B147" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('REG_STATUS','R','환불','4');</v>
@@ -28487,7 +28487,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="127"/>
+      <c r="A148" s="138"/>
       <c r="B148" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND','CARD','카드','3');</v>
@@ -28510,7 +28510,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="127"/>
+      <c r="A149" s="138"/>
       <c r="B149" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND','CASH','은행','4');</v>
@@ -28533,7 +28533,7 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="127"/>
+      <c r="A150" s="138"/>
       <c r="C150" s="3"/>
       <c r="D150" s="9"/>
       <c r="E150" s="3"/>
@@ -28541,7 +28541,7 @@
       <c r="G150" s="3"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="127"/>
+      <c r="A151" s="138"/>
       <c r="B151" s="28" t="str">
         <f t="shared" ref="B151" si="16">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C151&amp;"','"&amp;D151&amp;"','"&amp;E151&amp;"','"&amp;F151&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','100000000000','신용카드','1');</v>
@@ -28564,7 +28564,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="127"/>
+      <c r="A152" s="138"/>
       <c r="B152" s="28" t="str">
         <f t="shared" ref="B152:B157" si="18">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C152&amp;"','"&amp;D152&amp;"','"&amp;E152&amp;"','"&amp;F152&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','010000000000','계좌이체','2');</v>
@@ -28587,7 +28587,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="127"/>
+      <c r="A153" s="138"/>
       <c r="B153" s="28" t="str">
         <f t="shared" si="18"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','001000000000','가상계좌','3');</v>
@@ -28610,7 +28610,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="127"/>
+      <c r="A154" s="138"/>
       <c r="B154" s="28" t="str">
         <f t="shared" si="18"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','000100000000','포인트','4');</v>
@@ -28633,7 +28633,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="127"/>
+      <c r="A155" s="138"/>
       <c r="B155" s="28" t="str">
         <f t="shared" si="18"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','000010000000','휴대폰','5');</v>
@@ -28656,7 +28656,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="127"/>
+      <c r="A156" s="138"/>
       <c r="B156" s="28" t="str">
         <f t="shared" si="18"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','000000001000','상품권','6');</v>
@@ -28679,7 +28679,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="127"/>
+      <c r="A157" s="138"/>
       <c r="B157" s="28" t="str">
         <f t="shared" si="18"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','000000000010','ARS','7');</v>
@@ -28702,7 +28702,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="127"/>
+      <c r="A158" s="138"/>
       <c r="B158" s="28" t="str">
         <f t="shared" ref="B158:B159" si="19">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C158&amp;"','"&amp;D158&amp;"','"&amp;E158&amp;"','"&amp;F158&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','CARD','카드','8');</v>
@@ -28722,7 +28722,7 @@
       <c r="G158" s="3"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" s="127"/>
+      <c r="A159" s="138"/>
       <c r="B159" s="28" t="str">
         <f t="shared" si="19"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','CASH','은행','9');</v>
@@ -28742,7 +28742,7 @@
       <c r="G159" s="3"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="127"/>
+      <c r="A160" s="138"/>
       <c r="C160" s="3"/>
       <c r="D160" s="9"/>
       <c r="E160" s="3"/>
@@ -28750,7 +28750,7 @@
       <c r="G160" s="3"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="127"/>
+      <c r="A161" s="138"/>
       <c r="C161" s="3"/>
       <c r="D161" s="1"/>
       <c r="E161" s="19"/>
@@ -28758,7 +28758,7 @@
       <c r="G161" s="3"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="127"/>
+      <c r="A162" s="138"/>
       <c r="B162" s="28" t="str">
         <f t="shared" ref="B162:B168" si="20">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C162&amp;"','"&amp;D162&amp;"','"&amp;E162&amp;"','"&amp;F162&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','G_BEFORE','모집전','1');</v>
@@ -28781,7 +28781,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="127"/>
+      <c r="A163" s="138"/>
       <c r="B163" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','G_ING','모집중','2');</v>
@@ -28804,7 +28804,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="127"/>
+      <c r="A164" s="138"/>
       <c r="B164" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','P_BEFORE','강좌 진행전','3');</v>
@@ -28827,7 +28827,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="127"/>
+      <c r="A165" s="138"/>
       <c r="B165" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','P_ING','강좌 진행중','4');</v>
@@ -28850,7 +28850,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="127"/>
+      <c r="A166" s="138"/>
       <c r="B166" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','COMPLETE','강좌 완료','5');</v>
@@ -28873,7 +28873,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="127"/>
+      <c r="A167" s="138"/>
       <c r="B167" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','CLOSE','강좌 종강','6');</v>
@@ -28896,7 +28896,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="127"/>
+      <c r="A168" s="138"/>
       <c r="B168" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','CANCEL','강좌 취소','7');</v>
@@ -28919,7 +28919,7 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="127"/>
+      <c r="A169" s="138"/>
       <c r="C169" s="3"/>
       <c r="D169" s="9"/>
       <c r="E169" s="3"/>
@@ -28927,7 +28927,7 @@
       <c r="G169" s="3"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="127"/>
+      <c r="A170" s="138"/>
       <c r="C170" s="3"/>
       <c r="D170" s="9"/>
       <c r="E170" s="3"/>
@@ -28935,7 +28935,7 @@
       <c r="G170" s="3"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="127"/>
+      <c r="A171" s="138"/>
       <c r="C171" s="3"/>
       <c r="D171" s="9"/>
       <c r="E171" s="3"/>
@@ -28943,7 +28943,7 @@
       <c r="G171" s="3"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="127"/>
+      <c r="A172" s="138"/>
       <c r="C172" s="3"/>
       <c r="D172" s="9"/>
       <c r="E172" s="3"/>
@@ -28951,7 +28951,7 @@
       <c r="G172" s="3"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="127"/>
+      <c r="A173" s="138"/>
       <c r="B173" s="28" t="str">
         <f t="shared" ref="B173:B179" si="23">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C173&amp;"','"&amp;D173&amp;"','"&amp;E173&amp;"','"&amp;F173&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','01','홈페이지 이용 문의','1');</v>
@@ -28974,7 +28974,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="127"/>
+      <c r="A174" s="138"/>
       <c r="B174" s="28" t="str">
         <f t="shared" si="23"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','02','수강신청','2');</v>
@@ -28997,7 +28997,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="127"/>
+      <c r="A175" s="138"/>
       <c r="B175" s="28" t="str">
         <f t="shared" si="23"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','03','교육일정','3');</v>
@@ -29020,7 +29020,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="127"/>
+      <c r="A176" s="138"/>
       <c r="B176" s="28" t="str">
         <f t="shared" si="23"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','04','회원정보관련','4');</v>
@@ -29043,7 +29043,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="127"/>
+      <c r="A177" s="138"/>
       <c r="B177" s="28" t="str">
         <f t="shared" si="23"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','05','교육상담','5');</v>
@@ -29066,7 +29066,7 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="127"/>
+      <c r="A178" s="138"/>
       <c r="B178" s="28" t="str">
         <f t="shared" si="23"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','06','기타문의','6');</v>
@@ -29089,7 +29089,7 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="127"/>
+      <c r="A179" s="138"/>
       <c r="B179" s="28" t="str">
         <f t="shared" si="23"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('POINT_KIND','COURSE','과정 수강 적립','1');</v>
@@ -29112,7 +29112,7 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="127"/>
+      <c r="A180" s="138"/>
       <c r="B180" s="28" t="str">
         <f t="shared" ref="B180:B181" si="26">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C180&amp;"','"&amp;D180&amp;"','"&amp;E180&amp;"','"&amp;F180&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('POINT_KIND','COURSE_REFUND','과정 환불','2');</v>
@@ -29135,7 +29135,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="127"/>
+      <c r="A181" s="138"/>
       <c r="B181" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('POINT_KIND','POSTSCRIPT','수강 후기','3');</v>
@@ -29158,7 +29158,7 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="127"/>
+      <c r="A182" s="138"/>
       <c r="B182" s="28" t="str">
         <f t="shared" ref="B182:B183" si="27">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C182&amp;"','"&amp;D182&amp;"','"&amp;E182&amp;"','"&amp;F182&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('UC_KIND','U','사용자','1');</v>
@@ -29181,7 +29181,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="127"/>
+      <c r="A183" s="138"/>
       <c r="B183" s="28" t="str">
         <f t="shared" si="27"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('UC_KIND','C','회사','2');</v>
@@ -29204,7 +29204,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="127"/>
+      <c r="A184" s="138"/>
       <c r="B184" s="28" t="str">
         <f t="shared" ref="B184:B203" si="29">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C184&amp;"','"&amp;D184&amp;"','"&amp;E184&amp;"','"&amp;F184&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','02','02','1');</v>
@@ -29227,7 +29227,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="127"/>
+      <c r="A185" s="138"/>
       <c r="B185" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','031','031','2');</v>
@@ -29250,7 +29250,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="127"/>
+      <c r="A186" s="138"/>
       <c r="B186" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','032','032','3');</v>
@@ -29273,7 +29273,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="127"/>
+      <c r="A187" s="138"/>
       <c r="B187" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','033','033','4');</v>
@@ -29296,7 +29296,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="127"/>
+      <c r="A188" s="138"/>
       <c r="B188" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','041','041','5');</v>
@@ -29319,7 +29319,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="127"/>
+      <c r="A189" s="138"/>
       <c r="B189" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','042','042','6');</v>
@@ -29342,7 +29342,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="127"/>
+      <c r="A190" s="138"/>
       <c r="B190" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','043','043','7');</v>
@@ -29365,7 +29365,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="127"/>
+      <c r="A191" s="138"/>
       <c r="B191" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','0502','0502','8');</v>
@@ -29388,7 +29388,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="127"/>
+      <c r="A192" s="138"/>
       <c r="B192" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','0505','0505','9');</v>
@@ -29411,7 +29411,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="127"/>
+      <c r="A193" s="138"/>
       <c r="B193" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','0506','0506','10');</v>
@@ -29434,7 +29434,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="127"/>
+      <c r="A194" s="138"/>
       <c r="B194" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','051','051','11');</v>
@@ -29457,7 +29457,7 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="127"/>
+      <c r="A195" s="138"/>
       <c r="B195" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','052','052','12');</v>
@@ -29480,7 +29480,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="127"/>
+      <c r="A196" s="138"/>
       <c r="B196" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','053','053','13');</v>
@@ -29503,7 +29503,7 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="127"/>
+      <c r="A197" s="138"/>
       <c r="B197" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','054','054','14');</v>
@@ -29526,7 +29526,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="127"/>
+      <c r="A198" s="138"/>
       <c r="B198" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','055','055','15');</v>
@@ -29549,7 +29549,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="127"/>
+      <c r="A199" s="138"/>
       <c r="B199" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','061','061','16');</v>
@@ -29572,7 +29572,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="127"/>
+      <c r="A200" s="138"/>
       <c r="B200" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','062','062','17');</v>
@@ -29595,7 +29595,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="127"/>
+      <c r="A201" s="138"/>
       <c r="B201" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','063','063','18');</v>
@@ -29618,7 +29618,7 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202" s="127"/>
+      <c r="A202" s="138"/>
       <c r="B202" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','064','064','19');</v>
@@ -29641,7 +29641,7 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="127"/>
+      <c r="A203" s="138"/>
       <c r="B203" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','070','070','20');</v>
@@ -29664,7 +29664,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="127"/>
+      <c r="A204" s="138"/>
       <c r="B204" s="28" t="str">
         <f t="shared" ref="B204:B209" si="31">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C204&amp;"','"&amp;D204&amp;"','"&amp;E204&amp;"','"&amp;F204&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','010','010','1');</v>
@@ -29687,7 +29687,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="127"/>
+      <c r="A205" s="138"/>
       <c r="B205" s="28" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','011','011','2');</v>
@@ -29710,7 +29710,7 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" s="127"/>
+      <c r="A206" s="138"/>
       <c r="B206" s="28" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','016','016','3');</v>
@@ -29733,7 +29733,7 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" s="127"/>
+      <c r="A207" s="138"/>
       <c r="B207" s="28" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','017','017','4');</v>
@@ -29756,7 +29756,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="127"/>
+      <c r="A208" s="138"/>
       <c r="B208" s="28" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','018','018','5');</v>
@@ -29779,7 +29779,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="127"/>
+      <c r="A209" s="138"/>
       <c r="B209" s="28" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','019','019','6');</v>
@@ -29802,7 +29802,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="127"/>
+      <c r="A210" s="138"/>
       <c r="B210" s="28" t="str">
         <f t="shared" ref="B210:B216" si="32">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C210&amp;"','"&amp;D210&amp;"','"&amp;E210&amp;"','"&amp;F210&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','01','사원','1');</v>
@@ -29825,7 +29825,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="127"/>
+      <c r="A211" s="138"/>
       <c r="B211" s="28" t="str">
         <f t="shared" si="32"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','02','대리','2');</v>
@@ -29848,7 +29848,7 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="127"/>
+      <c r="A212" s="138"/>
       <c r="B212" s="28" t="str">
         <f t="shared" si="32"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','03','과장','3');</v>
@@ -29871,7 +29871,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" s="127"/>
+      <c r="A213" s="138"/>
       <c r="B213" s="28" t="str">
         <f t="shared" si="32"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','04','차장','4');</v>
@@ -29894,7 +29894,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="127"/>
+      <c r="A214" s="138"/>
       <c r="B214" s="28" t="str">
         <f t="shared" si="32"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','05','부장','5');</v>
@@ -29917,7 +29917,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" s="127"/>
+      <c r="A215" s="138"/>
       <c r="B215" s="28" t="str">
         <f t="shared" si="32"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','06','임원','6');</v>
@@ -29940,7 +29940,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" s="127"/>
+      <c r="A216" s="138"/>
       <c r="B216" s="28" t="str">
         <f t="shared" si="32"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','07','기타','7');</v>
@@ -29963,10 +29963,10 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" s="127"/>
+      <c r="A217" s="138"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" s="127"/>
+      <c r="A218" s="138"/>
       <c r="B218" s="28" t="str">
         <f t="shared" ref="B218:B220" si="33">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C218&amp;"','"&amp;D218&amp;"','"&amp;E218&amp;"','"&amp;F218&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('ADMIN_AUTH','A','Admin','1');</v>
@@ -29989,7 +29989,7 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" s="127"/>
+      <c r="A219" s="138"/>
       <c r="B219" s="28" t="str">
         <f t="shared" si="33"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('ADMIN_AUTH','C','Contents Admin','2');</v>
@@ -30012,7 +30012,7 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="127"/>
+      <c r="A220" s="138"/>
       <c r="B220" s="28" t="str">
         <f t="shared" si="33"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('ADMIN_AUTH','M','Manage Admin','3');</v>
@@ -30035,10 +30035,10 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" s="127"/>
+      <c r="A221" s="138"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="127"/>
+      <c r="A222" s="138"/>
       <c r="B222" s="28" t="str">
         <f t="shared" ref="B222:B223" si="36">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C222&amp;"','"&amp;D222&amp;"','"&amp;E222&amp;"','"&amp;F222&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('SEX','M','남','1');</v>
@@ -30127,7 +30127,7 @@
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A230" s="126" t="s">
+      <c r="A230" s="137" t="s">
         <v>1015</v>
       </c>
       <c r="B230" s="3" t="s">
@@ -30135,13 +30135,13 @@
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A231" s="126"/>
+      <c r="A231" s="137"/>
       <c r="B231" s="3" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A232" s="126"/>
+      <c r="A232" s="137"/>
       <c r="B232" s="3" t="s">
         <v>882</v>
       </c>
@@ -30723,7 +30723,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="135"/>
+      <c r="A12" s="146"/>
       <c r="B12" s="3" t="s">
         <v>945</v>
       </c>
@@ -30732,7 +30732,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="136"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="3" t="s">
         <v>937</v>
       </c>
@@ -30741,7 +30741,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="136"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="3" t="s">
         <v>938</v>
       </c>
@@ -30750,7 +30750,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="136"/>
+      <c r="A15" s="147"/>
       <c r="B15" s="3" t="s">
         <v>935</v>
       </c>
@@ -30759,7 +30759,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="136"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="3" t="s">
         <v>939</v>
       </c>
@@ -30768,7 +30768,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="136"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="3" t="s">
         <v>928</v>
       </c>
@@ -30780,7 +30780,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="136"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="3" t="s">
         <v>929</v>
       </c>
@@ -30789,7 +30789,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="136"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="3" t="s">
         <v>930</v>
       </c>
@@ -30798,7 +30798,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="136"/>
+      <c r="A20" s="147"/>
       <c r="B20" s="3" t="s">
         <v>931</v>
       </c>

--- a/src/main/webapp/resources/setting/setting_20170222.xlsx
+++ b/src/main/webapp/resources/setting/setting_20170222.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="630" windowWidth="8100" windowHeight="11070" tabRatio="727" activeTab="4"/>
+    <workbookView xWindow="8100" yWindow="630" windowWidth="8100" windowHeight="11070" tabRatio="727" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="협의사항" sheetId="42" r:id="rId1"/>
     <sheet name="Context" sheetId="40" r:id="rId2"/>
     <sheet name="Db" sheetId="41" r:id="rId3"/>
     <sheet name="Table" sheetId="36" r:id="rId4"/>
-    <sheet name="Table 변경" sheetId="43" r:id="rId5"/>
-    <sheet name="Drop Table" sheetId="35" r:id="rId6"/>
-    <sheet name="Data" sheetId="34" r:id="rId7"/>
-    <sheet name="환경설정" sheetId="37" r:id="rId8"/>
-    <sheet name="테이블 변경" sheetId="38" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="39" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="44" r:id="rId11"/>
+    <sheet name="로직 수정 사항" sheetId="45" r:id="rId5"/>
+    <sheet name="Table 변경" sheetId="43" r:id="rId6"/>
+    <sheet name="Drop Table" sheetId="35" r:id="rId7"/>
+    <sheet name="Data" sheetId="34" r:id="rId8"/>
+    <sheet name="환경설정" sheetId="37" r:id="rId9"/>
+    <sheet name="테이블 변경" sheetId="38" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="39" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="44" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Table!$A$1:$I$1</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4268" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4269" uniqueCount="1310">
   <si>
     <t>USE_YN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4380,22 +4381,6 @@
   </si>
   <si>
     <t>학습기간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPORT_FAIL_RATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXAM_FAIL_RATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISCUSSION_FAIL_RATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROGRESS_FAIL_RATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4985,10 +4970,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018.08.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>--PICTURE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5217,10 +5198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TUTOR_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>담당 튜터 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5228,6 +5205,44 @@
     <t>ALTER TABLE COURSE_EVAL ADD (
  TUTOR_ID VARCHAR(15)
 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update course set comp_cd = 'B2C' where comp_cd is null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPORT_FAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXAM_FAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISCUSSION_FAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROGRESS_FAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE COURSE 
+DROP COLUMN REPORT_FAIL_RATE,
+DROP COLUMN EXAM_FAIL_RATE,
+DROP COLUMN DISCUSSION_FAIL_RATE,
+DROP COLUMN PROGRESS_FAIL_RATE;
+ALTER TABLE COURSE ADD (
+ REPORT_FAIL INT DEFAULT 0, 
+ EXAM_FAIL INT DEFAULT 0, 
+ DISCUSSION_FAIL INT DEFAULT 0, 
+ PROGRESS_FAIL INT DEFAULT 0
+);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TUTOR_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5326,7 +5341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5372,6 +5387,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5452,7 +5473,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5876,6 +5897,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5908,12 +5941,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6449,6 +6476,203 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="68.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>885</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="154"/>
+      <c r="B12" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="155"/>
+      <c r="B13" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="155"/>
+      <c r="B14" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="155"/>
+      <c r="B15" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="155"/>
+      <c r="B16" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="155"/>
+      <c r="B17" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="D17" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="155"/>
+      <c r="B18" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="155"/>
+      <c r="B19" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="155"/>
+      <c r="B20" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="36" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="36" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>917</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:A20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6465,10 +6689,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="D1" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -6508,7 +6732,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="106" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -6525,7 +6749,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="106" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -6961,7 +7185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -6977,12 +7201,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="286.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="156" x14ac:dyDescent="0.3">
       <c r="A2" s="105" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
     </row>
   </sheetData>
@@ -7052,11 +7276,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R629"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B259" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B271" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B417" sqref="B417"/>
+      <selection pane="bottomRight" activeCell="C289" sqref="C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -8607,7 +8831,7 @@
         <v>986</v>
       </c>
       <c r="C58" s="135" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="D58" s="130" t="s">
         <v>75</v>
@@ -9009,7 +9233,7 @@
         <v>985</v>
       </c>
       <c r="C74" s="135" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="D74" s="130" t="s">
         <v>75</v>
@@ -9581,7 +9805,7 @@
         <v>990</v>
       </c>
       <c r="C97" s="128" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="D97" s="129" t="s">
         <v>75</v>
@@ -10177,7 +10401,7 @@
         <v>983</v>
       </c>
       <c r="C121" s="128" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="D121" s="129" t="s">
         <v>75</v>
@@ -10229,7 +10453,7 @@
         <v>983</v>
       </c>
       <c r="C123" s="128" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="D123" s="129" t="s">
         <v>155</v>
@@ -10373,7 +10597,7 @@
         <v>984</v>
       </c>
       <c r="C129" s="128" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="D129" s="129" t="s">
         <v>102</v>
@@ -10399,7 +10623,7 @@
         <v>984</v>
       </c>
       <c r="C130" s="128" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="D130" s="129" t="s">
         <v>79</v>
@@ -10425,7 +10649,7 @@
         <v>984</v>
       </c>
       <c r="C131" s="128" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="D131" s="130" t="s">
         <v>176</v>
@@ -10451,7 +10675,7 @@
         <v>984</v>
       </c>
       <c r="C132" s="128" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="D132" s="129" t="s">
         <v>75</v>
@@ -10477,7 +10701,7 @@
         <v>984</v>
       </c>
       <c r="C133" s="128" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="D133" s="129" t="s">
         <v>75</v>
@@ -10503,7 +10727,7 @@
         <v>984</v>
       </c>
       <c r="C134" s="128" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="D134" s="129" t="s">
         <v>78</v>
@@ -10529,7 +10753,7 @@
         <v>984</v>
       </c>
       <c r="C135" s="128" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="D135" s="129" t="s">
         <v>78</v>
@@ -10755,7 +10979,7 @@
         <v>987</v>
       </c>
       <c r="C144" s="135" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="D144" s="130" t="s">
         <v>75</v>
@@ -11456,7 +11680,7 @@
         <v>75</v>
       </c>
       <c r="E171" s="91" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="F171" s="86">
         <v>3</v>
@@ -11467,7 +11691,7 @@
       </c>
       <c r="H171" s="86"/>
       <c r="I171" s="88" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="J171" s="89"/>
     </row>
@@ -11506,7 +11730,7 @@
         <v>979</v>
       </c>
       <c r="C173" s="85" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="D173" s="86" t="s">
         <v>147</v>
@@ -11523,7 +11747,7 @@
       </c>
       <c r="H173" s="86"/>
       <c r="I173" s="88" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="J173" s="89"/>
     </row>
@@ -11616,7 +11840,7 @@
         <v>979</v>
       </c>
       <c r="C177" s="135" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="D177" s="130" t="s">
         <v>75</v>
@@ -11634,7 +11858,7 @@
       <c r="H177" s="130"/>
       <c r="I177" s="131"/>
       <c r="J177" s="132"/>
-      <c r="R177" s="153"/>
+      <c r="R177" s="142"/>
     </row>
     <row r="178" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="63" t="s">
@@ -11717,7 +11941,7 @@
       </c>
       <c r="H180" s="86"/>
       <c r="I180" s="88" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="J180" s="89"/>
       <c r="R180" s="108"/>
@@ -11747,7 +11971,7 @@
       </c>
       <c r="H181" s="86"/>
       <c r="I181" s="88" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="J181" s="89"/>
       <c r="R181" s="108"/>
@@ -12719,7 +12943,7 @@
       </c>
       <c r="H218" s="86"/>
       <c r="I218" s="88" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="219" spans="1:10" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -12747,7 +12971,7 @@
       </c>
       <c r="H219" s="86"/>
       <c r="I219" s="88" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -12784,7 +13008,7 @@
         <v>963</v>
       </c>
       <c r="C221" s="94" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="D221" s="95" t="s">
         <v>147</v>
@@ -12838,7 +13062,7 @@
         <v>963</v>
       </c>
       <c r="C223" s="101" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="D223" s="102" t="s">
         <v>79</v>
@@ -12872,7 +13096,7 @@
         <v>963</v>
       </c>
       <c r="C224" s="101" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="D224" s="102" t="s">
         <v>79</v>
@@ -12975,7 +13199,7 @@
       </c>
       <c r="H227" s="86"/>
       <c r="I227" s="88" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="228" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -13003,7 +13227,7 @@
       </c>
       <c r="H228" s="86"/>
       <c r="I228" s="88" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="229" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -13031,7 +13255,7 @@
       </c>
       <c r="H229" s="86"/>
       <c r="I229" s="88" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="230" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -13059,7 +13283,7 @@
       </c>
       <c r="H230" s="86"/>
       <c r="I230" s="88" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="231" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -13087,7 +13311,7 @@
       </c>
       <c r="H231" s="86"/>
       <c r="I231" s="88" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -13150,7 +13374,7 @@
         <v>963</v>
       </c>
       <c r="C234" s="43" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D234" s="14" t="s">
         <v>617</v>
@@ -13297,7 +13521,7 @@
       </c>
       <c r="H239" s="86"/>
       <c r="I239" s="88" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="240" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -13308,7 +13532,7 @@
         <v>963</v>
       </c>
       <c r="C240" s="85" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="D240" s="86" t="s">
         <v>593</v>
@@ -13325,7 +13549,7 @@
       </c>
       <c r="H240" s="86"/>
       <c r="I240" s="88" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="241" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -13336,7 +13560,7 @@
         <v>963</v>
       </c>
       <c r="C241" s="85" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="D241" s="86" t="s">
         <v>147</v>
@@ -13353,7 +13577,7 @@
       </c>
       <c r="H241" s="86"/>
       <c r="I241" s="88" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="242" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -13364,7 +13588,7 @@
         <v>963</v>
       </c>
       <c r="C242" s="85" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="D242" s="86" t="s">
         <v>147</v>
@@ -13381,7 +13605,7 @@
       </c>
       <c r="H242" s="86"/>
       <c r="I242" s="88" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="243" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -13392,7 +13616,7 @@
         <v>963</v>
       </c>
       <c r="C243" s="85" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="D243" s="86" t="s">
         <v>147</v>
@@ -13409,7 +13633,7 @@
       </c>
       <c r="H243" s="86"/>
       <c r="I243" s="88" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="244" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -13437,7 +13661,7 @@
       </c>
       <c r="H244" s="86"/>
       <c r="I244" s="88" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="245" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -13448,7 +13672,7 @@
         <v>963</v>
       </c>
       <c r="C245" s="85" t="s">
-        <v>1136</v>
+        <v>1304</v>
       </c>
       <c r="D245" s="86" t="s">
         <v>497</v>
@@ -13461,11 +13685,11 @@
       </c>
       <c r="G245" s="86" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">REPORT_FAIL_RATE INT DEFAULT 0, </v>
+        <v xml:space="preserve">REPORT_FAIL INT DEFAULT 0, </v>
       </c>
       <c r="H245" s="86"/>
       <c r="I245" s="88" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="246" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -13476,7 +13700,7 @@
         <v>963</v>
       </c>
       <c r="C246" s="85" t="s">
-        <v>1137</v>
+        <v>1305</v>
       </c>
       <c r="D246" s="86" t="s">
         <v>497</v>
@@ -13489,11 +13713,11 @@
       </c>
       <c r="G246" s="86" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">EXAM_FAIL_RATE INT DEFAULT 0, </v>
+        <v xml:space="preserve">EXAM_FAIL INT DEFAULT 0, </v>
       </c>
       <c r="H246" s="86"/>
       <c r="I246" s="88" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="247" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -13504,7 +13728,7 @@
         <v>963</v>
       </c>
       <c r="C247" s="85" t="s">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="D247" s="86" t="s">
         <v>497</v>
@@ -13517,11 +13741,11 @@
       </c>
       <c r="G247" s="86" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">DISCUSSION_FAIL_RATE INT DEFAULT 0, </v>
+        <v xml:space="preserve">DISCUSSION_FAIL INT DEFAULT 0, </v>
       </c>
       <c r="H247" s="86"/>
       <c r="I247" s="88" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="248" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -13532,7 +13756,7 @@
         <v>963</v>
       </c>
       <c r="C248" s="85" t="s">
-        <v>1139</v>
+        <v>1307</v>
       </c>
       <c r="D248" s="86" t="s">
         <v>497</v>
@@ -13545,11 +13769,11 @@
       </c>
       <c r="G248" s="86" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">PROGRESS_FAIL_RATE INT DEFAULT 0, </v>
+        <v xml:space="preserve">PROGRESS_FAIL INT DEFAULT 0, </v>
       </c>
       <c r="H248" s="86"/>
       <c r="I248" s="88" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="249" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -13560,7 +13784,7 @@
         <v>963</v>
       </c>
       <c r="C249" s="85" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="D249" s="86" t="s">
         <v>497</v>
@@ -13586,13 +13810,13 @@
         <v>963</v>
       </c>
       <c r="C250" s="85" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="D250" s="86" t="s">
         <v>593</v>
       </c>
       <c r="E250" s="86" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="F250" s="86">
         <v>23</v>
@@ -13603,7 +13827,7 @@
       </c>
       <c r="H250" s="86"/>
       <c r="I250" s="88" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13838,13 +14062,13 @@
         <v>953</v>
       </c>
       <c r="C260" s="43" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="D260" s="14" t="s">
         <v>75</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="F260" s="14">
         <v>3</v>
@@ -14325,13 +14549,13 @@
         <v>970</v>
       </c>
       <c r="C279" s="85" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="D279" s="86" t="s">
         <v>75</v>
       </c>
       <c r="E279" s="86" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="F279" s="86">
         <v>1</v>
@@ -14378,7 +14602,7 @@
         <v>970</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>80</v>
@@ -14405,13 +14629,13 @@
         <v>970</v>
       </c>
       <c r="C282" s="106" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="D282" s="91" t="s">
         <v>80</v>
       </c>
       <c r="E282" s="91" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="F282" s="86">
         <v>4</v>
@@ -14422,7 +14646,7 @@
       </c>
       <c r="H282" s="91"/>
       <c r="I282" s="125" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="J282" s="107"/>
     </row>
@@ -14434,13 +14658,13 @@
         <v>970</v>
       </c>
       <c r="C283" s="106" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="D283" s="91" t="s">
         <v>80</v>
       </c>
       <c r="E283" s="91" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="F283" s="86">
         <v>4</v>
@@ -14451,7 +14675,7 @@
       </c>
       <c r="H283" s="91"/>
       <c r="I283" s="125" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="J283" s="107"/>
     </row>
@@ -14652,13 +14876,13 @@
         <v>970</v>
       </c>
       <c r="C291" s="85" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="D291" s="86" t="s">
         <v>79</v>
       </c>
       <c r="E291" s="86" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="F291" s="86">
         <v>5</v>
@@ -14669,7 +14893,7 @@
       </c>
       <c r="H291" s="91"/>
       <c r="I291" s="125" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="292" spans="1:10" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -14680,13 +14904,13 @@
         <v>970</v>
       </c>
       <c r="C292" s="106" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="D292" s="91" t="s">
         <v>593</v>
       </c>
       <c r="E292" s="91" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="F292" s="86">
         <v>12</v>
@@ -14697,7 +14921,7 @@
       </c>
       <c r="H292" s="91"/>
       <c r="I292" s="125" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="J292" s="107"/>
     </row>
@@ -14715,7 +14939,7 @@
         <v>593</v>
       </c>
       <c r="E293" s="91" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="F293" s="86">
         <v>13</v>
@@ -14726,7 +14950,7 @@
       </c>
       <c r="H293" s="91"/>
       <c r="I293" s="125" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="J293" s="107"/>
     </row>
@@ -14792,7 +15016,7 @@
         <v>970</v>
       </c>
       <c r="C296" s="13" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>78</v>
@@ -15179,7 +15403,7 @@
         <v>962</v>
       </c>
       <c r="C311" s="94" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="D311" s="95" t="s">
         <v>523</v>
@@ -15195,10 +15419,10 @@
         <v xml:space="preserve">--GRADE INT, </v>
       </c>
       <c r="H311" s="95" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="I311" s="97" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -15226,7 +15450,7 @@
       </c>
       <c r="H312" s="86"/>
       <c r="I312" s="88" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -15256,7 +15480,7 @@
         <v>1126</v>
       </c>
       <c r="I313" s="88" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -15284,7 +15508,7 @@
       </c>
       <c r="H314" s="86"/>
       <c r="I314" s="88" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -15312,7 +15536,7 @@
       </c>
       <c r="H315" s="86"/>
       <c r="I315" s="88" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -15529,7 +15753,7 @@
         <v>526</v>
       </c>
       <c r="E324" s="87" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="F324" s="86">
         <v>3</v>
@@ -15607,13 +15831,13 @@
         <v>1071</v>
       </c>
       <c r="C327" s="85" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="D327" s="86" t="s">
         <v>79</v>
       </c>
       <c r="E327" s="87" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="F327" s="86">
         <v>6</v>
@@ -15624,7 +15848,7 @@
       </c>
       <c r="H327" s="86"/>
       <c r="I327" s="88" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -15635,13 +15859,13 @@
         <v>1071</v>
       </c>
       <c r="C328" s="85" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="D328" s="86" t="s">
         <v>79</v>
       </c>
       <c r="E328" s="87" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="F328" s="86">
         <v>7</v>
@@ -15652,7 +15876,7 @@
       </c>
       <c r="H328" s="86"/>
       <c r="I328" s="88" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -15793,10 +16017,10 @@
     </row>
     <row r="334" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="83" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B334" s="90" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C334" s="85"/>
       <c r="D334" s="86"/>
@@ -15810,15 +16034,15 @@
       </c>
       <c r="H334" s="86"/>
       <c r="I334" s="88" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="335" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="83" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B335" s="90" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C335" s="85" t="s">
         <v>50</v>
@@ -15836,24 +16060,24 @@
       </c>
       <c r="H335" s="86"/>
       <c r="I335" s="88" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="336" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="83" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B336" s="90" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C336" s="85" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="D336" s="86" t="s">
         <v>79</v>
       </c>
       <c r="E336" s="87" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="F336" s="86">
         <v>2</v>
@@ -15864,24 +16088,24 @@
       </c>
       <c r="H336" s="86"/>
       <c r="I336" s="88" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="337" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="83" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B337" s="90" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C337" s="85" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="D337" s="86" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="E337" s="87" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="F337" s="86">
         <v>3</v>
@@ -15891,16 +16115,16 @@
         <v xml:space="preserve">EXAM_KIND VARCHAR(5), </v>
       </c>
       <c r="H337" s="86" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="I337" s="88"/>
     </row>
     <row r="338" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="83" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B338" s="90" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C338" s="85" t="s">
         <v>1074</v>
@@ -15918,15 +16142,15 @@
       </c>
       <c r="H338" s="86"/>
       <c r="I338" s="88" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="339" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="83" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B339" s="90" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C339" s="85" t="s">
         <v>1075</v>
@@ -15944,15 +16168,15 @@
       </c>
       <c r="H339" s="86"/>
       <c r="I339" s="88" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="340" spans="1:9" s="89" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A340" s="83" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B340" s="90" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C340" s="85" t="s">
         <v>517</v>
@@ -15974,18 +16198,18 @@
         <v>530</v>
       </c>
       <c r="I340" s="88" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="341" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="83" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B341" s="90" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C341" s="87" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="D341" s="86" t="s">
         <v>79</v>
@@ -16004,15 +16228,15 @@
         <v>1126</v>
       </c>
       <c r="I341" s="88" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="342" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342" s="83" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B342" s="90" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C342" s="85" t="s">
         <v>1128</v>
@@ -16032,15 +16256,15 @@
       </c>
       <c r="H342" s="86"/>
       <c r="I342" s="88" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="343" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="83" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B343" s="90" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C343" s="85" t="s">
         <v>1069</v>
@@ -16062,15 +16286,15 @@
         <v>543</v>
       </c>
       <c r="I343" s="88" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="344" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="83" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B344" s="90" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C344" s="85" t="s">
         <v>67</v>
@@ -16090,15 +16314,15 @@
       </c>
       <c r="H344" s="86"/>
       <c r="I344" s="88" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="345" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="83" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B345" s="90" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C345" s="85" t="s">
         <v>69</v>
@@ -16118,15 +16342,15 @@
       </c>
       <c r="H345" s="86"/>
       <c r="I345" s="88" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="346" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A346" s="83" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B346" s="90" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C346" s="85" t="s">
         <v>68</v>
@@ -16146,15 +16370,15 @@
       </c>
       <c r="H346" s="86"/>
       <c r="I346" s="88" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="347" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A347" s="83" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B347" s="90" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C347" s="85" t="s">
         <v>70</v>
@@ -16174,15 +16398,15 @@
       </c>
       <c r="H347" s="86"/>
       <c r="I347" s="88" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="348" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A348" s="83" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B348" s="90" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C348" s="85" t="s">
         <v>126</v>
@@ -16198,7 +16422,7 @@
       </c>
       <c r="H348" s="86"/>
       <c r="I348" s="88" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -16281,7 +16505,7 @@
         <v>961</v>
       </c>
       <c r="C352" s="94" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="D352" s="95" t="s">
         <v>509</v>
@@ -16298,7 +16522,7 @@
       </c>
       <c r="H352" s="95"/>
       <c r="I352" s="97" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -16491,7 +16715,7 @@
         <v>961</v>
       </c>
       <c r="C360" s="43" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="D360" s="14" t="s">
         <v>617</v>
@@ -16543,7 +16767,7 @@
         <v>961</v>
       </c>
       <c r="C362" s="43" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="D362" s="14" t="s">
         <v>617</v>
@@ -17073,7 +17297,7 @@
         <v xml:space="preserve">STATUS CHAR(1), </v>
       </c>
       <c r="H382" s="11" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="I382" s="71"/>
     </row>
@@ -17445,7 +17669,7 @@
         <v>957</v>
       </c>
       <c r="C398" s="45" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="D398" s="6" t="s">
         <v>955</v>
@@ -17463,10 +17687,10 @@
     </row>
     <row r="399" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A399" s="83" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B399" s="84" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="F399" s="89">
         <v>0</v>
@@ -17477,15 +17701,15 @@
       </c>
       <c r="H399" s="88"/>
       <c r="I399" s="88" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="400" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A400" s="83" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B400" s="84" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C400" s="85" t="s">
         <v>50</v>
@@ -17503,15 +17727,15 @@
       </c>
       <c r="H400" s="88"/>
       <c r="I400" s="88" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="401" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A401" s="83" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B401" s="84" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C401" s="85" t="s">
         <v>828</v>
@@ -17529,18 +17753,18 @@
       </c>
       <c r="H401" s="88"/>
       <c r="I401" s="88" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="402" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A402" s="83" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B402" s="84" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C402" s="85" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="D402" s="86" t="s">
         <v>82</v>
@@ -17557,15 +17781,15 @@
       </c>
       <c r="H402" s="88"/>
       <c r="I402" s="88" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="403" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A403" s="83" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B403" s="84" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C403" s="85" t="s">
         <v>49</v>
@@ -17585,15 +17809,15 @@
       </c>
       <c r="H403" s="88"/>
       <c r="I403" s="88" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="404" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A404" s="83" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B404" s="84" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C404" s="85" t="s">
         <v>0</v>
@@ -17613,15 +17837,15 @@
       </c>
       <c r="H404" s="88"/>
       <c r="I404" s="88" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="405" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A405" s="83" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B405" s="84" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C405" s="85" t="s">
         <v>67</v>
@@ -17641,15 +17865,15 @@
       </c>
       <c r="H405" s="88"/>
       <c r="I405" s="88" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="406" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A406" s="83" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B406" s="84" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C406" s="85" t="s">
         <v>69</v>
@@ -17669,15 +17893,15 @@
       </c>
       <c r="H406" s="88"/>
       <c r="I406" s="88" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="407" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A407" s="83" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B407" s="84" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C407" s="85" t="s">
         <v>68</v>
@@ -17697,15 +17921,15 @@
       </c>
       <c r="H407" s="88"/>
       <c r="I407" s="88" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="408" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A408" s="83" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B408" s="84" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C408" s="85" t="s">
         <v>70</v>
@@ -17725,15 +17949,15 @@
       </c>
       <c r="H408" s="88"/>
       <c r="I408" s="88" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="409" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A409" s="83" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B409" s="84" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C409" s="85" t="s">
         <v>126</v>
@@ -17749,15 +17973,15 @@
       </c>
       <c r="H409" s="88"/>
       <c r="I409" s="88" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="410" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A410" s="83" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B410" s="84" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C410" s="85">
         <v>1</v>
@@ -17775,7 +17999,7 @@
       </c>
       <c r="H410" s="88"/>
       <c r="I410" s="88" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -18108,10 +18332,10 @@
     </row>
     <row r="424" spans="1:10" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" s="83" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="B424" s="90" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="C424" s="85"/>
       <c r="D424" s="86"/>
@@ -18125,15 +18349,15 @@
       </c>
       <c r="H424" s="91"/>
       <c r="I424" s="125" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="425" spans="1:10" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A425" s="83" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="B425" s="90" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="C425" s="106" t="s">
         <v>38</v>
@@ -18153,15 +18377,15 @@
       </c>
       <c r="H425" s="91"/>
       <c r="I425" s="125" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="426" spans="1:10" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A426" s="83" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="B426" s="90" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="C426" s="106" t="s">
         <v>181</v>
@@ -18181,18 +18405,18 @@
       </c>
       <c r="H426" s="91"/>
       <c r="I426" s="125" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="427" spans="1:10" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A427" s="83" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="B427" s="90" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="C427" s="106" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="D427" s="91" t="s">
         <v>79</v>
@@ -18209,18 +18433,18 @@
       </c>
       <c r="H427" s="91"/>
       <c r="I427" s="125" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="428" spans="1:10" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A428" s="83" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="B428" s="90" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="C428" s="106" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="D428" s="91" t="s">
         <v>79</v>
@@ -18237,15 +18461,15 @@
       </c>
       <c r="H428" s="91"/>
       <c r="I428" s="125" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="429" spans="1:10" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A429" s="83" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="B429" s="90" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="C429" s="85" t="s">
         <v>0</v>
@@ -18265,18 +18489,18 @@
       </c>
       <c r="H429" s="88"/>
       <c r="I429" s="88" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="430" spans="1:10" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A430" s="83" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="B430" s="90" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="C430" s="85" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="D430" s="86"/>
       <c r="E430" s="86"/>
@@ -18289,12 +18513,12 @@
       </c>
       <c r="H430" s="91"/>
       <c r="I430" s="125" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" s="59" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="B431" s="50" t="s">
         <v>971</v>
@@ -19652,7 +19876,7 @@
         <v>976</v>
       </c>
       <c r="C485" s="85" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="D485" s="86" t="s">
         <v>544</v>
@@ -19669,7 +19893,7 @@
       </c>
       <c r="H485" s="86"/>
       <c r="I485" s="88" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="486" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -19680,13 +19904,13 @@
         <v>976</v>
       </c>
       <c r="C486" s="85" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="D486" s="86" t="s">
         <v>497</v>
       </c>
       <c r="E486" s="87" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="F486" s="86">
         <v>10</v>
@@ -19697,7 +19921,7 @@
       </c>
       <c r="H486" s="86"/>
       <c r="I486" s="88" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.3">
@@ -20326,7 +20550,7 @@
         <v>991</v>
       </c>
       <c r="C512" s="44" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="D512" s="22" t="s">
         <v>176</v>
@@ -20796,13 +21020,13 @@
         <v>997</v>
       </c>
       <c r="C531" s="85" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D531" s="91" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="E531" s="86" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="F531" s="86">
         <v>3</v>
@@ -20813,7 +21037,7 @@
       </c>
       <c r="H531" s="86"/>
       <c r="I531" s="88" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.3">
@@ -21355,7 +21579,7 @@
         <v>969</v>
       </c>
       <c r="B553" s="53" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="C553" s="40"/>
       <c r="D553" s="14"/>
@@ -21456,13 +21680,13 @@
         <v>978</v>
       </c>
       <c r="C557" s="40" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="D557" s="14" t="s">
         <v>593</v>
       </c>
       <c r="E557" s="14" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="F557" s="14">
         <v>3</v>
@@ -21482,13 +21706,13 @@
         <v>978</v>
       </c>
       <c r="C558" s="40" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="D558" s="14" t="s">
         <v>756</v>
       </c>
       <c r="E558" s="14" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="F558" s="14">
         <v>3</v>
@@ -21692,7 +21916,7 @@
         <v>978</v>
       </c>
       <c r="C566" s="135" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="D566" s="130" t="s">
         <v>147</v>
@@ -21708,8 +21932,8 @@
         <v xml:space="preserve">--HOME_ZIPCODE VARCHAR(10), </v>
       </c>
       <c r="H566" s="130"/>
-      <c r="I566" s="152" t="s">
-        <v>1196</v>
+      <c r="I566" s="141" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.3">
@@ -21723,7 +21947,7 @@
         <v>127</v>
       </c>
       <c r="D567" s="14" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="E567" s="14" t="s">
         <v>58</v>
@@ -21746,10 +21970,10 @@
         <v>978</v>
       </c>
       <c r="C568" s="117" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="D568" s="118" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="E568" s="118" t="s">
         <v>58</v>
@@ -21763,7 +21987,7 @@
       </c>
       <c r="H568" s="118"/>
       <c r="I568" s="119" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.3">
@@ -21800,7 +22024,7 @@
         <v>978</v>
       </c>
       <c r="C570" s="111" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="D570" s="112" t="s">
         <v>585</v>
@@ -21817,7 +22041,7 @@
       </c>
       <c r="H570" s="112"/>
       <c r="I570" s="113" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="571" spans="1:9" s="114" customFormat="1" x14ac:dyDescent="0.3">
@@ -21828,7 +22052,7 @@
         <v>978</v>
       </c>
       <c r="C571" s="111" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="D571" s="112" t="s">
         <v>586</v>
@@ -21845,7 +22069,7 @@
       </c>
       <c r="H571" s="112"/>
       <c r="I571" s="113" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="572" spans="1:9" s="114" customFormat="1" x14ac:dyDescent="0.3">
@@ -21853,10 +22077,10 @@
         <v>969</v>
       </c>
       <c r="B572" s="110" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="C572" s="111" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="D572" s="112" t="s">
         <v>586</v>
@@ -21873,7 +22097,7 @@
       </c>
       <c r="H572" s="112"/>
       <c r="I572" s="113" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.3">
@@ -21910,7 +22134,7 @@
         <v>978</v>
       </c>
       <c r="C574" s="111" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="D574" s="112" t="s">
         <v>585</v>
@@ -21936,7 +22160,7 @@
         <v>978</v>
       </c>
       <c r="C575" s="111" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="D575" s="112" t="s">
         <v>586</v>
@@ -21962,7 +22186,7 @@
         <v>978</v>
       </c>
       <c r="C576" s="111" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="D576" s="112" t="s">
         <v>586</v>
@@ -21979,7 +22203,7 @@
       </c>
       <c r="H576" s="112"/>
       <c r="I576" s="113" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="577" spans="1:18" x14ac:dyDescent="0.3">
@@ -22198,7 +22422,7 @@
         <v>978</v>
       </c>
       <c r="C585" s="128" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="D585" s="130" t="s">
         <v>886</v>
@@ -22224,13 +22448,13 @@
         <v>978</v>
       </c>
       <c r="C586" s="85" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="D586" s="86" t="s">
         <v>593</v>
       </c>
       <c r="E586" s="86" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="F586" s="86">
         <v>11</v>
@@ -22241,7 +22465,7 @@
       </c>
       <c r="H586" s="86"/>
       <c r="I586" s="88" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="J586" s="89"/>
       <c r="R586" s="108"/>
@@ -22406,7 +22630,7 @@
         <v>978</v>
       </c>
       <c r="C593" s="46" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="D593" s="14" t="s">
         <v>112</v>
@@ -22502,13 +22726,13 @@
         <v>977</v>
       </c>
       <c r="C597" s="85" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="D597" s="86" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="E597" s="87" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="F597" s="14">
         <v>3</v>
@@ -22518,7 +22742,7 @@
         <v xml:space="preserve">EXAM_KIND VARCHAR(5), </v>
       </c>
       <c r="H597" s="86" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="I597" s="121"/>
     </row>
@@ -22582,13 +22806,13 @@
         <v>977</v>
       </c>
       <c r="C600" s="13" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="D600" s="14" t="s">
         <v>593</v>
       </c>
       <c r="E600" s="2" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="F600" s="14">
         <v>6</v>
@@ -22608,7 +22832,7 @@
         <v>977</v>
       </c>
       <c r="C601" s="46" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="D601" s="12" t="s">
         <v>75</v>
@@ -22712,7 +22936,7 @@
         <v>977</v>
       </c>
       <c r="C605" s="13" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="D605" s="2"/>
       <c r="E605" s="2"/>
@@ -22910,7 +23134,7 @@
         <v>976</v>
       </c>
       <c r="C613" s="43" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="D613" s="4" t="s">
         <v>75</v>
@@ -23276,10 +23500,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -23291,169 +23530,176 @@
   <sheetData>
     <row r="1" spans="2:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B1" s="137" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="132" x14ac:dyDescent="0.3">
       <c r="B2" s="137" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="168" x14ac:dyDescent="0.3">
       <c r="B3" s="137" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="180" x14ac:dyDescent="0.3">
       <c r="B4" s="137" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="132" x14ac:dyDescent="0.3">
       <c r="B5" s="138" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="139" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="36" x14ac:dyDescent="0.3">
       <c r="B7" s="138" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="48" x14ac:dyDescent="0.3">
       <c r="B8" s="138" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="139" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="84" x14ac:dyDescent="0.3">
       <c r="B10" s="138" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="36" x14ac:dyDescent="0.3">
       <c r="B11" s="138" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="36" x14ac:dyDescent="0.3">
       <c r="B13" s="138" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B14" s="138" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="48" x14ac:dyDescent="0.3">
       <c r="B15" s="138" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="139" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="B17" s="138" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="B17" s="138" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="139" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B19" s="138" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="48" x14ac:dyDescent="0.3">
       <c r="B20" s="138" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="143" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="B23" s="144" t="s">
         <v>1254</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="B23" s="105" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="B25" s="105" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="B26" s="105" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="B27" s="105" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B28" s="105" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="B29" s="105" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="84" x14ac:dyDescent="0.3">
-      <c r="B30" s="105" t="s">
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="143" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="B25" s="144" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="B26" s="144" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="B27" s="144" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="B28" s="144" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="B29" s="144" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="84" x14ac:dyDescent="0.3">
+      <c r="B30" s="144" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="B31" s="144" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="B31" s="105" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="143" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="B33" s="144" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="B33" s="105" t="s">
-        <v>1305</v>
-      </c>
-    </row>
     <row r="34" spans="2:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="B34" s="105" t="s">
+      <c r="B34" s="144" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="143" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="B36" s="144" t="s">
         <v>1308</v>
       </c>
     </row>
@@ -23463,7 +23709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
@@ -23854,15 +24100,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B215" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C235" sqref="C235"/>
+      <selection pane="bottomRight" activeCell="D237" sqref="D237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -23912,7 +24158,7 @@
       <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="150" t="s">
         <v>632</v>
       </c>
       <c r="B2" s="2"/>
@@ -23945,7 +24191,7 @@
       <c r="S2" s="23"/>
     </row>
     <row r="3" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="146"/>
+      <c r="A3" s="150"/>
       <c r="B3" s="32" t="str">
         <f t="shared" ref="B3:B18" si="0">"INSERT INTO CATEGORY("&amp;$C$2&amp;","&amp;$D$2&amp;","&amp;$E$2&amp;","&amp;$F$2&amp;","&amp;$G$2&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C01','IT','','1','Y',NOW(),'ADMIN');</v>
@@ -23977,7 +24223,7 @@
       <c r="S3" s="23"/>
     </row>
     <row r="4" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="146"/>
+      <c r="A4" s="150"/>
       <c r="B4" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C02','자격대비','','1','Y',NOW(),'ADMIN');</v>
@@ -24009,7 +24255,7 @@
       <c r="S4" s="23"/>
     </row>
     <row r="5" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="146"/>
+      <c r="A5" s="150"/>
       <c r="B5" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C03','경영/비즈니스','','1','Y',NOW(),'ADMIN');</v>
@@ -24041,7 +24287,7 @@
       <c r="S5" s="23"/>
     </row>
     <row r="6" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="146"/>
+      <c r="A6" s="150"/>
       <c r="B6" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C04','아카데미 시리즈','','1','Y',NOW(),'ADMIN');</v>
@@ -24073,7 +24319,7 @@
       <c r="S6" s="23"/>
     </row>
     <row r="7" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="146"/>
+      <c r="A7" s="150"/>
       <c r="B7" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0101','보안','C01','2','Y',NOW(),'ADMIN');</v>
@@ -24108,7 +24354,7 @@
       <c r="S7" s="23"/>
     </row>
     <row r="8" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="146"/>
+      <c r="A8" s="150"/>
       <c r="B8" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0102','프로그래밍','C01','2','Y',NOW(),'ADMIN');</v>
@@ -24143,7 +24389,7 @@
       <c r="S8" s="23"/>
     </row>
     <row r="9" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="146"/>
+      <c r="A9" s="150"/>
       <c r="B9" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0103','모바일','C01','2','Y',NOW(),'ADMIN');</v>
@@ -24178,7 +24424,7 @@
       <c r="S9" s="23"/>
     </row>
     <row r="10" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="146"/>
+      <c r="A10" s="150"/>
       <c r="B10" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0104','OS','C01','2','Y',NOW(),'ADMIN');</v>
@@ -24213,7 +24459,7 @@
       <c r="S10" s="23"/>
     </row>
     <row r="11" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="146"/>
+      <c r="A11" s="150"/>
       <c r="B11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0105','DB','C01','2','Y',NOW(),'ADMIN');</v>
@@ -24248,7 +24494,7 @@
       <c r="S11" s="23"/>
     </row>
     <row r="12" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="146"/>
+      <c r="A12" s="150"/>
       <c r="B12" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0106','네트워크','C01','2','Y',NOW(),'ADMIN');</v>
@@ -24283,7 +24529,7 @@
       <c r="S12" s="23"/>
     </row>
     <row r="13" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="146"/>
+      <c r="A13" s="150"/>
       <c r="B13" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0201','경영 자격증','C02','2','Y',NOW(),'ADMIN');</v>
@@ -24318,7 +24564,7 @@
       <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="146"/>
+      <c r="A14" s="150"/>
       <c r="B14" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0202','IT 자격증','C02','2','Y',NOW(),'ADMIN');</v>
@@ -24353,7 +24599,7 @@
       <c r="S14" s="23"/>
     </row>
     <row r="15" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="146"/>
+      <c r="A15" s="150"/>
       <c r="B15" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0301','경영직무','C03','2','Y',NOW(),'ADMIN');</v>
@@ -24388,7 +24634,7 @@
       <c r="S15" s="23"/>
     </row>
     <row r="16" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="146"/>
+      <c r="A16" s="150"/>
       <c r="B16" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0302','Biz 스킬','C03','2','Y',NOW(),'ADMIN');</v>
@@ -24423,7 +24669,7 @@
       <c r="S16" s="23"/>
     </row>
     <row r="17" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="146"/>
+      <c r="A17" s="150"/>
       <c r="B17" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0303','리더쉽','C03','2','Y',NOW(),'ADMIN');</v>
@@ -24458,7 +24704,7 @@
       <c r="S17" s="23"/>
     </row>
     <row r="18" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="146"/>
+      <c r="A18" s="150"/>
       <c r="B18" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010201','HTML','C0102','3','Y',NOW(),'ADMIN');</v>
@@ -24493,7 +24739,7 @@
       <c r="S18" s="23"/>
     </row>
     <row r="19" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="146"/>
+      <c r="A19" s="150"/>
       <c r="B19" s="32" t="str">
         <f>"INSERT INTO CATEGORY("&amp;$C$2&amp;","&amp;$D$2&amp;","&amp;$E$2&amp;","&amp;$F$2&amp;","&amp;$G$2&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"','"&amp;F19&amp;"','"&amp;G19&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010202','JAVA','C0102','3','Y',NOW(),'ADMIN');</v>
@@ -24528,7 +24774,7 @@
       <c r="S19" s="23"/>
     </row>
     <row r="20" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="146"/>
+      <c r="A20" s="150"/>
       <c r="B20" s="32" t="str">
         <f t="shared" ref="B20:B27" si="3">"INSERT INTO CATEGORY("&amp;$C$2&amp;","&amp;$D$2&amp;","&amp;$E$2&amp;","&amp;$F$2&amp;","&amp;$G$2&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C20&amp;"','"&amp;D20&amp;"','"&amp;E20&amp;"','"&amp;F20&amp;"','"&amp;G20&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010203','.Net','C0102','3','Y',NOW(),'ADMIN');</v>
@@ -24563,7 +24809,7 @@
       <c r="S20" s="23"/>
     </row>
     <row r="21" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="146"/>
+      <c r="A21" s="150"/>
       <c r="B21" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010204','Web Programming','C0102','3','Y',NOW(),'ADMIN');</v>
@@ -24598,7 +24844,7 @@
       <c r="S21" s="23"/>
     </row>
     <row r="22" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="146"/>
+      <c r="A22" s="150"/>
       <c r="B22" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010205','Visual Basic','C0102','3','Y',NOW(),'ADMIN');</v>
@@ -24633,7 +24879,7 @@
       <c r="S22" s="23"/>
     </row>
     <row r="23" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="146"/>
+      <c r="A23" s="150"/>
       <c r="B23" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010501','Oracle','C0105','3','Y',NOW(),'ADMIN');</v>
@@ -24668,7 +24914,7 @@
       <c r="S23" s="23"/>
     </row>
     <row r="24" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="146"/>
+      <c r="A24" s="150"/>
       <c r="B24" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010502','Ms Sql','C0105','3','Y',NOW(),'ADMIN');</v>
@@ -24703,7 +24949,7 @@
       <c r="S24" s="23"/>
     </row>
     <row r="25" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="146"/>
+      <c r="A25" s="150"/>
       <c r="B25" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C05','대분류1','','1','Y',NOW(),'ADMIN');</v>
@@ -24735,7 +24981,7 @@
       <c r="S25" s="23"/>
     </row>
     <row r="26" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="146"/>
+      <c r="A26" s="150"/>
       <c r="B26" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C06','대분류2','','1','Y',NOW(),'ADMIN');</v>
@@ -24767,7 +25013,7 @@
       <c r="S26" s="23"/>
     </row>
     <row r="27" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="146"/>
+      <c r="A27" s="150"/>
       <c r="B27" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0601','대분류2-1','C06','2','Y',NOW(),'ADMIN');</v>
@@ -24801,7 +25047,7 @@
       <c r="S27" s="23"/>
     </row>
     <row r="28" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="146"/>
+      <c r="A28" s="150"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -24822,7 +25068,7 @@
       <c r="S28" s="23"/>
     </row>
     <row r="29" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="146"/>
+      <c r="A29" s="150"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -24843,7 +25089,7 @@
       <c r="S29" s="23"/>
     </row>
     <row r="30" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="146" t="s">
+      <c r="A30" s="150" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -24892,7 +25138,7 @@
       <c r="S30" s="23"/>
     </row>
     <row r="31" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="146"/>
+      <c r="A31" s="150"/>
       <c r="B31" s="30" t="str">
         <f>"INSERT INTO COURSE_CODE("&amp;$C$30&amp;","&amp;$D$30&amp;","&amp;$E$30&amp;","&amp;$F$30&amp;","&amp;$G$30&amp;","&amp;$H$30&amp;","&amp;$I$30&amp;","&amp;$J$30&amp;","&amp;$K$30&amp;","&amp;$L$30&amp;","&amp;$M$30&amp;","&amp;$N$30&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C31&amp;"','"&amp;D31&amp;"','"&amp;E31&amp;"','"&amp;F31&amp;"','"&amp;G31&amp;"','"&amp;H31&amp;"','"&amp;I31&amp;"','"&amp;J31&amp;"','"&amp;K31&amp;"','"&amp;L31&amp;"','"&amp;M31&amp;"','"&amp;N31&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_CODE(COURSE_CODE,COURSE_NAME,TEACHER_ID,H_PX,V_PX,CODE,USE_YN,DIRECTORY,COMPANY_RATE,TEACHER_RATE,TUTOR_RATE,POINT,CREATE_DATE,CREATE_USER) VALUES('C010202001','Java Master','teacher1','1000','900','C010202','Y','C010202001','80','10','10','0',NOW(),'ADMIN');</v>
@@ -24940,7 +25186,7 @@
       <c r="S31" s="23"/>
     </row>
     <row r="32" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="146"/>
+      <c r="A32" s="150"/>
       <c r="B32" s="30" t="str">
         <f t="shared" ref="B32:B33" si="4">"INSERT INTO COURSE_CODE("&amp;$C$30&amp;","&amp;$D$30&amp;","&amp;$E$30&amp;","&amp;$F$30&amp;","&amp;$G$30&amp;","&amp;$H$30&amp;","&amp;$I$30&amp;","&amp;$J$30&amp;","&amp;$K$30&amp;","&amp;$L$30&amp;","&amp;$M$30&amp;","&amp;$N$30&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C32&amp;"','"&amp;D32&amp;"','"&amp;E32&amp;"','"&amp;F32&amp;"','"&amp;G32&amp;"','"&amp;H32&amp;"','"&amp;I32&amp;"','"&amp;J32&amp;"','"&amp;K32&amp;"','"&amp;L32&amp;"','"&amp;M32&amp;"','"&amp;N32&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_CODE(COURSE_CODE,COURSE_NAME,TEACHER_ID,H_PX,V_PX,CODE,USE_YN,DIRECTORY,COMPANY_RATE,TEACHER_RATE,TUTOR_RATE,POINT,CREATE_DATE,CREATE_USER) VALUES('C010202002','Java 실무 과정','teacher2','1000','900','C010202','Y','C010202001','80','10','10','0',NOW(),'ADMIN');</v>
@@ -24988,7 +25234,7 @@
       <c r="S32" s="23"/>
     </row>
     <row r="33" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="146"/>
+      <c r="A33" s="150"/>
       <c r="B33" s="30" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO COURSE_CODE(COURSE_CODE,COURSE_NAME,TEACHER_ID,H_PX,V_PX,CODE,USE_YN,DIRECTORY,COMPANY_RATE,TEACHER_RATE,TUTOR_RATE,POINT,CREATE_DATE,CREATE_USER) VALUES('C010202003','Java 기초 문법','teacher3','1000','900','C010202','Y','C010202001','80','10','10','0',NOW(),'ADMIN');</v>
@@ -25036,7 +25282,7 @@
       <c r="S33" s="23"/>
     </row>
     <row r="34" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="146"/>
+      <c r="A34" s="150"/>
       <c r="B34" s="2"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -25057,7 +25303,7 @@
       <c r="S34" s="23"/>
     </row>
     <row r="35" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="146"/>
+      <c r="A35" s="150"/>
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
@@ -25078,7 +25324,7 @@
       <c r="S35" s="23"/>
     </row>
     <row r="36" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="147" t="s">
+      <c r="A36" s="151" t="s">
         <v>590</v>
       </c>
       <c r="B36" s="23" t="s">
@@ -25129,7 +25375,7 @@
       <c r="S36" s="23"/>
     </row>
     <row r="37" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="147"/>
+      <c r="A37" s="151"/>
       <c r="B37" s="30" t="str">
         <f>"INSERT INTO COURSE_MASTER("&amp;$C$36&amp;","&amp;$D$36&amp;","&amp;$E$36&amp;","&amp;$F$36&amp;","&amp;$G$36&amp;","&amp;$H$36&amp;","&amp;$I$36&amp;","&amp;$J$36&amp;","&amp;$K$36&amp;","&amp;$L$36&amp;","&amp;$M$36&amp;","&amp;$N$36&amp;","&amp;$O$36&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C37&amp;"','"&amp;D37&amp;"','"&amp;E37&amp;"','"&amp;F37&amp;"','"&amp;G37&amp;"','"&amp;H37&amp;"','"&amp;I37&amp;"','"&amp;J37&amp;"','"&amp;K37&amp;"','"&amp;L37&amp;"','"&amp;M37&amp;"','"&amp;N37&amp;"','"&amp;O37&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_MASTER(COURSE_CODE,TUTOR_ID,HTML_YN,LEARING_GOAL,LEARING_CONTENT,EVAL_METHOD,LEARING_TARGET,LEARING_COST,COURSE_COST,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,CREATE_DATE,CREATE_USER) VALUES('C010202001','TUTOR1','N','LEARING_GOAL','LEARING_CONTENT','EVAL_METHOD','LEARING_TARGET','LEARING_COST','50000','0','0','0','100',NOW(),'ADMIN');</v>
@@ -25179,7 +25425,7 @@
       <c r="S37" s="23"/>
     </row>
     <row r="38" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="147"/>
+      <c r="A38" s="151"/>
       <c r="B38" s="30" t="str">
         <f t="shared" ref="B38:B39" si="5">"INSERT INTO COURSE_MASTER("&amp;$C$36&amp;","&amp;$D$36&amp;","&amp;$E$36&amp;","&amp;$F$36&amp;","&amp;$G$36&amp;","&amp;$H$36&amp;","&amp;$I$36&amp;","&amp;$J$36&amp;","&amp;$K$36&amp;","&amp;$L$36&amp;","&amp;$M$36&amp;","&amp;$N$36&amp;","&amp;$O$36&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C38&amp;"','"&amp;D38&amp;"','"&amp;E38&amp;"','"&amp;F38&amp;"','"&amp;G38&amp;"','"&amp;H38&amp;"','"&amp;I38&amp;"','"&amp;J38&amp;"','"&amp;K38&amp;"','"&amp;L38&amp;"','"&amp;M38&amp;"','"&amp;N38&amp;"','"&amp;O38&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_MASTER(COURSE_CODE,TUTOR_ID,HTML_YN,LEARING_GOAL,LEARING_CONTENT,EVAL_METHOD,LEARING_TARGET,LEARING_COST,COURSE_COST,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,CREATE_DATE,CREATE_USER) VALUES('C010202002','TUTOR2','N','LEARING_GOAL','LEARING_CONTENT','EVAL_METHOD','LEARING_TARGET','LEARING_COST','50000','0','0','0','100',NOW(),'ADMIN');</v>
@@ -25229,7 +25475,7 @@
       <c r="S38" s="23"/>
     </row>
     <row r="39" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="147"/>
+      <c r="A39" s="151"/>
       <c r="B39" s="30" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO COURSE_MASTER(COURSE_CODE,TUTOR_ID,HTML_YN,LEARING_GOAL,LEARING_CONTENT,EVAL_METHOD,LEARING_TARGET,LEARING_COST,COURSE_COST,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,CREATE_DATE,CREATE_USER) VALUES('C010202003','TUTOR3','N','LEARING_GOAL','LEARING_CONTENT','EVAL_METHOD','LEARING_TARGET','LEARING_COST','50000','0','0','0','100',NOW(),'ADMIN');</v>
@@ -25279,7 +25525,7 @@
       <c r="S39" s="23"/>
     </row>
     <row r="40" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="147"/>
+      <c r="A40" s="151"/>
       <c r="B40" s="4"/>
       <c r="C40" s="31"/>
       <c r="D40" s="26"/>
@@ -25300,7 +25546,7 @@
       <c r="S40" s="23"/>
     </row>
     <row r="41" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="147"/>
+      <c r="A41" s="151"/>
       <c r="B41" s="4"/>
       <c r="C41" s="31"/>
       <c r="D41" s="26"/>
@@ -25321,7 +25567,7 @@
       <c r="S41" s="23"/>
     </row>
     <row r="42" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="143" t="s">
+      <c r="A42" s="147" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -25370,7 +25616,7 @@
       <c r="S42" s="23"/>
     </row>
     <row r="43" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="144"/>
+      <c r="A43" s="148"/>
       <c r="B43" s="30" t="str">
         <f>"INSERT INTO COURSE("&amp;$C$42&amp;","&amp;$D$42&amp;","&amp;$E$42&amp;","&amp;$F$42&amp;","&amp;$G$42&amp;","&amp;$H$42&amp;","&amp;$I$42&amp;","&amp;$J$42&amp;","&amp;$K$42&amp;","&amp;$L$42&amp;","&amp;$M$42&amp;","&amp;$N$42&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C43&amp;"','"&amp;D43&amp;"','"&amp;E43&amp;"','"&amp;F43&amp;"','"&amp;G43&amp;"','"&amp;H43&amp;"','"&amp;I43&amp;"','"&amp;J43&amp;"','"&amp;K43&amp;"','"&amp;L43&amp;"','"&amp;M43&amp;"','"&amp;N43&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('1','C010202001','NORMAL','50000','50000','','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -25416,7 +25662,7 @@
       <c r="S43" s="23"/>
     </row>
     <row r="44" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="144"/>
+      <c r="A44" s="148"/>
       <c r="B44" s="30" t="str">
         <f t="shared" ref="B44:B49" si="6">"INSERT INTO COURSE("&amp;$C$42&amp;","&amp;$D$42&amp;","&amp;$E$42&amp;","&amp;$F$42&amp;","&amp;$G$42&amp;","&amp;$H$42&amp;","&amp;$I$42&amp;","&amp;$J$42&amp;","&amp;$K$42&amp;","&amp;$L$42&amp;","&amp;$M$42&amp;","&amp;$N$42&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C44&amp;"','"&amp;D44&amp;"','"&amp;E44&amp;"','"&amp;F44&amp;"','"&amp;G44&amp;"','"&amp;H44&amp;"','"&amp;I44&amp;"','"&amp;J44&amp;"','"&amp;K44&amp;"','"&amp;L44&amp;"','"&amp;M44&amp;"','"&amp;N44&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('2','C010202001','NORMAL','50000','50000','','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -25462,7 +25708,7 @@
       <c r="S44" s="23"/>
     </row>
     <row r="45" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="144"/>
+      <c r="A45" s="148"/>
       <c r="B45" s="30" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('3','C010202002','NORMAL','50000','50000','','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -25508,7 +25754,7 @@
       <c r="S45" s="23"/>
     </row>
     <row r="46" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="144"/>
+      <c r="A46" s="148"/>
       <c r="B46" s="30" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('4','C010202002','NORMAL','50000','50000','','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -25554,7 +25800,7 @@
       <c r="S46" s="23"/>
     </row>
     <row r="47" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="144"/>
+      <c r="A47" s="148"/>
       <c r="B47" s="30" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('6','C010202003','COMPANY','50000','50000','COMP1','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -25602,7 +25848,7 @@
       <c r="S47" s="23"/>
     </row>
     <row r="48" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="144"/>
+      <c r="A48" s="148"/>
       <c r="B48" s="30" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('7','C010202003','COMPANY','50000','50000','COMP2','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -25650,7 +25896,7 @@
       <c r="S48" s="23"/>
     </row>
     <row r="49" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="144"/>
+      <c r="A49" s="148"/>
       <c r="B49" s="30" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('8','C010202003','COMPANY','50000','50000','COMP3','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -25698,7 +25944,7 @@
       <c r="S49" s="23"/>
     </row>
     <row r="50" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="144"/>
+      <c r="A50" s="148"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
@@ -25719,7 +25965,7 @@
       <c r="S50" s="23"/>
     </row>
     <row r="51" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="145"/>
+      <c r="A51" s="149"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
@@ -25740,7 +25986,7 @@
       <c r="S51" s="23"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A52" s="143" t="s">
+      <c r="A52" s="147" t="s">
         <v>614</v>
       </c>
       <c r="B52" s="29"/>
@@ -25783,7 +26029,7 @@
       <c r="S52" s="2"/>
     </row>
     <row r="53" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="144"/>
+      <c r="A53" s="148"/>
       <c r="B53" s="30" t="str">
         <f>"INSERT INTO COURSE_REGISTER("&amp;$C$52&amp;","&amp;$D$52&amp;","&amp;$E$52&amp;","&amp;$F$52&amp;","&amp;$G$52&amp;","&amp;$H$52&amp;","&amp;$I$52&amp;","&amp;$J$52&amp;","&amp;$K$52&amp;","&amp;$L$52&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C53&amp;"','"&amp;D53&amp;"','"&amp;E53&amp;"','"&amp;F53&amp;"','"&amp;G53&amp;"','"&amp;H53&amp;"','"&amp;I53&amp;"','"&amp;J53&amp;"','"&amp;K53&amp;"','"&amp;L53&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('1','USER001','A','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25825,7 +26071,7 @@
       <c r="S53" s="2"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="144"/>
+      <c r="A54" s="148"/>
       <c r="B54" s="30" t="str">
         <f t="shared" ref="B54:B70" si="7">"INSERT INTO COURSE_REGISTER("&amp;$C$52&amp;","&amp;$D$52&amp;","&amp;$E$52&amp;","&amp;$F$52&amp;","&amp;$G$52&amp;","&amp;$H$52&amp;","&amp;$I$52&amp;","&amp;$J$52&amp;","&amp;$K$52&amp;","&amp;$L$52&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C54&amp;"','"&amp;D54&amp;"','"&amp;E54&amp;"','"&amp;F54&amp;"','"&amp;G54&amp;"','"&amp;H54&amp;"','"&amp;I54&amp;"','"&amp;J54&amp;"','"&amp;K54&amp;"','"&amp;L54&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('1','USER002','A','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25867,7 +26113,7 @@
       <c r="S54" s="2"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="144"/>
+      <c r="A55" s="148"/>
       <c r="B55" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('1','USER003','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25909,7 +26155,7 @@
       <c r="S55" s="2"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="144"/>
+      <c r="A56" s="148"/>
       <c r="B56" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('2','USER002','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25951,7 +26197,7 @@
       <c r="S56" s="2"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="144"/>
+      <c r="A57" s="148"/>
       <c r="B57" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('3','USER003','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -25993,7 +26239,7 @@
       <c r="S57" s="2"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="144"/>
+      <c r="A58" s="148"/>
       <c r="B58" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('4','USER004','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -26035,7 +26281,7 @@
       <c r="S58" s="2"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="144"/>
+      <c r="A59" s="148"/>
       <c r="B59" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('5','USER005','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -26077,7 +26323,7 @@
       <c r="S59" s="2"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="144"/>
+      <c r="A60" s="148"/>
       <c r="B60" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('6','COMP1','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -26119,7 +26365,7 @@
       <c r="S60" s="2"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="144"/>
+      <c r="A61" s="148"/>
       <c r="B61" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('6','COMP_T_7','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -26161,7 +26407,7 @@
       <c r="S61" s="2"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="144"/>
+      <c r="A62" s="148"/>
       <c r="B62" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('6','COMP_T_8','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -26203,7 +26449,7 @@
       <c r="S62" s="2"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="144"/>
+      <c r="A63" s="148"/>
       <c r="B63" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('6','COMP_T_9','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -26245,7 +26491,7 @@
       <c r="S63" s="2"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A64" s="144"/>
+      <c r="A64" s="148"/>
       <c r="B64" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('6','COMP_T_10','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -26287,7 +26533,7 @@
       <c r="S64" s="2"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A65" s="144"/>
+      <c r="A65" s="148"/>
       <c r="B65" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('7','COMP2','A','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -26329,7 +26575,7 @@
       <c r="S65" s="2"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A66" s="144"/>
+      <c r="A66" s="148"/>
       <c r="B66" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('8','COMP3','A','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -26371,7 +26617,7 @@
       <c r="S66" s="2"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A67" s="144"/>
+      <c r="A67" s="148"/>
       <c r="B67" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('1','USER004','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -26413,7 +26659,7 @@
       <c r="S67" s="2"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A68" s="144"/>
+      <c r="A68" s="148"/>
       <c r="B68" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('13','USER001','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -26455,7 +26701,7 @@
       <c r="S68" s="2"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A69" s="144"/>
+      <c r="A69" s="148"/>
       <c r="B69" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('13','USER002','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -26497,7 +26743,7 @@
       <c r="S69" s="2"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A70" s="144"/>
+      <c r="A70" s="148"/>
       <c r="B70" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('13','USER003','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -26539,7 +26785,7 @@
       <c r="S70" s="2"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A71" s="144"/>
+      <c r="A71" s="148"/>
       <c r="B71" s="30"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
@@ -26560,7 +26806,7 @@
       <c r="S71" s="2"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A72" s="145"/>
+      <c r="A72" s="149"/>
       <c r="B72" s="30"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
@@ -26581,7 +26827,7 @@
       <c r="S72" s="2"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A73" s="148" t="s">
+      <c r="A73" s="152" t="s">
         <v>66</v>
       </c>
       <c r="B73" s="14" t="s">
@@ -26658,7 +26904,7 @@
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A74" s="149"/>
+      <c r="A74" s="153"/>
       <c r="B74" s="30" t="str">
         <f>"INSERT INTO USER("&amp;$C$73&amp;","&amp;$D$73&amp;","&amp;$E$73&amp;","&amp;$F$73&amp;","&amp;$G$73&amp;","&amp;$H$73&amp;","&amp;$I$73&amp;","&amp;$K$73&amp;","&amp;$L$73&amp;","&amp;$M$73&amp;","&amp;$N$73&amp;","&amp;$O$73&amp;","&amp;$P$73&amp;","&amp;$Q$73&amp;","&amp;$R$73&amp;","&amp;$S$73&amp;","&amp;$T$73&amp;","&amp;$U$73&amp;","&amp;$V$73&amp;","&amp;$W$73&amp;","&amp;$X$73&amp;","&amp;$Y$73&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C74&amp;"','"&amp;D74&amp;"','"&amp;E74&amp;"','"&amp;F74&amp;"','"&amp;G74&amp;"','"&amp;H74&amp;"',"&amp;I74&amp;",'"&amp;K74&amp;"','"&amp;L74&amp;"','"&amp;M74&amp;"','"&amp;N74&amp;"','"&amp;O74&amp;"','"&amp;P74&amp;"','"&amp;Q74&amp;"','"&amp;R74&amp;"','"&amp;S74&amp;"','"&amp;T74&amp;"','"&amp;U74&amp;"','"&amp;V74&amp;"','"&amp;W74&amp;"','"&amp;X74&amp;"','"&amp;Y74&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('admin','어드민','A','N','N','limsm9449@naver.com',PASSWORD(1),'','','','','','','010','1111','0001','','','N','','','',NOW(),'ADMIN');</v>
@@ -26705,7 +26951,7 @@
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A75" s="149"/>
+      <c r="A75" s="153"/>
       <c r="B75" s="30" t="str">
         <f>"INSERT INTO USER("&amp;$C$73&amp;","&amp;$D$73&amp;","&amp;$E$73&amp;","&amp;$F$73&amp;","&amp;$G$73&amp;","&amp;$H$73&amp;","&amp;$I$73&amp;","&amp;$K$73&amp;","&amp;$L$73&amp;","&amp;$M$73&amp;","&amp;$N$73&amp;","&amp;$O$73&amp;","&amp;$P$73&amp;","&amp;$Q$73&amp;","&amp;$R$73&amp;","&amp;$S$73&amp;","&amp;$T$73&amp;","&amp;$U$73&amp;","&amp;$V$73&amp;","&amp;$W$73&amp;","&amp;$X$73&amp;","&amp;$Y$73&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C75&amp;"','"&amp;D75&amp;"','"&amp;E75&amp;"','"&amp;F75&amp;"','"&amp;G75&amp;"','"&amp;H75&amp;"',"&amp;I75&amp;",'"&amp;K75&amp;"','"&amp;L75&amp;"','"&amp;M75&amp;"','"&amp;N75&amp;"','"&amp;O75&amp;"','"&amp;P75&amp;"','"&amp;Q75&amp;"','"&amp;R75&amp;"','"&amp;S75&amp;"','"&amp;T75&amp;"','"&amp;U75&amp;"','"&amp;V75&amp;"','"&amp;W75&amp;"','"&amp;X75&amp;"','"&amp;Y75&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('admin2','어드민','C','N','N','limsm9449@naver.com',PASSWORD(1),'','','','','','','010','1111','0001','','','N','','','',NOW(),'ADMIN');</v>
@@ -26752,7 +26998,7 @@
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A76" s="149"/>
+      <c r="A76" s="153"/>
       <c r="B76" s="30" t="str">
         <f>"INSERT INTO USER("&amp;$C$73&amp;","&amp;$D$73&amp;","&amp;$E$73&amp;","&amp;$F$73&amp;","&amp;$G$73&amp;","&amp;$H$73&amp;","&amp;$I$73&amp;","&amp;$K$73&amp;","&amp;$L$73&amp;","&amp;$M$73&amp;","&amp;$N$73&amp;","&amp;$O$73&amp;","&amp;$P$73&amp;","&amp;$Q$73&amp;","&amp;$R$73&amp;","&amp;$S$73&amp;","&amp;$T$73&amp;","&amp;$U$73&amp;","&amp;$V$73&amp;","&amp;$W$73&amp;","&amp;$X$73&amp;","&amp;$Y$73&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C76&amp;"','"&amp;D76&amp;"','"&amp;E76&amp;"','"&amp;F76&amp;"','"&amp;G76&amp;"','"&amp;H76&amp;"',"&amp;I76&amp;",'"&amp;K76&amp;"','"&amp;L76&amp;"','"&amp;M76&amp;"','"&amp;N76&amp;"','"&amp;O76&amp;"','"&amp;P76&amp;"','"&amp;Q76&amp;"','"&amp;R76&amp;"','"&amp;S76&amp;"','"&amp;T76&amp;"','"&amp;U76&amp;"','"&amp;V76&amp;"','"&amp;W76&amp;"','"&amp;X76&amp;"','"&amp;Y76&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('admin3','어드민','M','N','N','limsm9449@naver.com',PASSWORD(1),'','','','','','','010','1111','0001','','','N','','','',NOW(),'ADMIN');</v>
@@ -26799,7 +27045,7 @@
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A77" s="149"/>
+      <c r="A77" s="153"/>
       <c r="B77" s="30" t="str">
         <f t="shared" ref="B77:B116" si="8">"INSERT INTO USER("&amp;$C$73&amp;","&amp;$D$73&amp;","&amp;$E$73&amp;","&amp;$F$73&amp;","&amp;$G$73&amp;","&amp;$H$73&amp;","&amp;$I$73&amp;","&amp;$K$73&amp;","&amp;$L$73&amp;","&amp;$M$73&amp;","&amp;$N$73&amp;","&amp;$O$73&amp;","&amp;$P$73&amp;","&amp;$Q$73&amp;","&amp;$R$73&amp;","&amp;$S$73&amp;","&amp;$T$73&amp;","&amp;$U$73&amp;","&amp;$V$73&amp;","&amp;$W$73&amp;","&amp;$X$73&amp;","&amp;$Y$73&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C77&amp;"','"&amp;D77&amp;"','"&amp;E77&amp;"','"&amp;F77&amp;"','"&amp;G77&amp;"','"&amp;H77&amp;"',"&amp;I77&amp;",'"&amp;K77&amp;"','"&amp;L77&amp;"','"&amp;M77&amp;"','"&amp;N77&amp;"','"&amp;O77&amp;"','"&amp;P77&amp;"','"&amp;Q77&amp;"','"&amp;R77&amp;"','"&amp;S77&amp;"','"&amp;T77&amp;"','"&amp;U77&amp;"','"&amp;V77&amp;"','"&amp;W77&amp;"','"&amp;X77&amp;"','"&amp;Y77&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER001','USER001','N','N','N','limsm1@naver.com',PASSWORD(1),'','','','','','','010','1111','0002','','','N','','','',NOW(),'ADMIN');</v>
@@ -26846,7 +27092,7 @@
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A78" s="149"/>
+      <c r="A78" s="153"/>
       <c r="B78" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER002','USER002','N','N','N','limsm2@naver.com',PASSWORD(1),'','','','','','','010','1111','0003','','','N','','','',NOW(),'ADMIN');</v>
@@ -26893,7 +27139,7 @@
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A79" s="149"/>
+      <c r="A79" s="153"/>
       <c r="B79" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER003','USER003','N','N','N','limsm3@naver.com',PASSWORD(1),'','','','','','','010','1111','0004','','','N','','','',NOW(),'ADMIN');</v>
@@ -26940,7 +27186,7 @@
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A80" s="149"/>
+      <c r="A80" s="153"/>
       <c r="B80" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER004','USER004','N','N','N','limsm4@naver.com',PASSWORD(1),'','','','','','','010','1111','0005','','','N','','','',NOW(),'ADMIN');</v>
@@ -26987,7 +27233,7 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A81" s="149"/>
+      <c r="A81" s="153"/>
       <c r="B81" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER005','USER005','N','N','N','limsm5@naver.com',PASSWORD(1),'','','','','','','010','1111','0006','','','N','','','',NOW(),'ADMIN');</v>
@@ -27034,7 +27280,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A82" s="149"/>
+      <c r="A82" s="153"/>
       <c r="B82" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER006','USER006','N','N','N','limsm6@naver.com',PASSWORD(1),'','','','','','','010','1111','0007','','','N','','','',NOW(),'ADMIN');</v>
@@ -27081,7 +27327,7 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A83" s="149"/>
+      <c r="A83" s="153"/>
       <c r="B83" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER007','USER007','N','N','N','limsm7@naver.com',PASSWORD(1),'','','','','','','010','1111','0008','','','N','','','',NOW(),'ADMIN');</v>
@@ -27128,7 +27374,7 @@
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A84" s="149"/>
+      <c r="A84" s="153"/>
       <c r="B84" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER008','USER008','N','N','N','limsm8@naver.com',PASSWORD(1),'','','','','','','010','1111','0009','','','N','','','',NOW(),'ADMIN');</v>
@@ -27175,7 +27421,7 @@
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A85" s="149"/>
+      <c r="A85" s="153"/>
       <c r="B85" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER009','USER009','N','N','N','limsm9@naver.com',PASSWORD(1),'','','','','','','010','1111','0010','','','N','','','',NOW(),'ADMIN');</v>
@@ -27222,7 +27468,7 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A86" s="149"/>
+      <c r="A86" s="153"/>
       <c r="B86" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER010','USER010','N','N','N','limsm10@naver.com',PASSWORD(1),'','','','','','','010','1111','0011','','','N','','','',NOW(),'ADMIN');</v>
@@ -27269,7 +27515,7 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A87" s="149"/>
+      <c r="A87" s="153"/>
       <c r="B87" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER1','TEACHER1','N','N','Y','limsm11@naver.com',PASSWORD(1),'','','','','','','010','1111','0012','','','N','','','',NOW(),'ADMIN');</v>
@@ -27316,7 +27562,7 @@
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A88" s="149"/>
+      <c r="A88" s="153"/>
       <c r="B88" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER2','TEACHER2','N','N','Y','limsm12@naver.com',PASSWORD(1),'','','','','','','010','1111','0013','','','N','','','',NOW(),'ADMIN');</v>
@@ -27363,7 +27609,7 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A89" s="149"/>
+      <c r="A89" s="153"/>
       <c r="B89" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER3','TEACHER3','N','N','Y','limsm13@naver.com',PASSWORD(1),'','','','','','','010','1111','0014','','','N','','','',NOW(),'ADMIN');</v>
@@ -27410,7 +27656,7 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A90" s="149"/>
+      <c r="A90" s="153"/>
       <c r="B90" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER4','TEACHER4','N','N','Y','limsm14@naver.com',PASSWORD(1),'','','','','','','010','1111','0015','','','N','','','',NOW(),'ADMIN');</v>
@@ -27457,7 +27703,7 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A91" s="149"/>
+      <c r="A91" s="153"/>
       <c r="B91" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER5','TEACHER5','N','N','Y','limsm15@naver.com',PASSWORD(1),'','','','','','','010','1111','0016','','','N','','','',NOW(),'ADMIN');</v>
@@ -27504,7 +27750,7 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A92" s="149"/>
+      <c r="A92" s="153"/>
       <c r="B92" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER6','TEACHER6','N','N','Y','limsm16@naver.com',PASSWORD(1),'','','','','','','010','1111','0017','','','N','','','',NOW(),'ADMIN');</v>
@@ -27551,7 +27797,7 @@
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A93" s="149"/>
+      <c r="A93" s="153"/>
       <c r="B93" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER7','TEACHER7','N','N','Y','limsm17@naver.com',PASSWORD(1),'','','','','','','010','1111','0018','','','N','','','',NOW(),'ADMIN');</v>
@@ -27595,7 +27841,7 @@
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A94" s="149"/>
+      <c r="A94" s="153"/>
       <c r="B94" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER8','TEACHER8','N','N','Y','limsm18@naver.com',PASSWORD(1),'','','','','','','010','1111','0019','','','N','','','',NOW(),'ADMIN');</v>
@@ -27639,7 +27885,7 @@
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A95" s="149"/>
+      <c r="A95" s="153"/>
       <c r="B95" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER9','TEACHER9','N','N','Y','limsm19@naver.com',PASSWORD(1),'','','','','','','010','1111','0020','','','N','','','',NOW(),'ADMIN');</v>
@@ -27683,7 +27929,7 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A96" s="149"/>
+      <c r="A96" s="153"/>
       <c r="B96" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER10','TEACHER10','N','N','Y','limsm20@naver.com',PASSWORD(1),'','','','','','','010','1111','0021','','','N','','','',NOW(),'ADMIN');</v>
@@ -27727,7 +27973,7 @@
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A97" s="149"/>
+      <c r="A97" s="153"/>
       <c r="B97" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR1','TUTOR1','N','Y','N','limsm21@naver.com',PASSWORD(1),'','','','','','','010','1111','0022','','','N','','','',NOW(),'ADMIN');</v>
@@ -27771,7 +28017,7 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A98" s="149"/>
+      <c r="A98" s="153"/>
       <c r="B98" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR2','TUTOR2','N','Y','N','limsm22@naver.com',PASSWORD(1),'','','','','','','010','1111','0023','','','N','','','',NOW(),'ADMIN');</v>
@@ -27815,7 +28061,7 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A99" s="149"/>
+      <c r="A99" s="153"/>
       <c r="B99" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR3','TUTOR3','N','Y','N','limsm23@naver.com',PASSWORD(1),'','','','','','','010','1111','0024','','','N','','','',NOW(),'ADMIN');</v>
@@ -27859,7 +28105,7 @@
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A100" s="149"/>
+      <c r="A100" s="153"/>
       <c r="B100" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR4','TUTOR4','N','Y','N','limsm24@naver.com',PASSWORD(1),'','','','','','','010','1111','0025','','COMP1','N','','','',NOW(),'ADMIN');</v>
@@ -27906,7 +28152,7 @@
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A101" s="149"/>
+      <c r="A101" s="153"/>
       <c r="B101" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR5','TUTOR5','N','Y','N','limsm25@naver.com',PASSWORD(1),'','','','','','','010','1111','0026','','COMP2','N','','','',NOW(),'ADMIN');</v>
@@ -27953,7 +28199,7 @@
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A102" s="149"/>
+      <c r="A102" s="153"/>
       <c r="B102" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR6','TUTOR6','N','Y','N','limsm26@naver.com',PASSWORD(1),'','','','','','','010','1111','0027','','COMP3','N','','','',NOW(),'ADMIN');</v>
@@ -28000,7 +28246,7 @@
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A103" s="149"/>
+      <c r="A103" s="153"/>
       <c r="B103" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR7','TUTOR7','N','Y','N','limsm27@naver.com',PASSWORD(1),'','','','','','','010','1111','0028','','','N','','','',NOW(),'ADMIN');</v>
@@ -28044,7 +28290,7 @@
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A104" s="149"/>
+      <c r="A104" s="153"/>
       <c r="B104" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR8','TUTOR8','N','Y','N','limsm28@naver.com',PASSWORD(1),'','','','','','','010','1111','0029','','','N','','','',NOW(),'ADMIN');</v>
@@ -28088,7 +28334,7 @@
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A105" s="149"/>
+      <c r="A105" s="153"/>
       <c r="B105" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR9','TUTOR9','N','Y','N','limsm29@naver.com',PASSWORD(1),'','','','','','','010','1111','0030','','','N','','','',NOW(),'ADMIN');</v>
@@ -28132,7 +28378,7 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A106" s="149"/>
+      <c r="A106" s="153"/>
       <c r="B106" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR10','TUTOR10','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0031','','','N','','','',NOW(),'ADMIN');</v>
@@ -28176,7 +28422,7 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A107" s="149"/>
+      <c r="A107" s="153"/>
       <c r="B107" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_1','COMP_T_1','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0032','','COMP1','N','','','',NOW(),'ADMIN');</v>
@@ -28223,7 +28469,7 @@
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A108" s="149"/>
+      <c r="A108" s="153"/>
       <c r="B108" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_2','COMP_T_2','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0033','','COMP2','N','','','',NOW(),'ADMIN');</v>
@@ -28270,7 +28516,7 @@
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A109" s="149"/>
+      <c r="A109" s="153"/>
       <c r="B109" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_3','COMP_T_3','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0034','','COMP3','N','','','',NOW(),'ADMIN');</v>
@@ -28317,7 +28563,7 @@
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A110" s="149"/>
+      <c r="A110" s="153"/>
       <c r="B110" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_4','COMP_T_4','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0035','','COMP4','N','','','',NOW(),'ADMIN');</v>
@@ -28364,7 +28610,7 @@
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A111" s="149"/>
+      <c r="A111" s="153"/>
       <c r="B111" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_5','COMP_T_5','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0036','','COMP5','N','','','',NOW(),'ADMIN');</v>
@@ -28411,7 +28657,7 @@
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A112" s="149"/>
+      <c r="A112" s="153"/>
       <c r="B112" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_6','COMP_T_6','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0037','','COMP6','N','','','',NOW(),'ADMIN');</v>
@@ -28458,7 +28704,7 @@
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A113" s="149"/>
+      <c r="A113" s="153"/>
       <c r="B113" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_7','COMP_T_7','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0038','','COMP7','N','','','',NOW(),'ADMIN');</v>
@@ -28505,7 +28751,7 @@
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A114" s="149"/>
+      <c r="A114" s="153"/>
       <c r="B114" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_8','COMP_T_8','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0039','','COMP8','N','','','',NOW(),'ADMIN');</v>
@@ -28552,7 +28798,7 @@
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A115" s="149"/>
+      <c r="A115" s="153"/>
       <c r="B115" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_9','COMP_T_9','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0040','','COMP9','N','','','',NOW(),'ADMIN');</v>
@@ -28599,7 +28845,7 @@
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A116" s="149"/>
+      <c r="A116" s="153"/>
       <c r="B116" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_10','COMP_T_10','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0041','','COMP10','N','','','',NOW(),'ADMIN');</v>
@@ -28646,7 +28892,7 @@
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A117" s="149"/>
+      <c r="A117" s="153"/>
       <c r="B117" s="33"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
@@ -28876,7 +29122,7 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="142" t="s">
+      <c r="A132" s="146" t="s">
         <v>94</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -28896,7 +29142,7 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="142"/>
+      <c r="A133" s="146"/>
       <c r="B133" s="28" t="str">
         <f>"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C133&amp;"','"&amp;D133&amp;"','"&amp;E133&amp;"','"&amp;F133&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_KIND','NORMAL','일반 강좌','1');</v>
@@ -28919,7 +29165,7 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="142"/>
+      <c r="A134" s="146"/>
       <c r="B134" s="28" t="str">
         <f t="shared" ref="B134" si="11">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C134&amp;"','"&amp;D134&amp;"','"&amp;E134&amp;"','"&amp;F134&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_KIND','COMPANY','회사 강좌','3');</v>
@@ -28942,7 +29188,7 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="142"/>
+      <c r="A135" s="146"/>
       <c r="C135" s="3"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -28950,7 +29196,7 @@
       <c r="G135" s="3"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="142"/>
+      <c r="A136" s="146"/>
       <c r="C136" s="3"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -28958,7 +29204,7 @@
       <c r="G136" s="3"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="142"/>
+      <c r="A137" s="146"/>
       <c r="C137" s="3"/>
       <c r="D137" s="1"/>
       <c r="E137" s="19"/>
@@ -28966,7 +29212,7 @@
       <c r="G137" s="3"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="142"/>
+      <c r="A138" s="146"/>
       <c r="C138" s="3"/>
       <c r="D138" s="1"/>
       <c r="E138" s="19"/>
@@ -28974,7 +29220,7 @@
       <c r="G138" s="3"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="142"/>
+      <c r="A139" s="146"/>
       <c r="B139" s="28" t="str">
         <f t="shared" ref="B139:B149" si="12">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C139&amp;"','"&amp;D139&amp;"','"&amp;E139&amp;"','"&amp;F139&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('AUTH','ADMIN','Admin','1');</v>
@@ -28997,7 +29243,7 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="142"/>
+      <c r="A140" s="146"/>
       <c r="B140" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('AUTH','TEACHER','강사','2');</v>
@@ -29020,7 +29266,7 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="142"/>
+      <c r="A141" s="146"/>
       <c r="B141" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('AUTH','TUTOR','튜터','3');</v>
@@ -29043,7 +29289,7 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="142"/>
+      <c r="A142" s="146"/>
       <c r="B142" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('AUTH','USER','사용자','4');</v>
@@ -29066,7 +29312,7 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="142"/>
+      <c r="A143" s="146"/>
       <c r="B143" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('REG_STATUS','Y','승인요청','1');</v>
@@ -29089,7 +29335,7 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="142"/>
+      <c r="A144" s="146"/>
       <c r="B144" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('REG_STATUS','B','현금입금','1');</v>
@@ -29112,7 +29358,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="142"/>
+      <c r="A145" s="146"/>
       <c r="B145" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('REG_STATUS','A','승인','2');</v>
@@ -29135,7 +29381,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="142"/>
+      <c r="A146" s="146"/>
       <c r="B146" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('REG_STATUS','C','거절','3');</v>
@@ -29158,7 +29404,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="142"/>
+      <c r="A147" s="146"/>
       <c r="B147" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('REG_STATUS','R','환불','4');</v>
@@ -29181,7 +29427,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="142"/>
+      <c r="A148" s="146"/>
       <c r="B148" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND','CARD','카드','3');</v>
@@ -29204,7 +29450,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="142"/>
+      <c r="A149" s="146"/>
       <c r="B149" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND','CASH','은행','4');</v>
@@ -29227,7 +29473,7 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="142"/>
+      <c r="A150" s="146"/>
       <c r="C150" s="3"/>
       <c r="D150" s="9"/>
       <c r="E150" s="3"/>
@@ -29235,7 +29481,7 @@
       <c r="G150" s="3"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="142"/>
+      <c r="A151" s="146"/>
       <c r="B151" s="28" t="str">
         <f t="shared" ref="B151" si="16">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C151&amp;"','"&amp;D151&amp;"','"&amp;E151&amp;"','"&amp;F151&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','100000000000','신용카드','1');</v>
@@ -29258,7 +29504,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="142"/>
+      <c r="A152" s="146"/>
       <c r="B152" s="28" t="str">
         <f t="shared" ref="B152:B157" si="18">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C152&amp;"','"&amp;D152&amp;"','"&amp;E152&amp;"','"&amp;F152&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','010000000000','계좌이체','2');</v>
@@ -29281,7 +29527,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="142"/>
+      <c r="A153" s="146"/>
       <c r="B153" s="28" t="str">
         <f t="shared" si="18"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','001000000000','가상계좌','3');</v>
@@ -29304,7 +29550,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="142"/>
+      <c r="A154" s="146"/>
       <c r="B154" s="28" t="str">
         <f t="shared" si="18"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','000100000000','포인트','4');</v>
@@ -29327,7 +29573,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="142"/>
+      <c r="A155" s="146"/>
       <c r="B155" s="28" t="str">
         <f t="shared" si="18"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','000010000000','휴대폰','5');</v>
@@ -29350,7 +29596,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="142"/>
+      <c r="A156" s="146"/>
       <c r="B156" s="28" t="str">
         <f t="shared" si="18"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','000000001000','상품권','6');</v>
@@ -29373,7 +29619,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="142"/>
+      <c r="A157" s="146"/>
       <c r="B157" s="28" t="str">
         <f t="shared" si="18"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','000000000010','ARS','7');</v>
@@ -29396,7 +29642,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="142"/>
+      <c r="A158" s="146"/>
       <c r="B158" s="28" t="str">
         <f t="shared" ref="B158:B159" si="19">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C158&amp;"','"&amp;D158&amp;"','"&amp;E158&amp;"','"&amp;F158&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','CARD','카드','8');</v>
@@ -29416,7 +29662,7 @@
       <c r="G158" s="3"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" s="142"/>
+      <c r="A159" s="146"/>
       <c r="B159" s="28" t="str">
         <f t="shared" si="19"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','CASH','은행','9');</v>
@@ -29436,7 +29682,7 @@
       <c r="G159" s="3"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="142"/>
+      <c r="A160" s="146"/>
       <c r="C160" s="3"/>
       <c r="D160" s="9"/>
       <c r="E160" s="3"/>
@@ -29444,7 +29690,7 @@
       <c r="G160" s="3"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="142"/>
+      <c r="A161" s="146"/>
       <c r="C161" s="3"/>
       <c r="D161" s="1"/>
       <c r="E161" s="19"/>
@@ -29452,7 +29698,7 @@
       <c r="G161" s="3"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="142"/>
+      <c r="A162" s="146"/>
       <c r="B162" s="28" t="str">
         <f t="shared" ref="B162:B168" si="20">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C162&amp;"','"&amp;D162&amp;"','"&amp;E162&amp;"','"&amp;F162&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','G_BEFORE','모집전','1');</v>
@@ -29475,7 +29721,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="142"/>
+      <c r="A163" s="146"/>
       <c r="B163" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','G_ING','모집중','2');</v>
@@ -29498,7 +29744,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="142"/>
+      <c r="A164" s="146"/>
       <c r="B164" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','P_BEFORE','강좌 진행전','3');</v>
@@ -29521,7 +29767,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="142"/>
+      <c r="A165" s="146"/>
       <c r="B165" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','P_ING','강좌 진행중','4');</v>
@@ -29544,7 +29790,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="142"/>
+      <c r="A166" s="146"/>
       <c r="B166" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','COMPLETE','강좌 완료','5');</v>
@@ -29567,7 +29813,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="142"/>
+      <c r="A167" s="146"/>
       <c r="B167" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','CLOSE','강좌 종강','6');</v>
@@ -29590,7 +29836,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="142"/>
+      <c r="A168" s="146"/>
       <c r="B168" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','CANCEL','강좌 취소','7');</v>
@@ -29613,7 +29859,7 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="142"/>
+      <c r="A169" s="146"/>
       <c r="C169" s="3"/>
       <c r="D169" s="9"/>
       <c r="E169" s="3"/>
@@ -29621,7 +29867,7 @@
       <c r="G169" s="3"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="142"/>
+      <c r="A170" s="146"/>
       <c r="C170" s="3"/>
       <c r="D170" s="9"/>
       <c r="E170" s="3"/>
@@ -29629,7 +29875,7 @@
       <c r="G170" s="3"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="142"/>
+      <c r="A171" s="146"/>
       <c r="C171" s="3"/>
       <c r="D171" s="9"/>
       <c r="E171" s="3"/>
@@ -29637,7 +29883,7 @@
       <c r="G171" s="3"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="142"/>
+      <c r="A172" s="146"/>
       <c r="C172" s="3"/>
       <c r="D172" s="9"/>
       <c r="E172" s="3"/>
@@ -29645,7 +29891,7 @@
       <c r="G172" s="3"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="142"/>
+      <c r="A173" s="146"/>
       <c r="B173" s="28" t="str">
         <f t="shared" ref="B173:B179" si="23">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C173&amp;"','"&amp;D173&amp;"','"&amp;E173&amp;"','"&amp;F173&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','01','홈페이지 이용 문의','1');</v>
@@ -29668,7 +29914,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="142"/>
+      <c r="A174" s="146"/>
       <c r="B174" s="28" t="str">
         <f t="shared" si="23"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','02','수강신청','2');</v>
@@ -29691,7 +29937,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="142"/>
+      <c r="A175" s="146"/>
       <c r="B175" s="28" t="str">
         <f t="shared" si="23"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','03','교육일정','3');</v>
@@ -29714,7 +29960,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="142"/>
+      <c r="A176" s="146"/>
       <c r="B176" s="28" t="str">
         <f t="shared" si="23"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','04','회원정보관련','4');</v>
@@ -29737,7 +29983,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="142"/>
+      <c r="A177" s="146"/>
       <c r="B177" s="28" t="str">
         <f t="shared" si="23"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','05','교육상담','5');</v>
@@ -29760,7 +30006,7 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="142"/>
+      <c r="A178" s="146"/>
       <c r="B178" s="28" t="str">
         <f t="shared" si="23"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','06','기타문의','6');</v>
@@ -29783,7 +30029,7 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="142"/>
+      <c r="A179" s="146"/>
       <c r="B179" s="28" t="str">
         <f t="shared" si="23"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('POINT_KIND','COURSE','과정 수강 적립','1');</v>
@@ -29806,7 +30052,7 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="142"/>
+      <c r="A180" s="146"/>
       <c r="B180" s="28" t="str">
         <f t="shared" ref="B180:B181" si="26">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C180&amp;"','"&amp;D180&amp;"','"&amp;E180&amp;"','"&amp;F180&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('POINT_KIND','COURSE_REFUND','과정 환불','2');</v>
@@ -29829,7 +30075,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="142"/>
+      <c r="A181" s="146"/>
       <c r="B181" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('POINT_KIND','POSTSCRIPT','수강 후기','3');</v>
@@ -29852,7 +30098,7 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="142"/>
+      <c r="A182" s="146"/>
       <c r="B182" s="28" t="str">
         <f t="shared" ref="B182:B183" si="27">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C182&amp;"','"&amp;D182&amp;"','"&amp;E182&amp;"','"&amp;F182&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('UC_KIND','U','사용자','1');</v>
@@ -29875,7 +30121,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="142"/>
+      <c r="A183" s="146"/>
       <c r="B183" s="28" t="str">
         <f t="shared" si="27"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('UC_KIND','C','회사','2');</v>
@@ -29898,7 +30144,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="142"/>
+      <c r="A184" s="146"/>
       <c r="B184" s="28" t="str">
         <f t="shared" ref="B184:B203" si="29">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C184&amp;"','"&amp;D184&amp;"','"&amp;E184&amp;"','"&amp;F184&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','02','02','1');</v>
@@ -29921,7 +30167,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="142"/>
+      <c r="A185" s="146"/>
       <c r="B185" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','031','031','2');</v>
@@ -29944,7 +30190,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="142"/>
+      <c r="A186" s="146"/>
       <c r="B186" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','032','032','3');</v>
@@ -29967,7 +30213,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="142"/>
+      <c r="A187" s="146"/>
       <c r="B187" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','033','033','4');</v>
@@ -29990,7 +30236,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="142"/>
+      <c r="A188" s="146"/>
       <c r="B188" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','041','041','5');</v>
@@ -30013,7 +30259,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="142"/>
+      <c r="A189" s="146"/>
       <c r="B189" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','042','042','6');</v>
@@ -30036,7 +30282,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="142"/>
+      <c r="A190" s="146"/>
       <c r="B190" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','043','043','7');</v>
@@ -30059,7 +30305,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="142"/>
+      <c r="A191" s="146"/>
       <c r="B191" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','0502','0502','8');</v>
@@ -30082,7 +30328,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="142"/>
+      <c r="A192" s="146"/>
       <c r="B192" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','0505','0505','9');</v>
@@ -30105,7 +30351,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="142"/>
+      <c r="A193" s="146"/>
       <c r="B193" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','0506','0506','10');</v>
@@ -30128,7 +30374,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="142"/>
+      <c r="A194" s="146"/>
       <c r="B194" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','051','051','11');</v>
@@ -30151,7 +30397,7 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="142"/>
+      <c r="A195" s="146"/>
       <c r="B195" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','052','052','12');</v>
@@ -30174,7 +30420,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="142"/>
+      <c r="A196" s="146"/>
       <c r="B196" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','053','053','13');</v>
@@ -30197,7 +30443,7 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="142"/>
+      <c r="A197" s="146"/>
       <c r="B197" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','054','054','14');</v>
@@ -30220,7 +30466,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="142"/>
+      <c r="A198" s="146"/>
       <c r="B198" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','055','055','15');</v>
@@ -30243,7 +30489,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="142"/>
+      <c r="A199" s="146"/>
       <c r="B199" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','061','061','16');</v>
@@ -30266,7 +30512,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="142"/>
+      <c r="A200" s="146"/>
       <c r="B200" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','062','062','17');</v>
@@ -30289,7 +30535,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="142"/>
+      <c r="A201" s="146"/>
       <c r="B201" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','063','063','18');</v>
@@ -30312,7 +30558,7 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202" s="142"/>
+      <c r="A202" s="146"/>
       <c r="B202" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','064','064','19');</v>
@@ -30335,7 +30581,7 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="142"/>
+      <c r="A203" s="146"/>
       <c r="B203" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','070','070','20');</v>
@@ -30358,7 +30604,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="142"/>
+      <c r="A204" s="146"/>
       <c r="B204" s="28" t="str">
         <f t="shared" ref="B204:B209" si="31">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C204&amp;"','"&amp;D204&amp;"','"&amp;E204&amp;"','"&amp;F204&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','010','010','1');</v>
@@ -30381,7 +30627,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="142"/>
+      <c r="A205" s="146"/>
       <c r="B205" s="28" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','011','011','2');</v>
@@ -30404,7 +30650,7 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" s="142"/>
+      <c r="A206" s="146"/>
       <c r="B206" s="28" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','016','016','3');</v>
@@ -30427,7 +30673,7 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" s="142"/>
+      <c r="A207" s="146"/>
       <c r="B207" s="28" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','017','017','4');</v>
@@ -30450,7 +30696,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="142"/>
+      <c r="A208" s="146"/>
       <c r="B208" s="28" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','018','018','5');</v>
@@ -30473,7 +30719,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="142"/>
+      <c r="A209" s="146"/>
       <c r="B209" s="28" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','019','019','6');</v>
@@ -30496,7 +30742,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="142"/>
+      <c r="A210" s="146"/>
       <c r="B210" s="28" t="str">
         <f t="shared" ref="B210:B216" si="32">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C210&amp;"','"&amp;D210&amp;"','"&amp;E210&amp;"','"&amp;F210&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','01','사원','1');</v>
@@ -30519,7 +30765,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="142"/>
+      <c r="A211" s="146"/>
       <c r="B211" s="28" t="str">
         <f t="shared" si="32"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','02','대리','2');</v>
@@ -30542,7 +30788,7 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="142"/>
+      <c r="A212" s="146"/>
       <c r="B212" s="28" t="str">
         <f t="shared" si="32"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','03','과장','3');</v>
@@ -30565,7 +30811,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" s="142"/>
+      <c r="A213" s="146"/>
       <c r="B213" s="28" t="str">
         <f t="shared" si="32"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','04','차장','4');</v>
@@ -30588,7 +30834,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="142"/>
+      <c r="A214" s="146"/>
       <c r="B214" s="28" t="str">
         <f t="shared" si="32"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','05','부장','5');</v>
@@ -30611,7 +30857,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" s="142"/>
+      <c r="A215" s="146"/>
       <c r="B215" s="28" t="str">
         <f t="shared" si="32"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','06','임원','6');</v>
@@ -30634,7 +30880,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" s="142"/>
+      <c r="A216" s="146"/>
       <c r="B216" s="28" t="str">
         <f t="shared" si="32"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','07','기타','7');</v>
@@ -30657,16 +30903,16 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" s="142"/>
+      <c r="A217" s="146"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" s="142"/>
+      <c r="A218" s="146"/>
       <c r="B218" s="28" t="str">
         <f t="shared" ref="B218:B220" si="33">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C218&amp;"','"&amp;D218&amp;"','"&amp;E218&amp;"','"&amp;F218&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('ADMIN_AUTH','A','Admin','1');</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>775</v>
@@ -30683,13 +30929,13 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" s="142"/>
+      <c r="A219" s="146"/>
       <c r="B219" s="28" t="str">
         <f t="shared" si="33"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('ADMIN_AUTH','C','Contents Admin','2');</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>777</v>
@@ -30706,13 +30952,13 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="142"/>
+      <c r="A220" s="146"/>
       <c r="B220" s="28" t="str">
         <f t="shared" si="33"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('ADMIN_AUTH','M','Manage Admin','3');</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="D220" s="9" t="s">
         <v>779</v>
@@ -30729,10 +30975,10 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" s="142"/>
+      <c r="A221" s="146"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="142"/>
+      <c r="A222" s="146"/>
       <c r="B222" s="28" t="str">
         <f t="shared" ref="B222:B223" si="36">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C222&amp;"','"&amp;D222&amp;"','"&amp;E222&amp;"','"&amp;F222&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('SEX','M','남','1');</v>
@@ -30821,7 +31067,7 @@
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A230" s="141" t="s">
+      <c r="A230" s="145" t="s">
         <v>1014</v>
       </c>
       <c r="B230" s="3" t="s">
@@ -30829,13 +31075,13 @@
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A231" s="141"/>
+      <c r="A231" s="145"/>
       <c r="B231" s="3" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A232" s="141"/>
+      <c r="A232" s="145"/>
       <c r="B232" s="3" t="s">
         <v>882</v>
       </c>
@@ -30860,13 +31106,13 @@
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('APPROVAL_STATUS','B','은행입금','1');</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>757</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="F235" s="3">
         <v>1</v>
@@ -30889,7 +31135,7 @@
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('APPROVAL_STATUS','A','승인','2');</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>325</v>
@@ -30918,7 +31164,7 @@
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('APPROVAL_STATUS','C','거절','3');</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>496</v>
@@ -30947,7 +31193,7 @@
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('APPROVAL_STATUS','R','환불','4');</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>507</v>
@@ -30976,13 +31222,13 @@
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('OPEN_KIND','OPEN','오픈','1');</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="F240" s="3">
         <v>1</v>
@@ -30998,13 +31244,13 @@
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('OPEN_KIND','NOT_OPEN','미오픈','2');</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="F241" s="3">
         <v>2</v>
@@ -31020,13 +31266,13 @@
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('OPEN_KIND','CLOSE','종료','3');</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>409</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="F242" s="3">
         <v>3</v>
@@ -31042,13 +31288,13 @@
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('OPEN_KIND','NOT_CLOSE','미종료','4');</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="F243" s="3">
         <v>4</v>
@@ -31076,7 +31322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -31188,13 +31434,13 @@
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="B11" s="59" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="D11" s="59" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="E11" s="59"/>
       <c r="F11" s="59" t="str">
@@ -31208,13 +31454,13 @@
     </row>
     <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="B12" s="59" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="E12" s="59"/>
       <c r="F12" s="59" t="str">
@@ -31444,13 +31690,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="F24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -31463,10 +31709,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="C25" s="1">
         <v>2015</v>
@@ -31485,10 +31731,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="C26" s="1">
         <v>2025</v>
@@ -31510,201 +31756,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="68.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>842</v>
-      </c>
-      <c r="B1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="66" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>885</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="150"/>
-      <c r="B12" s="3" t="s">
-        <v>944</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="151"/>
-      <c r="B13" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="151"/>
-      <c r="B14" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="151"/>
-      <c r="B15" s="3" t="s">
-        <v>934</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="151"/>
-      <c r="B16" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="151"/>
-      <c r="B17" s="3" t="s">
-        <v>927</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>927</v>
-      </c>
-      <c r="D17" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="151"/>
-      <c r="B18" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="151"/>
-      <c r="B19" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="151"/>
-      <c r="B20" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="36" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="36" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>917</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A12:A20"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/webapp/resources/setting/setting_20170222.xlsx
+++ b/src/main/webapp/resources/setting/setting_20170222.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4403" uniqueCount="1351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4401" uniqueCount="1350">
   <si>
     <t>USE_YN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5340,10 +5340,6 @@
  DATA_COST INT DEFAULT 0, 
  ANSWER_COST INT DEFAULT 0
 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.9.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5578,7 +5574,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5623,19 +5619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5716,7 +5706,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6107,55 +6097,40 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6199,6 +6174,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6813,7 +6797,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="159"/>
+      <c r="A12" s="154"/>
       <c r="B12" s="3" t="s">
         <v>928</v>
       </c>
@@ -6822,7 +6806,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="160"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="3" t="s">
         <v>920</v>
       </c>
@@ -6831,7 +6815,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="160"/>
+      <c r="A14" s="155"/>
       <c r="B14" s="3" t="s">
         <v>921</v>
       </c>
@@ -6840,7 +6824,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="160"/>
+      <c r="A15" s="155"/>
       <c r="B15" s="3" t="s">
         <v>918</v>
       </c>
@@ -6849,7 +6833,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="160"/>
+      <c r="A16" s="155"/>
       <c r="B16" s="3" t="s">
         <v>922</v>
       </c>
@@ -6858,7 +6842,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="160"/>
+      <c r="A17" s="155"/>
       <c r="B17" s="3" t="s">
         <v>911</v>
       </c>
@@ -6870,7 +6854,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="160"/>
+      <c r="A18" s="155"/>
       <c r="B18" s="3" t="s">
         <v>912</v>
       </c>
@@ -6879,7 +6863,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="160"/>
+      <c r="A19" s="155"/>
       <c r="B19" s="3" t="s">
         <v>913</v>
       </c>
@@ -6888,7 +6872,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="160"/>
+      <c r="A20" s="155"/>
       <c r="B20" s="3" t="s">
         <v>914</v>
       </c>
@@ -7144,7 +7128,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -7263,7 +7247,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="40" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" ref="B20:B23" si="3">A20&amp;", "</f>
@@ -7280,7 +7264,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="3"/>
@@ -7297,7 +7281,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="3"/>
@@ -7314,7 +7298,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="3"/>
@@ -7556,10 +7540,10 @@
   <dimension ref="A1:R649"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B192" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B256" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G215" sqref="G207:G215"/>
+      <selection pane="bottomRight" activeCell="C275" sqref="C275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -9162,13 +9146,13 @@
         <v>970</v>
       </c>
       <c r="C60" s="78" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D60" s="84" t="s">
         <v>542</v>
       </c>
       <c r="E60" s="79" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F60" s="79">
         <v>8</v>
@@ -9188,13 +9172,13 @@
         <v>970</v>
       </c>
       <c r="C61" s="78" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D61" s="79" t="s">
         <v>1324</v>
       </c>
-      <c r="D61" s="79" t="s">
-        <v>1325</v>
-      </c>
       <c r="E61" s="79" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F61" s="79">
         <v>9</v>
@@ -12189,7 +12173,7 @@
       <c r="H179" s="123"/>
       <c r="I179" s="124"/>
       <c r="J179" s="125"/>
-      <c r="R179" s="134"/>
+      <c r="R179" s="131"/>
     </row>
     <row r="180" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="63" t="s">
@@ -12493,7 +12477,7 @@
       <c r="J190" s="3"/>
       <c r="R190" s="15"/>
     </row>
-    <row r="191" spans="1:18" s="145" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" s="140" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="20" t="s">
         <v>602</v>
       </c>
@@ -12519,7 +12503,7 @@
       <c r="H191" s="14"/>
       <c r="I191" s="27"/>
     </row>
-    <row r="192" spans="1:18" s="145" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" s="140" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="20" t="s">
         <v>602</v>
       </c>
@@ -12545,7 +12529,7 @@
       <c r="H192" s="14"/>
       <c r="I192" s="27"/>
     </row>
-    <row r="193" spans="1:18" s="145" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" s="140" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="20" t="s">
         <v>602</v>
       </c>
@@ -12571,7 +12555,7 @@
       <c r="H193" s="14"/>
       <c r="I193" s="27"/>
     </row>
-    <row r="194" spans="1:18" s="145" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" s="140" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="20" t="s">
         <v>602</v>
       </c>
@@ -12597,7 +12581,7 @@
       <c r="H194" s="14"/>
       <c r="I194" s="27"/>
     </row>
-    <row r="195" spans="1:18" s="145" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" s="140" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="20" t="s">
         <v>602</v>
       </c>
@@ -12623,7 +12607,7 @@
       <c r="H195" s="14"/>
       <c r="I195" s="27"/>
     </row>
-    <row r="196" spans="1:18" s="145" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" s="140" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="20" t="s">
         <v>602</v>
       </c>
@@ -12649,7 +12633,7 @@
       <c r="H196" s="14"/>
       <c r="I196" s="27"/>
     </row>
-    <row r="197" spans="1:18" s="148" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="20" t="s">
         <v>602</v>
       </c>
@@ -12674,10 +12658,10 @@
       </c>
       <c r="H197" s="14"/>
       <c r="I197" s="27"/>
-      <c r="J197" s="145"/>
-      <c r="R197" s="149"/>
-    </row>
-    <row r="198" spans="1:18" s="148" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J197" s="140"/>
+      <c r="R197" s="144"/>
+    </row>
+    <row r="198" spans="1:18" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="20" t="s">
         <v>602</v>
       </c>
@@ -12702,10 +12686,10 @@
       </c>
       <c r="H198" s="14"/>
       <c r="I198" s="27"/>
-      <c r="J198" s="145"/>
-      <c r="R198" s="149"/>
-    </row>
-    <row r="199" spans="1:18" s="148" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J198" s="140"/>
+      <c r="R198" s="144"/>
+    </row>
+    <row r="199" spans="1:18" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="20" t="s">
         <v>602</v>
       </c>
@@ -12730,10 +12714,10 @@
       </c>
       <c r="H199" s="14"/>
       <c r="I199" s="27"/>
-      <c r="J199" s="145"/>
-      <c r="R199" s="149"/>
-    </row>
-    <row r="200" spans="1:18" s="148" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J199" s="140"/>
+      <c r="R199" s="144"/>
+    </row>
+    <row r="200" spans="1:18" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="20" t="s">
         <v>602</v>
       </c>
@@ -12758,10 +12742,10 @@
       </c>
       <c r="H200" s="14"/>
       <c r="I200" s="27"/>
-      <c r="J200" s="145"/>
-      <c r="R200" s="149"/>
-    </row>
-    <row r="201" spans="1:18" s="148" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J200" s="140"/>
+      <c r="R200" s="144"/>
+    </row>
+    <row r="201" spans="1:18" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="20" t="s">
         <v>602</v>
       </c>
@@ -12769,13 +12753,13 @@
         <v>958</v>
       </c>
       <c r="C201" s="40" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D201" s="14" t="s">
         <v>495</v>
       </c>
       <c r="E201" s="14" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F201" s="14">
         <v>12</v>
@@ -12786,8 +12770,8 @@
       </c>
       <c r="H201" s="14"/>
       <c r="I201" s="27"/>
-      <c r="J201" s="145"/>
-      <c r="R201" s="149"/>
+      <c r="J201" s="140"/>
+      <c r="R201" s="144"/>
     </row>
     <row r="202" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="20" t="s">
@@ -12919,10 +12903,10 @@
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A207" s="20" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B207" s="52" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C207" s="40"/>
       <c r="D207" s="14"/>
@@ -12939,10 +12923,10 @@
     </row>
     <row r="208" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="20" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B208" s="52" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C208" s="43" t="s">
         <v>38</v>
@@ -12961,16 +12945,16 @@
         <v xml:space="preserve">COURSE_ID INT, </v>
       </c>
       <c r="H208" s="4"/>
-      <c r="I208" s="147"/>
+      <c r="I208" s="142"/>
       <c r="J208" s="3"/>
       <c r="R208" s="15"/>
     </row>
     <row r="209" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="20" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B209" s="52" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C209" s="43" t="s">
         <v>144</v>
@@ -12979,7 +12963,7 @@
         <v>145</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F209" s="14">
         <v>2</v>
@@ -12989,27 +12973,27 @@
         <v xml:space="preserve">KIND VARCHAR(10), </v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>1340</v>
-      </c>
-      <c r="I209" s="147"/>
+        <v>1339</v>
+      </c>
+      <c r="I209" s="142"/>
       <c r="J209" s="3"/>
       <c r="R209" s="15"/>
     </row>
     <row r="210" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="20" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B210" s="52" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C210" s="44" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D210" s="22" t="s">
         <v>75</v>
       </c>
       <c r="E210" s="22" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F210" s="14">
         <v>3</v>
@@ -13019,16 +13003,16 @@
         <v xml:space="preserve">USER_ID VARCHAR(15), </v>
       </c>
       <c r="H210" s="4"/>
-      <c r="I210" s="147"/>
+      <c r="I210" s="142"/>
       <c r="J210" s="3"/>
       <c r="R210" s="15"/>
     </row>
-    <row r="211" spans="1:18" s="148" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="20" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B211" s="52" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C211" s="40" t="s">
         <v>602</v>
@@ -13037,7 +13021,7 @@
         <v>495</v>
       </c>
       <c r="E211" s="14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="F211" s="14">
         <v>4</v>
@@ -13048,15 +13032,15 @@
       </c>
       <c r="H211" s="14"/>
       <c r="I211" s="27"/>
-      <c r="J211" s="145"/>
-      <c r="R211" s="149"/>
+      <c r="J211" s="140"/>
+      <c r="R211" s="144"/>
     </row>
     <row r="212" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="20" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B212" s="52" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C212" s="40" t="s">
         <v>480</v>
@@ -13065,7 +13049,7 @@
         <v>84</v>
       </c>
       <c r="E212" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="F212" s="14">
         <v>5</v>
@@ -13081,10 +13065,10 @@
     </row>
     <row r="213" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="20" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B213" s="52" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C213" s="40" t="s">
         <v>566</v>
@@ -13093,7 +13077,7 @@
         <v>84</v>
       </c>
       <c r="E213" s="14" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F213" s="14">
         <v>6</v>
@@ -13109,19 +13093,19 @@
     </row>
     <row r="214" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="20" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B214" s="52" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C214" s="40" t="s">
         <v>1336</v>
       </c>
-      <c r="B214" s="52" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C214" s="40" t="s">
-        <v>1337</v>
-      </c>
       <c r="D214" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E214" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="F214" s="14">
         <v>7</v>
@@ -13137,13 +13121,13 @@
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A215" s="20" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B215" s="52" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C215" s="40" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D215" s="14"/>
       <c r="E215" s="14"/>
@@ -18098,87 +18082,87 @@
       <c r="H402" s="14"/>
       <c r="I402" s="27"/>
     </row>
-    <row r="403" spans="1:9" s="144" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="138" t="s">
+    <row r="403" spans="1:9" s="139" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="133" t="s">
         <v>940</v>
       </c>
-      <c r="B403" s="139" t="s">
+      <c r="B403" s="134" t="s">
         <v>941</v>
       </c>
-      <c r="C403" s="140" t="s">
+      <c r="C403" s="135" t="s">
         <v>1291</v>
       </c>
-      <c r="D403" s="141" t="s">
+      <c r="D403" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="E403" s="141" t="s">
+      <c r="E403" s="136" t="s">
         <v>399</v>
       </c>
-      <c r="F403" s="141">
+      <c r="F403" s="136">
         <v>5</v>
       </c>
-      <c r="G403" s="141" t="str">
+      <c r="G403" s="136" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">--COMPANY_COST INT, </v>
       </c>
-      <c r="H403" s="142"/>
-      <c r="I403" s="143" t="s">
+      <c r="H403" s="137"/>
+      <c r="I403" s="138" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="404" spans="1:9" s="144" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="138" t="s">
+    <row r="404" spans="1:9" s="139" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="133" t="s">
         <v>940</v>
       </c>
-      <c r="B404" s="139" t="s">
+      <c r="B404" s="134" t="s">
         <v>941</v>
       </c>
-      <c r="C404" s="140" t="s">
+      <c r="C404" s="135" t="s">
         <v>1292</v>
       </c>
-      <c r="D404" s="141" t="s">
+      <c r="D404" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="E404" s="141" t="s">
+      <c r="E404" s="136" t="s">
         <v>400</v>
       </c>
-      <c r="F404" s="141">
+      <c r="F404" s="136">
         <v>6</v>
       </c>
-      <c r="G404" s="141" t="str">
+      <c r="G404" s="136" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">--TEACHER_COST INT, </v>
       </c>
-      <c r="H404" s="142"/>
-      <c r="I404" s="143" t="s">
+      <c r="H404" s="137"/>
+      <c r="I404" s="138" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="405" spans="1:9" s="144" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="138" t="s">
+    <row r="405" spans="1:9" s="139" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="133" t="s">
         <v>940</v>
       </c>
-      <c r="B405" s="139" t="s">
+      <c r="B405" s="134" t="s">
         <v>941</v>
       </c>
-      <c r="C405" s="140" t="s">
+      <c r="C405" s="135" t="s">
         <v>1293</v>
       </c>
-      <c r="D405" s="141" t="s">
+      <c r="D405" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="E405" s="141" t="s">
+      <c r="E405" s="136" t="s">
         <v>401</v>
       </c>
-      <c r="F405" s="141">
+      <c r="F405" s="136">
         <v>7</v>
       </c>
-      <c r="G405" s="141" t="str">
+      <c r="G405" s="136" t="str">
         <f t="shared" ref="G405:G487" si="23">IF(F405=0,"CREATE TABLE "&amp;A405&amp;" ( ",IF(F405=100,C405&amp;" );",IF(F405=200,"ALTER TABLE "&amp;A405&amp;" ADD INDEX "&amp;A405&amp;"_IDX"&amp;C405&amp;"("&amp;D405&amp;");",C405&amp;" "&amp;D405&amp;", ")))</f>
         <v xml:space="preserve">--TUTOR_COST INT, </v>
       </c>
-      <c r="H405" s="142"/>
-      <c r="I405" s="143" t="s">
+      <c r="H405" s="137"/>
+      <c r="I405" s="138" t="s">
         <v>1294</v>
       </c>
     </row>
@@ -21379,13 +21363,13 @@
         <v>975</v>
       </c>
       <c r="C532" s="78" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D532" s="84" t="s">
         <v>542</v>
       </c>
       <c r="E532" s="79" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F532" s="79">
         <v>8</v>
@@ -21405,13 +21389,13 @@
         <v>975</v>
       </c>
       <c r="C533" s="78" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D533" s="79" t="s">
         <v>1324</v>
       </c>
-      <c r="D533" s="79" t="s">
-        <v>1325</v>
-      </c>
       <c r="E533" s="79" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F533" s="79">
         <v>9</v>
@@ -21787,7 +21771,7 @@
         <v xml:space="preserve">SEQ INT NOT NULL auto_increment, </v>
       </c>
       <c r="H548" s="4"/>
-      <c r="I548" s="137"/>
+      <c r="I548" s="132"/>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A549" s="20" t="s">
@@ -22499,7 +22483,7 @@
         <v xml:space="preserve">ADMIN_YN CHAR(1) DEFAULT 'N', </v>
       </c>
       <c r="H576" s="11"/>
-      <c r="I576" s="133"/>
+      <c r="I576" s="130"/>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A577" s="20" t="s">
@@ -22525,7 +22509,7 @@
         <v xml:space="preserve">SITE_MANAGER_YN CHAR(1) DEFAULT 'N', </v>
       </c>
       <c r="H577" s="11"/>
-      <c r="I577" s="133"/>
+      <c r="I577" s="130"/>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A578" s="20" t="s">
@@ -22711,35 +22695,35 @@
       <c r="H584" s="4"/>
       <c r="I584" s="66"/>
     </row>
-    <row r="585" spans="1:9" s="144" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A585" s="138" t="s">
+    <row r="585" spans="1:9" s="139" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A585" s="133" t="s">
         <v>953</v>
       </c>
-      <c r="B585" s="139" t="s">
+      <c r="B585" s="134" t="s">
         <v>962</v>
       </c>
-      <c r="C585" s="140" t="s">
+      <c r="C585" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="D585" s="141" t="s">
+      <c r="D585" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="E585" s="141" t="s">
+      <c r="E585" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="F585" s="141">
+      <c r="F585" s="136">
         <v>10</v>
       </c>
-      <c r="G585" s="141" t="str">
+      <c r="G585" s="136" t="str">
         <f t="shared" si="31"/>
         <v xml:space="preserve">HOME_ZIPCODE_SEQ INT, </v>
       </c>
-      <c r="H585" s="141"/>
-      <c r="I585" s="146" t="s">
+      <c r="H585" s="136"/>
+      <c r="I585" s="141" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="586" spans="1:9" s="145" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" s="140" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A586" s="20" t="s">
         <v>66</v>
       </c>
@@ -24344,10 +24328,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+  <dimension ref="B1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -24358,234 +24342,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="158" t="s">
         <v>1132</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="132" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="158" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="168" x14ac:dyDescent="0.3">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="158" t="s">
         <v>1141</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="180" x14ac:dyDescent="0.3">
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="158" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="132" x14ac:dyDescent="0.3">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="157" t="s">
         <v>1147</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="156" t="s">
         <v>1148</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="157" t="s">
         <v>1150</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="157" t="s">
         <v>1156</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="156" t="s">
         <v>1159</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="84" x14ac:dyDescent="0.3">
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="157" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="157" t="s">
         <v>1172</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="156" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="B13" s="131" t="s">
+      <c r="B13" s="157" t="s">
         <v>1175</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="157" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="157" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="156" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="157" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="156" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="157" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="B20" s="131" t="s">
+      <c r="B20" s="157" t="s">
         <v>1214</v>
       </c>
     </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="156"/>
+    </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="156" t="s">
         <v>1227</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="B23" s="136" t="s">
+      <c r="B23" s="157" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="156" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="157" t="s">
         <v>1240</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="B26" s="136" t="s">
+      <c r="B26" s="157" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="B27" s="136" t="s">
+      <c r="B27" s="157" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="157" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="B29" s="136" t="s">
+      <c r="B29" s="157" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="84" x14ac:dyDescent="0.3">
-      <c r="B30" s="136" t="s">
+      <c r="B30" s="157" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="B31" s="136" t="s">
+      <c r="B31" s="157" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="135" t="s">
+      <c r="B32" s="156" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="B33" s="136" t="s">
+    <row r="33" spans="2:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="B33" s="157" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="B34" s="136" t="s">
+    <row r="34" spans="2:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="B34" s="157" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="135" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="156" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="B36" s="136" t="s">
+    <row r="36" spans="2:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="B36" s="157" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B38" s="98" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="156"/>
+    </row>
+    <row r="38" spans="2:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="B38" s="157" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="108" x14ac:dyDescent="0.3">
-      <c r="B39" s="98" t="s">
+    <row r="39" spans="2:2" ht="108" x14ac:dyDescent="0.3">
+      <c r="B39" s="157" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="84" x14ac:dyDescent="0.3">
-      <c r="B40" s="98" t="s">
+    <row r="40" spans="2:2" ht="84" x14ac:dyDescent="0.3">
+      <c r="B40" s="157" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="96" x14ac:dyDescent="0.3">
-      <c r="B41" s="98" t="s">
+    <row r="41" spans="2:2" ht="96" x14ac:dyDescent="0.3">
+      <c r="B41" s="157" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="300" x14ac:dyDescent="0.3">
-      <c r="B42" s="98" t="s">
+    <row r="42" spans="2:2" ht="300" x14ac:dyDescent="0.3">
+      <c r="B42" s="157" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="96" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B45" s="98" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="156"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="156"/>
+    </row>
+    <row r="45" spans="2:2" ht="96" x14ac:dyDescent="0.3">
+      <c r="B45" s="157" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="B46" s="98" t="s">
+    <row r="46" spans="2:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="B46" s="157" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="B47" s="157" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="B47" s="98" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="228" x14ac:dyDescent="0.3">
-      <c r="B48" s="98" t="s">
+    <row r="48" spans="2:2" ht="228" x14ac:dyDescent="0.3">
+      <c r="B48" s="157" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="108" x14ac:dyDescent="0.3">
+      <c r="B49" s="157" t="s">
         <v>1349</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="108" x14ac:dyDescent="0.3">
-      <c r="B49" s="98" t="s">
-        <v>1350</v>
       </c>
     </row>
   </sheetData>
@@ -25043,7 +25033,7 @@
       <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="150" t="s">
         <v>619</v>
       </c>
       <c r="B2" s="2"/>
@@ -25076,7 +25066,7 @@
       <c r="S2" s="23"/>
     </row>
     <row r="3" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="155"/>
+      <c r="A3" s="150"/>
       <c r="B3" s="32" t="str">
         <f t="shared" ref="B3:B18" si="0">"INSERT INTO CATEGORY("&amp;$C$2&amp;","&amp;$D$2&amp;","&amp;$E$2&amp;","&amp;$F$2&amp;","&amp;$G$2&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C01','IT','','1','Y',NOW(),'ADMIN');</v>
@@ -25108,7 +25098,7 @@
       <c r="S3" s="23"/>
     </row>
     <row r="4" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="155"/>
+      <c r="A4" s="150"/>
       <c r="B4" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C02','자격대비','','1','Y',NOW(),'ADMIN');</v>
@@ -25140,7 +25130,7 @@
       <c r="S4" s="23"/>
     </row>
     <row r="5" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="155"/>
+      <c r="A5" s="150"/>
       <c r="B5" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C03','경영/비즈니스','','1','Y',NOW(),'ADMIN');</v>
@@ -25172,7 +25162,7 @@
       <c r="S5" s="23"/>
     </row>
     <row r="6" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="155"/>
+      <c r="A6" s="150"/>
       <c r="B6" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C04','아카데미 시리즈','','1','Y',NOW(),'ADMIN');</v>
@@ -25204,7 +25194,7 @@
       <c r="S6" s="23"/>
     </row>
     <row r="7" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="155"/>
+      <c r="A7" s="150"/>
       <c r="B7" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0101','보안','C01','2','Y',NOW(),'ADMIN');</v>
@@ -25239,7 +25229,7 @@
       <c r="S7" s="23"/>
     </row>
     <row r="8" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="155"/>
+      <c r="A8" s="150"/>
       <c r="B8" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0102','프로그래밍','C01','2','Y',NOW(),'ADMIN');</v>
@@ -25274,7 +25264,7 @@
       <c r="S8" s="23"/>
     </row>
     <row r="9" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="155"/>
+      <c r="A9" s="150"/>
       <c r="B9" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0103','모바일','C01','2','Y',NOW(),'ADMIN');</v>
@@ -25309,7 +25299,7 @@
       <c r="S9" s="23"/>
     </row>
     <row r="10" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="155"/>
+      <c r="A10" s="150"/>
       <c r="B10" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0104','OS','C01','2','Y',NOW(),'ADMIN');</v>
@@ -25344,7 +25334,7 @@
       <c r="S10" s="23"/>
     </row>
     <row r="11" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="155"/>
+      <c r="A11" s="150"/>
       <c r="B11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0105','DB','C01','2','Y',NOW(),'ADMIN');</v>
@@ -25379,7 +25369,7 @@
       <c r="S11" s="23"/>
     </row>
     <row r="12" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="155"/>
+      <c r="A12" s="150"/>
       <c r="B12" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0106','네트워크','C01','2','Y',NOW(),'ADMIN');</v>
@@ -25414,7 +25404,7 @@
       <c r="S12" s="23"/>
     </row>
     <row r="13" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="155"/>
+      <c r="A13" s="150"/>
       <c r="B13" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0201','경영 자격증','C02','2','Y',NOW(),'ADMIN');</v>
@@ -25449,7 +25439,7 @@
       <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="155"/>
+      <c r="A14" s="150"/>
       <c r="B14" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0202','IT 자격증','C02','2','Y',NOW(),'ADMIN');</v>
@@ -25484,7 +25474,7 @@
       <c r="S14" s="23"/>
     </row>
     <row r="15" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="155"/>
+      <c r="A15" s="150"/>
       <c r="B15" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0301','경영직무','C03','2','Y',NOW(),'ADMIN');</v>
@@ -25519,7 +25509,7 @@
       <c r="S15" s="23"/>
     </row>
     <row r="16" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="155"/>
+      <c r="A16" s="150"/>
       <c r="B16" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0302','Biz 스킬','C03','2','Y',NOW(),'ADMIN');</v>
@@ -25554,7 +25544,7 @@
       <c r="S16" s="23"/>
     </row>
     <row r="17" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="155"/>
+      <c r="A17" s="150"/>
       <c r="B17" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0303','리더쉽','C03','2','Y',NOW(),'ADMIN');</v>
@@ -25589,7 +25579,7 @@
       <c r="S17" s="23"/>
     </row>
     <row r="18" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="155"/>
+      <c r="A18" s="150"/>
       <c r="B18" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010201','HTML','C0102','3','Y',NOW(),'ADMIN');</v>
@@ -25624,7 +25614,7 @@
       <c r="S18" s="23"/>
     </row>
     <row r="19" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="155"/>
+      <c r="A19" s="150"/>
       <c r="B19" s="32" t="str">
         <f>"INSERT INTO CATEGORY("&amp;$C$2&amp;","&amp;$D$2&amp;","&amp;$E$2&amp;","&amp;$F$2&amp;","&amp;$G$2&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"','"&amp;F19&amp;"','"&amp;G19&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010202','JAVA','C0102','3','Y',NOW(),'ADMIN');</v>
@@ -25659,7 +25649,7 @@
       <c r="S19" s="23"/>
     </row>
     <row r="20" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="155"/>
+      <c r="A20" s="150"/>
       <c r="B20" s="32" t="str">
         <f t="shared" ref="B20:B27" si="3">"INSERT INTO CATEGORY("&amp;$C$2&amp;","&amp;$D$2&amp;","&amp;$E$2&amp;","&amp;$F$2&amp;","&amp;$G$2&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C20&amp;"','"&amp;D20&amp;"','"&amp;E20&amp;"','"&amp;F20&amp;"','"&amp;G20&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010203','.Net','C0102','3','Y',NOW(),'ADMIN');</v>
@@ -25694,7 +25684,7 @@
       <c r="S20" s="23"/>
     </row>
     <row r="21" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="155"/>
+      <c r="A21" s="150"/>
       <c r="B21" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010204','Web Programming','C0102','3','Y',NOW(),'ADMIN');</v>
@@ -25729,7 +25719,7 @@
       <c r="S21" s="23"/>
     </row>
     <row r="22" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="155"/>
+      <c r="A22" s="150"/>
       <c r="B22" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010205','Visual Basic','C0102','3','Y',NOW(),'ADMIN');</v>
@@ -25764,7 +25754,7 @@
       <c r="S22" s="23"/>
     </row>
     <row r="23" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="155"/>
+      <c r="A23" s="150"/>
       <c r="B23" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010501','Oracle','C0105','3','Y',NOW(),'ADMIN');</v>
@@ -25799,7 +25789,7 @@
       <c r="S23" s="23"/>
     </row>
     <row r="24" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="155"/>
+      <c r="A24" s="150"/>
       <c r="B24" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010502','Ms Sql','C0105','3','Y',NOW(),'ADMIN');</v>
@@ -25834,7 +25824,7 @@
       <c r="S24" s="23"/>
     </row>
     <row r="25" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="155"/>
+      <c r="A25" s="150"/>
       <c r="B25" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C05','대분류1','','1','Y',NOW(),'ADMIN');</v>
@@ -25866,7 +25856,7 @@
       <c r="S25" s="23"/>
     </row>
     <row r="26" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="155"/>
+      <c r="A26" s="150"/>
       <c r="B26" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C06','대분류2','','1','Y',NOW(),'ADMIN');</v>
@@ -25898,7 +25888,7 @@
       <c r="S26" s="23"/>
     </row>
     <row r="27" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="155"/>
+      <c r="A27" s="150"/>
       <c r="B27" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0601','대분류2-1','C06','2','Y',NOW(),'ADMIN');</v>
@@ -25932,7 +25922,7 @@
       <c r="S27" s="23"/>
     </row>
     <row r="28" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="155"/>
+      <c r="A28" s="150"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -25953,7 +25943,7 @@
       <c r="S28" s="23"/>
     </row>
     <row r="29" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="155"/>
+      <c r="A29" s="150"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -25974,7 +25964,7 @@
       <c r="S29" s="23"/>
     </row>
     <row r="30" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="155" t="s">
+      <c r="A30" s="150" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -26023,7 +26013,7 @@
       <c r="S30" s="23"/>
     </row>
     <row r="31" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="155"/>
+      <c r="A31" s="150"/>
       <c r="B31" s="30" t="str">
         <f>"INSERT INTO COURSE_CODE("&amp;$C$30&amp;","&amp;$D$30&amp;","&amp;$E$30&amp;","&amp;$F$30&amp;","&amp;$G$30&amp;","&amp;$H$30&amp;","&amp;$I$30&amp;","&amp;$J$30&amp;","&amp;$K$30&amp;","&amp;$L$30&amp;","&amp;$M$30&amp;","&amp;$N$30&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C31&amp;"','"&amp;D31&amp;"','"&amp;E31&amp;"','"&amp;F31&amp;"','"&amp;G31&amp;"','"&amp;H31&amp;"','"&amp;I31&amp;"','"&amp;J31&amp;"','"&amp;K31&amp;"','"&amp;L31&amp;"','"&amp;M31&amp;"','"&amp;N31&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_CODE(COURSE_CODE,COURSE_NAME,TEACHER_ID,H_PX,V_PX,CODE,USE_YN,DIRECTORY,COMPANY_RATE,TEACHER_RATE,TUTOR_RATE,POINT,CREATE_DATE,CREATE_USER) VALUES('C010202001','Java Master','teacher1','1000','900','C010202','Y','C010202001','80','10','10','0',NOW(),'ADMIN');</v>
@@ -26071,7 +26061,7 @@
       <c r="S31" s="23"/>
     </row>
     <row r="32" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="155"/>
+      <c r="A32" s="150"/>
       <c r="B32" s="30" t="str">
         <f t="shared" ref="B32:B33" si="4">"INSERT INTO COURSE_CODE("&amp;$C$30&amp;","&amp;$D$30&amp;","&amp;$E$30&amp;","&amp;$F$30&amp;","&amp;$G$30&amp;","&amp;$H$30&amp;","&amp;$I$30&amp;","&amp;$J$30&amp;","&amp;$K$30&amp;","&amp;$L$30&amp;","&amp;$M$30&amp;","&amp;$N$30&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C32&amp;"','"&amp;D32&amp;"','"&amp;E32&amp;"','"&amp;F32&amp;"','"&amp;G32&amp;"','"&amp;H32&amp;"','"&amp;I32&amp;"','"&amp;J32&amp;"','"&amp;K32&amp;"','"&amp;L32&amp;"','"&amp;M32&amp;"','"&amp;N32&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_CODE(COURSE_CODE,COURSE_NAME,TEACHER_ID,H_PX,V_PX,CODE,USE_YN,DIRECTORY,COMPANY_RATE,TEACHER_RATE,TUTOR_RATE,POINT,CREATE_DATE,CREATE_USER) VALUES('C010202002','Java 실무 과정','teacher2','1000','900','C010202','Y','C010202001','80','10','10','0',NOW(),'ADMIN');</v>
@@ -26119,7 +26109,7 @@
       <c r="S32" s="23"/>
     </row>
     <row r="33" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="155"/>
+      <c r="A33" s="150"/>
       <c r="B33" s="30" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO COURSE_CODE(COURSE_CODE,COURSE_NAME,TEACHER_ID,H_PX,V_PX,CODE,USE_YN,DIRECTORY,COMPANY_RATE,TEACHER_RATE,TUTOR_RATE,POINT,CREATE_DATE,CREATE_USER) VALUES('C010202003','Java 기초 문법','teacher3','1000','900','C010202','Y','C010202001','80','10','10','0',NOW(),'ADMIN');</v>
@@ -26167,7 +26157,7 @@
       <c r="S33" s="23"/>
     </row>
     <row r="34" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="155"/>
+      <c r="A34" s="150"/>
       <c r="B34" s="2"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -26188,7 +26178,7 @@
       <c r="S34" s="23"/>
     </row>
     <row r="35" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="155"/>
+      <c r="A35" s="150"/>
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
@@ -26209,7 +26199,7 @@
       <c r="S35" s="23"/>
     </row>
     <row r="36" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="156" t="s">
+      <c r="A36" s="151" t="s">
         <v>581</v>
       </c>
       <c r="B36" s="23" t="s">
@@ -26260,7 +26250,7 @@
       <c r="S36" s="23"/>
     </row>
     <row r="37" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="156"/>
+      <c r="A37" s="151"/>
       <c r="B37" s="30" t="str">
         <f>"INSERT INTO COURSE_MASTER("&amp;$C$36&amp;","&amp;$D$36&amp;","&amp;$E$36&amp;","&amp;$F$36&amp;","&amp;$G$36&amp;","&amp;$H$36&amp;","&amp;$I$36&amp;","&amp;$J$36&amp;","&amp;$K$36&amp;","&amp;$L$36&amp;","&amp;$M$36&amp;","&amp;$N$36&amp;","&amp;$O$36&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C37&amp;"','"&amp;D37&amp;"','"&amp;E37&amp;"','"&amp;F37&amp;"','"&amp;G37&amp;"','"&amp;H37&amp;"','"&amp;I37&amp;"','"&amp;J37&amp;"','"&amp;K37&amp;"','"&amp;L37&amp;"','"&amp;M37&amp;"','"&amp;N37&amp;"','"&amp;O37&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_MASTER(COURSE_CODE,TUTOR_ID,HTML_YN,LEARING_GOAL,LEARING_CONTENT,EVAL_METHOD,LEARING_TARGET,LEARING_COST,COURSE_COST,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,CREATE_DATE,CREATE_USER) VALUES('C010202001','TUTOR1','N','LEARING_GOAL','LEARING_CONTENT','EVAL_METHOD','LEARING_TARGET','LEARING_COST','50000','0','0','0','100',NOW(),'ADMIN');</v>
@@ -26310,7 +26300,7 @@
       <c r="S37" s="23"/>
     </row>
     <row r="38" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="156"/>
+      <c r="A38" s="151"/>
       <c r="B38" s="30" t="str">
         <f t="shared" ref="B38:B39" si="5">"INSERT INTO COURSE_MASTER("&amp;$C$36&amp;","&amp;$D$36&amp;","&amp;$E$36&amp;","&amp;$F$36&amp;","&amp;$G$36&amp;","&amp;$H$36&amp;","&amp;$I$36&amp;","&amp;$J$36&amp;","&amp;$K$36&amp;","&amp;$L$36&amp;","&amp;$M$36&amp;","&amp;$N$36&amp;","&amp;$O$36&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C38&amp;"','"&amp;D38&amp;"','"&amp;E38&amp;"','"&amp;F38&amp;"','"&amp;G38&amp;"','"&amp;H38&amp;"','"&amp;I38&amp;"','"&amp;J38&amp;"','"&amp;K38&amp;"','"&amp;L38&amp;"','"&amp;M38&amp;"','"&amp;N38&amp;"','"&amp;O38&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_MASTER(COURSE_CODE,TUTOR_ID,HTML_YN,LEARING_GOAL,LEARING_CONTENT,EVAL_METHOD,LEARING_TARGET,LEARING_COST,COURSE_COST,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,CREATE_DATE,CREATE_USER) VALUES('C010202002','TUTOR2','N','LEARING_GOAL','LEARING_CONTENT','EVAL_METHOD','LEARING_TARGET','LEARING_COST','50000','0','0','0','100',NOW(),'ADMIN');</v>
@@ -26360,7 +26350,7 @@
       <c r="S38" s="23"/>
     </row>
     <row r="39" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="156"/>
+      <c r="A39" s="151"/>
       <c r="B39" s="30" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO COURSE_MASTER(COURSE_CODE,TUTOR_ID,HTML_YN,LEARING_GOAL,LEARING_CONTENT,EVAL_METHOD,LEARING_TARGET,LEARING_COST,COURSE_COST,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,CREATE_DATE,CREATE_USER) VALUES('C010202003','TUTOR3','N','LEARING_GOAL','LEARING_CONTENT','EVAL_METHOD','LEARING_TARGET','LEARING_COST','50000','0','0','0','100',NOW(),'ADMIN');</v>
@@ -26410,7 +26400,7 @@
       <c r="S39" s="23"/>
     </row>
     <row r="40" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="156"/>
+      <c r="A40" s="151"/>
       <c r="B40" s="4"/>
       <c r="C40" s="31"/>
       <c r="D40" s="26"/>
@@ -26431,7 +26421,7 @@
       <c r="S40" s="23"/>
     </row>
     <row r="41" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="156"/>
+      <c r="A41" s="151"/>
       <c r="B41" s="4"/>
       <c r="C41" s="31"/>
       <c r="D41" s="26"/>
@@ -26452,7 +26442,7 @@
       <c r="S41" s="23"/>
     </row>
     <row r="42" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="152" t="s">
+      <c r="A42" s="147" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -26501,7 +26491,7 @@
       <c r="S42" s="23"/>
     </row>
     <row r="43" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="153"/>
+      <c r="A43" s="148"/>
       <c r="B43" s="30" t="str">
         <f>"INSERT INTO COURSE("&amp;$C$42&amp;","&amp;$D$42&amp;","&amp;$E$42&amp;","&amp;$F$42&amp;","&amp;$G$42&amp;","&amp;$H$42&amp;","&amp;$I$42&amp;","&amp;$J$42&amp;","&amp;$K$42&amp;","&amp;$L$42&amp;","&amp;$M$42&amp;","&amp;$N$42&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C43&amp;"','"&amp;D43&amp;"','"&amp;E43&amp;"','"&amp;F43&amp;"','"&amp;G43&amp;"','"&amp;H43&amp;"','"&amp;I43&amp;"','"&amp;J43&amp;"','"&amp;K43&amp;"','"&amp;L43&amp;"','"&amp;M43&amp;"','"&amp;N43&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('1','C010202001','NORMAL','50000','50000','','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -26547,7 +26537,7 @@
       <c r="S43" s="23"/>
     </row>
     <row r="44" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="153"/>
+      <c r="A44" s="148"/>
       <c r="B44" s="30" t="str">
         <f t="shared" ref="B44:B49" si="6">"INSERT INTO COURSE("&amp;$C$42&amp;","&amp;$D$42&amp;","&amp;$E$42&amp;","&amp;$F$42&amp;","&amp;$G$42&amp;","&amp;$H$42&amp;","&amp;$I$42&amp;","&amp;$J$42&amp;","&amp;$K$42&amp;","&amp;$L$42&amp;","&amp;$M$42&amp;","&amp;$N$42&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C44&amp;"','"&amp;D44&amp;"','"&amp;E44&amp;"','"&amp;F44&amp;"','"&amp;G44&amp;"','"&amp;H44&amp;"','"&amp;I44&amp;"','"&amp;J44&amp;"','"&amp;K44&amp;"','"&amp;L44&amp;"','"&amp;M44&amp;"','"&amp;N44&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('2','C010202001','NORMAL','50000','50000','','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -26593,7 +26583,7 @@
       <c r="S44" s="23"/>
     </row>
     <row r="45" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="153"/>
+      <c r="A45" s="148"/>
       <c r="B45" s="30" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('3','C010202002','NORMAL','50000','50000','','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -26639,7 +26629,7 @@
       <c r="S45" s="23"/>
     </row>
     <row r="46" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="153"/>
+      <c r="A46" s="148"/>
       <c r="B46" s="30" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('4','C010202002','NORMAL','50000','50000','','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -26685,7 +26675,7 @@
       <c r="S46" s="23"/>
     </row>
     <row r="47" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="153"/>
+      <c r="A47" s="148"/>
       <c r="B47" s="30" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('6','C010202003','COMPANY','50000','50000','COMP1','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -26733,7 +26723,7 @@
       <c r="S47" s="23"/>
     </row>
     <row r="48" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="153"/>
+      <c r="A48" s="148"/>
       <c r="B48" s="30" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('7','C010202003','COMPANY','50000','50000','COMP2','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -26781,7 +26771,7 @@
       <c r="S48" s="23"/>
     </row>
     <row r="49" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="153"/>
+      <c r="A49" s="148"/>
       <c r="B49" s="30" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('8','C010202003','COMPANY','50000','50000','COMP3','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -26829,7 +26819,7 @@
       <c r="S49" s="23"/>
     </row>
     <row r="50" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="153"/>
+      <c r="A50" s="148"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
@@ -26850,7 +26840,7 @@
       <c r="S50" s="23"/>
     </row>
     <row r="51" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="154"/>
+      <c r="A51" s="149"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
@@ -26871,7 +26861,7 @@
       <c r="S51" s="23"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A52" s="152" t="s">
+      <c r="A52" s="147" t="s">
         <v>603</v>
       </c>
       <c r="B52" s="29"/>
@@ -26914,7 +26904,7 @@
       <c r="S52" s="2"/>
     </row>
     <row r="53" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="153"/>
+      <c r="A53" s="148"/>
       <c r="B53" s="30" t="str">
         <f>"INSERT INTO COURSE_REGISTER("&amp;$C$52&amp;","&amp;$D$52&amp;","&amp;$E$52&amp;","&amp;$F$52&amp;","&amp;$G$52&amp;","&amp;$H$52&amp;","&amp;$I$52&amp;","&amp;$J$52&amp;","&amp;$K$52&amp;","&amp;$L$52&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C53&amp;"','"&amp;D53&amp;"','"&amp;E53&amp;"','"&amp;F53&amp;"','"&amp;G53&amp;"','"&amp;H53&amp;"','"&amp;I53&amp;"','"&amp;J53&amp;"','"&amp;K53&amp;"','"&amp;L53&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('1','USER001','A','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -26956,7 +26946,7 @@
       <c r="S53" s="2"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="153"/>
+      <c r="A54" s="148"/>
       <c r="B54" s="30" t="str">
         <f t="shared" ref="B54:B70" si="7">"INSERT INTO COURSE_REGISTER("&amp;$C$52&amp;","&amp;$D$52&amp;","&amp;$E$52&amp;","&amp;$F$52&amp;","&amp;$G$52&amp;","&amp;$H$52&amp;","&amp;$I$52&amp;","&amp;$J$52&amp;","&amp;$K$52&amp;","&amp;$L$52&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C54&amp;"','"&amp;D54&amp;"','"&amp;E54&amp;"','"&amp;F54&amp;"','"&amp;G54&amp;"','"&amp;H54&amp;"','"&amp;I54&amp;"','"&amp;J54&amp;"','"&amp;K54&amp;"','"&amp;L54&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('1','USER002','A','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -26998,7 +26988,7 @@
       <c r="S54" s="2"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="153"/>
+      <c r="A55" s="148"/>
       <c r="B55" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('1','USER003','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27040,7 +27030,7 @@
       <c r="S55" s="2"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="153"/>
+      <c r="A56" s="148"/>
       <c r="B56" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('2','USER002','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27082,7 +27072,7 @@
       <c r="S56" s="2"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="153"/>
+      <c r="A57" s="148"/>
       <c r="B57" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('3','USER003','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27124,7 +27114,7 @@
       <c r="S57" s="2"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="153"/>
+      <c r="A58" s="148"/>
       <c r="B58" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('4','USER004','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27166,7 +27156,7 @@
       <c r="S58" s="2"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="153"/>
+      <c r="A59" s="148"/>
       <c r="B59" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('5','USER005','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27208,7 +27198,7 @@
       <c r="S59" s="2"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="153"/>
+      <c r="A60" s="148"/>
       <c r="B60" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('6','COMP1','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27250,7 +27240,7 @@
       <c r="S60" s="2"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="153"/>
+      <c r="A61" s="148"/>
       <c r="B61" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('6','COMP_T_7','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27292,7 +27282,7 @@
       <c r="S61" s="2"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="153"/>
+      <c r="A62" s="148"/>
       <c r="B62" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('6','COMP_T_8','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27334,7 +27324,7 @@
       <c r="S62" s="2"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="153"/>
+      <c r="A63" s="148"/>
       <c r="B63" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('6','COMP_T_9','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27376,7 +27366,7 @@
       <c r="S63" s="2"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A64" s="153"/>
+      <c r="A64" s="148"/>
       <c r="B64" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('6','COMP_T_10','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27418,7 +27408,7 @@
       <c r="S64" s="2"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A65" s="153"/>
+      <c r="A65" s="148"/>
       <c r="B65" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('7','COMP2','A','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27460,7 +27450,7 @@
       <c r="S65" s="2"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A66" s="153"/>
+      <c r="A66" s="148"/>
       <c r="B66" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('8','COMP3','A','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27502,7 +27492,7 @@
       <c r="S66" s="2"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A67" s="153"/>
+      <c r="A67" s="148"/>
       <c r="B67" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('1','USER004','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27544,7 +27534,7 @@
       <c r="S67" s="2"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A68" s="153"/>
+      <c r="A68" s="148"/>
       <c r="B68" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('13','USER001','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27586,7 +27576,7 @@
       <c r="S68" s="2"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A69" s="153"/>
+      <c r="A69" s="148"/>
       <c r="B69" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('13','USER002','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27628,7 +27618,7 @@
       <c r="S69" s="2"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A70" s="153"/>
+      <c r="A70" s="148"/>
       <c r="B70" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('13','USER003','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27670,7 +27660,7 @@
       <c r="S70" s="2"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A71" s="153"/>
+      <c r="A71" s="148"/>
       <c r="B71" s="30"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
@@ -27691,7 +27681,7 @@
       <c r="S71" s="2"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A72" s="154"/>
+      <c r="A72" s="149"/>
       <c r="B72" s="30"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
@@ -27712,7 +27702,7 @@
       <c r="S72" s="2"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A73" s="157" t="s">
+      <c r="A73" s="152" t="s">
         <v>66</v>
       </c>
       <c r="B73" s="14" t="s">
@@ -27789,7 +27779,7 @@
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A74" s="158"/>
+      <c r="A74" s="153"/>
       <c r="B74" s="30" t="str">
         <f>"INSERT INTO USER("&amp;$C$73&amp;","&amp;$D$73&amp;","&amp;$E$73&amp;","&amp;$F$73&amp;","&amp;$G$73&amp;","&amp;$H$73&amp;","&amp;$I$73&amp;","&amp;$K$73&amp;","&amp;$L$73&amp;","&amp;$M$73&amp;","&amp;$N$73&amp;","&amp;$O$73&amp;","&amp;$P$73&amp;","&amp;$Q$73&amp;","&amp;$R$73&amp;","&amp;$S$73&amp;","&amp;$T$73&amp;","&amp;$U$73&amp;","&amp;$V$73&amp;","&amp;$W$73&amp;","&amp;$X$73&amp;","&amp;$Y$73&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C74&amp;"','"&amp;D74&amp;"','"&amp;E74&amp;"','"&amp;F74&amp;"','"&amp;G74&amp;"','"&amp;H74&amp;"',"&amp;I74&amp;",'"&amp;K74&amp;"','"&amp;L74&amp;"','"&amp;M74&amp;"','"&amp;N74&amp;"','"&amp;O74&amp;"','"&amp;P74&amp;"','"&amp;Q74&amp;"','"&amp;R74&amp;"','"&amp;S74&amp;"','"&amp;T74&amp;"','"&amp;U74&amp;"','"&amp;V74&amp;"','"&amp;W74&amp;"','"&amp;X74&amp;"','"&amp;Y74&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('admin','어드민','A','N','N','limsm9449@naver.com',PASSWORD(1),'','','','','','','010','1111','0001','','','N','','','',NOW(),'ADMIN');</v>
@@ -27836,7 +27826,7 @@
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A75" s="158"/>
+      <c r="A75" s="153"/>
       <c r="B75" s="30" t="str">
         <f>"INSERT INTO USER("&amp;$C$73&amp;","&amp;$D$73&amp;","&amp;$E$73&amp;","&amp;$F$73&amp;","&amp;$G$73&amp;","&amp;$H$73&amp;","&amp;$I$73&amp;","&amp;$K$73&amp;","&amp;$L$73&amp;","&amp;$M$73&amp;","&amp;$N$73&amp;","&amp;$O$73&amp;","&amp;$P$73&amp;","&amp;$Q$73&amp;","&amp;$R$73&amp;","&amp;$S$73&amp;","&amp;$T$73&amp;","&amp;$U$73&amp;","&amp;$V$73&amp;","&amp;$W$73&amp;","&amp;$X$73&amp;","&amp;$Y$73&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C75&amp;"','"&amp;D75&amp;"','"&amp;E75&amp;"','"&amp;F75&amp;"','"&amp;G75&amp;"','"&amp;H75&amp;"',"&amp;I75&amp;",'"&amp;K75&amp;"','"&amp;L75&amp;"','"&amp;M75&amp;"','"&amp;N75&amp;"','"&amp;O75&amp;"','"&amp;P75&amp;"','"&amp;Q75&amp;"','"&amp;R75&amp;"','"&amp;S75&amp;"','"&amp;T75&amp;"','"&amp;U75&amp;"','"&amp;V75&amp;"','"&amp;W75&amp;"','"&amp;X75&amp;"','"&amp;Y75&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('admin2','어드민','C','N','N','limsm9449@naver.com',PASSWORD(1),'','','','','','','010','1111','0001','','','N','','','',NOW(),'ADMIN');</v>
@@ -27883,7 +27873,7 @@
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A76" s="158"/>
+      <c r="A76" s="153"/>
       <c r="B76" s="30" t="str">
         <f>"INSERT INTO USER("&amp;$C$73&amp;","&amp;$D$73&amp;","&amp;$E$73&amp;","&amp;$F$73&amp;","&amp;$G$73&amp;","&amp;$H$73&amp;","&amp;$I$73&amp;","&amp;$K$73&amp;","&amp;$L$73&amp;","&amp;$M$73&amp;","&amp;$N$73&amp;","&amp;$O$73&amp;","&amp;$P$73&amp;","&amp;$Q$73&amp;","&amp;$R$73&amp;","&amp;$S$73&amp;","&amp;$T$73&amp;","&amp;$U$73&amp;","&amp;$V$73&amp;","&amp;$W$73&amp;","&amp;$X$73&amp;","&amp;$Y$73&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C76&amp;"','"&amp;D76&amp;"','"&amp;E76&amp;"','"&amp;F76&amp;"','"&amp;G76&amp;"','"&amp;H76&amp;"',"&amp;I76&amp;",'"&amp;K76&amp;"','"&amp;L76&amp;"','"&amp;M76&amp;"','"&amp;N76&amp;"','"&amp;O76&amp;"','"&amp;P76&amp;"','"&amp;Q76&amp;"','"&amp;R76&amp;"','"&amp;S76&amp;"','"&amp;T76&amp;"','"&amp;U76&amp;"','"&amp;V76&amp;"','"&amp;W76&amp;"','"&amp;X76&amp;"','"&amp;Y76&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('admin3','어드민','M','N','N','limsm9449@naver.com',PASSWORD(1),'','','','','','','010','1111','0001','','','N','','','',NOW(),'ADMIN');</v>
@@ -27930,7 +27920,7 @@
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A77" s="158"/>
+      <c r="A77" s="153"/>
       <c r="B77" s="30" t="str">
         <f t="shared" ref="B77:B116" si="8">"INSERT INTO USER("&amp;$C$73&amp;","&amp;$D$73&amp;","&amp;$E$73&amp;","&amp;$F$73&amp;","&amp;$G$73&amp;","&amp;$H$73&amp;","&amp;$I$73&amp;","&amp;$K$73&amp;","&amp;$L$73&amp;","&amp;$M$73&amp;","&amp;$N$73&amp;","&amp;$O$73&amp;","&amp;$P$73&amp;","&amp;$Q$73&amp;","&amp;$R$73&amp;","&amp;$S$73&amp;","&amp;$T$73&amp;","&amp;$U$73&amp;","&amp;$V$73&amp;","&amp;$W$73&amp;","&amp;$X$73&amp;","&amp;$Y$73&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C77&amp;"','"&amp;D77&amp;"','"&amp;E77&amp;"','"&amp;F77&amp;"','"&amp;G77&amp;"','"&amp;H77&amp;"',"&amp;I77&amp;",'"&amp;K77&amp;"','"&amp;L77&amp;"','"&amp;M77&amp;"','"&amp;N77&amp;"','"&amp;O77&amp;"','"&amp;P77&amp;"','"&amp;Q77&amp;"','"&amp;R77&amp;"','"&amp;S77&amp;"','"&amp;T77&amp;"','"&amp;U77&amp;"','"&amp;V77&amp;"','"&amp;W77&amp;"','"&amp;X77&amp;"','"&amp;Y77&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER001','USER001','N','N','N','limsm1@naver.com',PASSWORD(1),'','','','','','','010','1111','0002','','','N','','','',NOW(),'ADMIN');</v>
@@ -27977,7 +27967,7 @@
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A78" s="158"/>
+      <c r="A78" s="153"/>
       <c r="B78" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER002','USER002','N','N','N','limsm2@naver.com',PASSWORD(1),'','','','','','','010','1111','0003','','','N','','','',NOW(),'ADMIN');</v>
@@ -28024,7 +28014,7 @@
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A79" s="158"/>
+      <c r="A79" s="153"/>
       <c r="B79" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER003','USER003','N','N','N','limsm3@naver.com',PASSWORD(1),'','','','','','','010','1111','0004','','','N','','','',NOW(),'ADMIN');</v>
@@ -28071,7 +28061,7 @@
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A80" s="158"/>
+      <c r="A80" s="153"/>
       <c r="B80" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER004','USER004','N','N','N','limsm4@naver.com',PASSWORD(1),'','','','','','','010','1111','0005','','','N','','','',NOW(),'ADMIN');</v>
@@ -28118,7 +28108,7 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A81" s="158"/>
+      <c r="A81" s="153"/>
       <c r="B81" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER005','USER005','N','N','N','limsm5@naver.com',PASSWORD(1),'','','','','','','010','1111','0006','','','N','','','',NOW(),'ADMIN');</v>
@@ -28165,7 +28155,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A82" s="158"/>
+      <c r="A82" s="153"/>
       <c r="B82" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER006','USER006','N','N','N','limsm6@naver.com',PASSWORD(1),'','','','','','','010','1111','0007','','','N','','','',NOW(),'ADMIN');</v>
@@ -28212,7 +28202,7 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A83" s="158"/>
+      <c r="A83" s="153"/>
       <c r="B83" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER007','USER007','N','N','N','limsm7@naver.com',PASSWORD(1),'','','','','','','010','1111','0008','','','N','','','',NOW(),'ADMIN');</v>
@@ -28259,7 +28249,7 @@
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A84" s="158"/>
+      <c r="A84" s="153"/>
       <c r="B84" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER008','USER008','N','N','N','limsm8@naver.com',PASSWORD(1),'','','','','','','010','1111','0009','','','N','','','',NOW(),'ADMIN');</v>
@@ -28306,7 +28296,7 @@
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A85" s="158"/>
+      <c r="A85" s="153"/>
       <c r="B85" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER009','USER009','N','N','N','limsm9@naver.com',PASSWORD(1),'','','','','','','010','1111','0010','','','N','','','',NOW(),'ADMIN');</v>
@@ -28353,7 +28343,7 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A86" s="158"/>
+      <c r="A86" s="153"/>
       <c r="B86" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER010','USER010','N','N','N','limsm10@naver.com',PASSWORD(1),'','','','','','','010','1111','0011','','','N','','','',NOW(),'ADMIN');</v>
@@ -28400,7 +28390,7 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A87" s="158"/>
+      <c r="A87" s="153"/>
       <c r="B87" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER1','TEACHER1','N','N','Y','limsm11@naver.com',PASSWORD(1),'','','','','','','010','1111','0012','','','N','','','',NOW(),'ADMIN');</v>
@@ -28447,7 +28437,7 @@
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A88" s="158"/>
+      <c r="A88" s="153"/>
       <c r="B88" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER2','TEACHER2','N','N','Y','limsm12@naver.com',PASSWORD(1),'','','','','','','010','1111','0013','','','N','','','',NOW(),'ADMIN');</v>
@@ -28494,7 +28484,7 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A89" s="158"/>
+      <c r="A89" s="153"/>
       <c r="B89" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER3','TEACHER3','N','N','Y','limsm13@naver.com',PASSWORD(1),'','','','','','','010','1111','0014','','','N','','','',NOW(),'ADMIN');</v>
@@ -28541,7 +28531,7 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A90" s="158"/>
+      <c r="A90" s="153"/>
       <c r="B90" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER4','TEACHER4','N','N','Y','limsm14@naver.com',PASSWORD(1),'','','','','','','010','1111','0015','','','N','','','',NOW(),'ADMIN');</v>
@@ -28588,7 +28578,7 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A91" s="158"/>
+      <c r="A91" s="153"/>
       <c r="B91" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER5','TEACHER5','N','N','Y','limsm15@naver.com',PASSWORD(1),'','','','','','','010','1111','0016','','','N','','','',NOW(),'ADMIN');</v>
@@ -28635,7 +28625,7 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A92" s="158"/>
+      <c r="A92" s="153"/>
       <c r="B92" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER6','TEACHER6','N','N','Y','limsm16@naver.com',PASSWORD(1),'','','','','','','010','1111','0017','','','N','','','',NOW(),'ADMIN');</v>
@@ -28682,7 +28672,7 @@
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A93" s="158"/>
+      <c r="A93" s="153"/>
       <c r="B93" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER7','TEACHER7','N','N','Y','limsm17@naver.com',PASSWORD(1),'','','','','','','010','1111','0018','','','N','','','',NOW(),'ADMIN');</v>
@@ -28726,7 +28716,7 @@
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A94" s="158"/>
+      <c r="A94" s="153"/>
       <c r="B94" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER8','TEACHER8','N','N','Y','limsm18@naver.com',PASSWORD(1),'','','','','','','010','1111','0019','','','N','','','',NOW(),'ADMIN');</v>
@@ -28770,7 +28760,7 @@
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A95" s="158"/>
+      <c r="A95" s="153"/>
       <c r="B95" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER9','TEACHER9','N','N','Y','limsm19@naver.com',PASSWORD(1),'','','','','','','010','1111','0020','','','N','','','',NOW(),'ADMIN');</v>
@@ -28814,7 +28804,7 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A96" s="158"/>
+      <c r="A96" s="153"/>
       <c r="B96" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER10','TEACHER10','N','N','Y','limsm20@naver.com',PASSWORD(1),'','','','','','','010','1111','0021','','','N','','','',NOW(),'ADMIN');</v>
@@ -28858,7 +28848,7 @@
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A97" s="158"/>
+      <c r="A97" s="153"/>
       <c r="B97" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR1','TUTOR1','N','Y','N','limsm21@naver.com',PASSWORD(1),'','','','','','','010','1111','0022','','','N','','','',NOW(),'ADMIN');</v>
@@ -28902,7 +28892,7 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A98" s="158"/>
+      <c r="A98" s="153"/>
       <c r="B98" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR2','TUTOR2','N','Y','N','limsm22@naver.com',PASSWORD(1),'','','','','','','010','1111','0023','','','N','','','',NOW(),'ADMIN');</v>
@@ -28946,7 +28936,7 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A99" s="158"/>
+      <c r="A99" s="153"/>
       <c r="B99" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR3','TUTOR3','N','Y','N','limsm23@naver.com',PASSWORD(1),'','','','','','','010','1111','0024','','','N','','','',NOW(),'ADMIN');</v>
@@ -28990,7 +28980,7 @@
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A100" s="158"/>
+      <c r="A100" s="153"/>
       <c r="B100" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR4','TUTOR4','N','Y','N','limsm24@naver.com',PASSWORD(1),'','','','','','','010','1111','0025','','COMP1','N','','','',NOW(),'ADMIN');</v>
@@ -29037,7 +29027,7 @@
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A101" s="158"/>
+      <c r="A101" s="153"/>
       <c r="B101" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR5','TUTOR5','N','Y','N','limsm25@naver.com',PASSWORD(1),'','','','','','','010','1111','0026','','COMP2','N','','','',NOW(),'ADMIN');</v>
@@ -29084,7 +29074,7 @@
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A102" s="158"/>
+      <c r="A102" s="153"/>
       <c r="B102" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR6','TUTOR6','N','Y','N','limsm26@naver.com',PASSWORD(1),'','','','','','','010','1111','0027','','COMP3','N','','','',NOW(),'ADMIN');</v>
@@ -29131,7 +29121,7 @@
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A103" s="158"/>
+      <c r="A103" s="153"/>
       <c r="B103" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR7','TUTOR7','N','Y','N','limsm27@naver.com',PASSWORD(1),'','','','','','','010','1111','0028','','','N','','','',NOW(),'ADMIN');</v>
@@ -29175,7 +29165,7 @@
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A104" s="158"/>
+      <c r="A104" s="153"/>
       <c r="B104" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR8','TUTOR8','N','Y','N','limsm28@naver.com',PASSWORD(1),'','','','','','','010','1111','0029','','','N','','','',NOW(),'ADMIN');</v>
@@ -29219,7 +29209,7 @@
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A105" s="158"/>
+      <c r="A105" s="153"/>
       <c r="B105" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR9','TUTOR9','N','Y','N','limsm29@naver.com',PASSWORD(1),'','','','','','','010','1111','0030','','','N','','','',NOW(),'ADMIN');</v>
@@ -29263,7 +29253,7 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A106" s="158"/>
+      <c r="A106" s="153"/>
       <c r="B106" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR10','TUTOR10','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0031','','','N','','','',NOW(),'ADMIN');</v>
@@ -29307,7 +29297,7 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A107" s="158"/>
+      <c r="A107" s="153"/>
       <c r="B107" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_1','COMP_T_1','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0032','','COMP1','N','','','',NOW(),'ADMIN');</v>
@@ -29354,7 +29344,7 @@
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A108" s="158"/>
+      <c r="A108" s="153"/>
       <c r="B108" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_2','COMP_T_2','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0033','','COMP2','N','','','',NOW(),'ADMIN');</v>
@@ -29401,7 +29391,7 @@
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A109" s="158"/>
+      <c r="A109" s="153"/>
       <c r="B109" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_3','COMP_T_3','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0034','','COMP3','N','','','',NOW(),'ADMIN');</v>
@@ -29448,7 +29438,7 @@
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A110" s="158"/>
+      <c r="A110" s="153"/>
       <c r="B110" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_4','COMP_T_4','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0035','','COMP4','N','','','',NOW(),'ADMIN');</v>
@@ -29495,7 +29485,7 @@
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A111" s="158"/>
+      <c r="A111" s="153"/>
       <c r="B111" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_5','COMP_T_5','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0036','','COMP5','N','','','',NOW(),'ADMIN');</v>
@@ -29542,7 +29532,7 @@
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A112" s="158"/>
+      <c r="A112" s="153"/>
       <c r="B112" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_6','COMP_T_6','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0037','','COMP6','N','','','',NOW(),'ADMIN');</v>
@@ -29589,7 +29579,7 @@
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A113" s="158"/>
+      <c r="A113" s="153"/>
       <c r="B113" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_7','COMP_T_7','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0038','','COMP7','N','','','',NOW(),'ADMIN');</v>
@@ -29636,7 +29626,7 @@
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A114" s="158"/>
+      <c r="A114" s="153"/>
       <c r="B114" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_8','COMP_T_8','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0039','','COMP8','N','','','',NOW(),'ADMIN');</v>
@@ -29683,7 +29673,7 @@
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A115" s="158"/>
+      <c r="A115" s="153"/>
       <c r="B115" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_9','COMP_T_9','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0040','','COMP9','N','','','',NOW(),'ADMIN');</v>
@@ -29730,7 +29720,7 @@
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A116" s="158"/>
+      <c r="A116" s="153"/>
       <c r="B116" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_10','COMP_T_10','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0041','','COMP10','N','','','',NOW(),'ADMIN');</v>
@@ -29777,7 +29767,7 @@
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A117" s="158"/>
+      <c r="A117" s="153"/>
       <c r="B117" s="33"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
@@ -30007,7 +29997,7 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="151" t="s">
+      <c r="A132" s="146" t="s">
         <v>93</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -30027,7 +30017,7 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="151"/>
+      <c r="A133" s="146"/>
       <c r="B133" s="28" t="str">
         <f>"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C133&amp;"','"&amp;D133&amp;"','"&amp;E133&amp;"','"&amp;F133&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_KIND','NORMAL','일반 강좌','1');</v>
@@ -30050,7 +30040,7 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="151"/>
+      <c r="A134" s="146"/>
       <c r="B134" s="28" t="str">
         <f t="shared" ref="B134" si="11">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C134&amp;"','"&amp;D134&amp;"','"&amp;E134&amp;"','"&amp;F134&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_KIND','COMPANY','회사 강좌','3');</v>
@@ -30073,7 +30063,7 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="151"/>
+      <c r="A135" s="146"/>
       <c r="C135" s="3"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -30081,7 +30071,7 @@
       <c r="G135" s="3"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="151"/>
+      <c r="A136" s="146"/>
       <c r="C136" s="3"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -30089,7 +30079,7 @@
       <c r="G136" s="3"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="151"/>
+      <c r="A137" s="146"/>
       <c r="C137" s="3"/>
       <c r="D137" s="1"/>
       <c r="E137" s="19"/>
@@ -30097,7 +30087,7 @@
       <c r="G137" s="3"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="151"/>
+      <c r="A138" s="146"/>
       <c r="C138" s="3"/>
       <c r="D138" s="1"/>
       <c r="E138" s="19"/>
@@ -30105,7 +30095,7 @@
       <c r="G138" s="3"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="151"/>
+      <c r="A139" s="146"/>
       <c r="B139" s="28" t="str">
         <f t="shared" ref="B139:B149" si="12">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C139&amp;"','"&amp;D139&amp;"','"&amp;E139&amp;"','"&amp;F139&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('AUTH','ADMIN','Admin','1');</v>
@@ -30128,7 +30118,7 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="151"/>
+      <c r="A140" s="146"/>
       <c r="B140" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('AUTH','TEACHER','강사','2');</v>
@@ -30151,7 +30141,7 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="151"/>
+      <c r="A141" s="146"/>
       <c r="B141" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('AUTH','TUTOR','튜터','3');</v>
@@ -30174,7 +30164,7 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="151"/>
+      <c r="A142" s="146"/>
       <c r="B142" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('AUTH','USER','사용자','4');</v>
@@ -30197,7 +30187,7 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="151"/>
+      <c r="A143" s="146"/>
       <c r="B143" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('REG_STATUS','Y','승인요청','1');</v>
@@ -30220,7 +30210,7 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="151"/>
+      <c r="A144" s="146"/>
       <c r="B144" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('REG_STATUS','B','현금입금','1');</v>
@@ -30243,7 +30233,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="151"/>
+      <c r="A145" s="146"/>
       <c r="B145" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('REG_STATUS','A','승인','2');</v>
@@ -30266,7 +30256,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="151"/>
+      <c r="A146" s="146"/>
       <c r="B146" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('REG_STATUS','C','거절','3');</v>
@@ -30289,7 +30279,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="151"/>
+      <c r="A147" s="146"/>
       <c r="B147" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('REG_STATUS','R','환불','4');</v>
@@ -30312,7 +30302,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="151"/>
+      <c r="A148" s="146"/>
       <c r="B148" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND','CARD','카드','3');</v>
@@ -30335,7 +30325,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="151"/>
+      <c r="A149" s="146"/>
       <c r="B149" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND','CASH','은행','4');</v>
@@ -30358,7 +30348,7 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="151"/>
+      <c r="A150" s="146"/>
       <c r="C150" s="3"/>
       <c r="D150" s="9"/>
       <c r="E150" s="3"/>
@@ -30366,7 +30356,7 @@
       <c r="G150" s="3"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="151"/>
+      <c r="A151" s="146"/>
       <c r="B151" s="28" t="str">
         <f t="shared" ref="B151" si="16">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C151&amp;"','"&amp;D151&amp;"','"&amp;E151&amp;"','"&amp;F151&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','100000000000','신용카드','1');</v>
@@ -30389,7 +30379,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="151"/>
+      <c r="A152" s="146"/>
       <c r="B152" s="28" t="str">
         <f t="shared" ref="B152:B157" si="18">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C152&amp;"','"&amp;D152&amp;"','"&amp;E152&amp;"','"&amp;F152&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','010000000000','계좌이체','2');</v>
@@ -30412,7 +30402,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="151"/>
+      <c r="A153" s="146"/>
       <c r="B153" s="28" t="str">
         <f t="shared" si="18"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','001000000000','가상계좌','3');</v>
@@ -30435,7 +30425,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="151"/>
+      <c r="A154" s="146"/>
       <c r="B154" s="28" t="str">
         <f t="shared" si="18"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','000100000000','포인트','4');</v>
@@ -30458,7 +30448,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="151"/>
+      <c r="A155" s="146"/>
       <c r="B155" s="28" t="str">
         <f t="shared" si="18"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','000010000000','휴대폰','5');</v>
@@ -30481,7 +30471,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="151"/>
+      <c r="A156" s="146"/>
       <c r="B156" s="28" t="str">
         <f t="shared" si="18"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','000000001000','상품권','6');</v>
@@ -30504,7 +30494,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="151"/>
+      <c r="A157" s="146"/>
       <c r="B157" s="28" t="str">
         <f t="shared" si="18"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','000000000010','ARS','7');</v>
@@ -30527,7 +30517,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="151"/>
+      <c r="A158" s="146"/>
       <c r="B158" s="28" t="str">
         <f t="shared" ref="B158:B159" si="19">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C158&amp;"','"&amp;D158&amp;"','"&amp;E158&amp;"','"&amp;F158&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','CARD','카드','8');</v>
@@ -30547,7 +30537,7 @@
       <c r="G158" s="3"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" s="151"/>
+      <c r="A159" s="146"/>
       <c r="B159" s="28" t="str">
         <f t="shared" si="19"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND2','CASH','은행','9');</v>
@@ -30567,7 +30557,7 @@
       <c r="G159" s="3"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="151"/>
+      <c r="A160" s="146"/>
       <c r="C160" s="3"/>
       <c r="D160" s="9"/>
       <c r="E160" s="3"/>
@@ -30575,7 +30565,7 @@
       <c r="G160" s="3"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="151"/>
+      <c r="A161" s="146"/>
       <c r="C161" s="3"/>
       <c r="D161" s="1"/>
       <c r="E161" s="19"/>
@@ -30583,7 +30573,7 @@
       <c r="G161" s="3"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="151"/>
+      <c r="A162" s="146"/>
       <c r="B162" s="28" t="str">
         <f t="shared" ref="B162:B168" si="20">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C162&amp;"','"&amp;D162&amp;"','"&amp;E162&amp;"','"&amp;F162&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','G_BEFORE','모집전','1');</v>
@@ -30606,7 +30596,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="151"/>
+      <c r="A163" s="146"/>
       <c r="B163" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','G_ING','모집중','2');</v>
@@ -30629,7 +30619,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="151"/>
+      <c r="A164" s="146"/>
       <c r="B164" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','P_BEFORE','강좌 진행전','3');</v>
@@ -30652,7 +30642,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="151"/>
+      <c r="A165" s="146"/>
       <c r="B165" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','P_ING','강좌 진행중','4');</v>
@@ -30675,7 +30665,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="151"/>
+      <c r="A166" s="146"/>
       <c r="B166" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','COMPLETE','강좌 완료','5');</v>
@@ -30698,7 +30688,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="151"/>
+      <c r="A167" s="146"/>
       <c r="B167" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','CLOSE','강좌 종강','6');</v>
@@ -30721,7 +30711,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="151"/>
+      <c r="A168" s="146"/>
       <c r="B168" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','CANCEL','강좌 취소','7');</v>
@@ -30744,7 +30734,7 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="151"/>
+      <c r="A169" s="146"/>
       <c r="C169" s="3"/>
       <c r="D169" s="9"/>
       <c r="E169" s="3"/>
@@ -30752,7 +30742,7 @@
       <c r="G169" s="3"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="151"/>
+      <c r="A170" s="146"/>
       <c r="C170" s="3"/>
       <c r="D170" s="9"/>
       <c r="E170" s="3"/>
@@ -30760,7 +30750,7 @@
       <c r="G170" s="3"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="151"/>
+      <c r="A171" s="146"/>
       <c r="C171" s="3"/>
       <c r="D171" s="9"/>
       <c r="E171" s="3"/>
@@ -30768,7 +30758,7 @@
       <c r="G171" s="3"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="151"/>
+      <c r="A172" s="146"/>
       <c r="C172" s="3"/>
       <c r="D172" s="9"/>
       <c r="E172" s="3"/>
@@ -30776,7 +30766,7 @@
       <c r="G172" s="3"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="151"/>
+      <c r="A173" s="146"/>
       <c r="B173" s="28" t="str">
         <f t="shared" ref="B173:B179" si="23">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C173&amp;"','"&amp;D173&amp;"','"&amp;E173&amp;"','"&amp;F173&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','01','홈페이지 이용 문의','1');</v>
@@ -30799,7 +30789,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="151"/>
+      <c r="A174" s="146"/>
       <c r="B174" s="28" t="str">
         <f t="shared" si="23"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','02','수강신청','2');</v>
@@ -30822,7 +30812,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="151"/>
+      <c r="A175" s="146"/>
       <c r="B175" s="28" t="str">
         <f t="shared" si="23"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','03','교육일정','3');</v>
@@ -30845,7 +30835,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="151"/>
+      <c r="A176" s="146"/>
       <c r="B176" s="28" t="str">
         <f t="shared" si="23"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','04','회원정보관련','4');</v>
@@ -30868,7 +30858,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="151"/>
+      <c r="A177" s="146"/>
       <c r="B177" s="28" t="str">
         <f t="shared" si="23"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','05','교육상담','5');</v>
@@ -30891,7 +30881,7 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="151"/>
+      <c r="A178" s="146"/>
       <c r="B178" s="28" t="str">
         <f t="shared" si="23"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','06','기타문의','6');</v>
@@ -30914,7 +30904,7 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="151"/>
+      <c r="A179" s="146"/>
       <c r="B179" s="28" t="str">
         <f t="shared" si="23"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('POINT_KIND','COURSE','과정 수강 적립','1');</v>
@@ -30937,7 +30927,7 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="151"/>
+      <c r="A180" s="146"/>
       <c r="B180" s="28" t="str">
         <f t="shared" ref="B180:B181" si="26">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C180&amp;"','"&amp;D180&amp;"','"&amp;E180&amp;"','"&amp;F180&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('POINT_KIND','COURSE_REFUND','과정 환불','2');</v>
@@ -30960,7 +30950,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="151"/>
+      <c r="A181" s="146"/>
       <c r="B181" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('POINT_KIND','POSTSCRIPT','수강 후기','3');</v>
@@ -30983,7 +30973,7 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="151"/>
+      <c r="A182" s="146"/>
       <c r="B182" s="28" t="str">
         <f t="shared" ref="B182:B183" si="27">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C182&amp;"','"&amp;D182&amp;"','"&amp;E182&amp;"','"&amp;F182&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('UC_KIND','U','사용자','1');</v>
@@ -31006,7 +30996,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="151"/>
+      <c r="A183" s="146"/>
       <c r="B183" s="28" t="str">
         <f t="shared" si="27"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('UC_KIND','C','회사','2');</v>
@@ -31029,7 +31019,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="151"/>
+      <c r="A184" s="146"/>
       <c r="B184" s="28" t="str">
         <f t="shared" ref="B184:B203" si="29">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C184&amp;"','"&amp;D184&amp;"','"&amp;E184&amp;"','"&amp;F184&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','02','02','1');</v>
@@ -31052,7 +31042,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="151"/>
+      <c r="A185" s="146"/>
       <c r="B185" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','031','031','2');</v>
@@ -31075,7 +31065,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="151"/>
+      <c r="A186" s="146"/>
       <c r="B186" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','032','032','3');</v>
@@ -31098,7 +31088,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="151"/>
+      <c r="A187" s="146"/>
       <c r="B187" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','033','033','4');</v>
@@ -31121,7 +31111,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="151"/>
+      <c r="A188" s="146"/>
       <c r="B188" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','041','041','5');</v>
@@ -31144,7 +31134,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="151"/>
+      <c r="A189" s="146"/>
       <c r="B189" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','042','042','6');</v>
@@ -31167,7 +31157,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="151"/>
+      <c r="A190" s="146"/>
       <c r="B190" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','043','043','7');</v>
@@ -31190,7 +31180,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="151"/>
+      <c r="A191" s="146"/>
       <c r="B191" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','0502','0502','8');</v>
@@ -31213,7 +31203,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="151"/>
+      <c r="A192" s="146"/>
       <c r="B192" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','0505','0505','9');</v>
@@ -31236,7 +31226,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="151"/>
+      <c r="A193" s="146"/>
       <c r="B193" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','0506','0506','10');</v>
@@ -31259,7 +31249,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="151"/>
+      <c r="A194" s="146"/>
       <c r="B194" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','051','051','11');</v>
@@ -31282,7 +31272,7 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="151"/>
+      <c r="A195" s="146"/>
       <c r="B195" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','052','052','12');</v>
@@ -31305,7 +31295,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="151"/>
+      <c r="A196" s="146"/>
       <c r="B196" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','053','053','13');</v>
@@ -31328,7 +31318,7 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="151"/>
+      <c r="A197" s="146"/>
       <c r="B197" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','054','054','14');</v>
@@ -31351,7 +31341,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="151"/>
+      <c r="A198" s="146"/>
       <c r="B198" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','055','055','15');</v>
@@ -31374,7 +31364,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="151"/>
+      <c r="A199" s="146"/>
       <c r="B199" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','061','061','16');</v>
@@ -31397,7 +31387,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="151"/>
+      <c r="A200" s="146"/>
       <c r="B200" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','062','062','17');</v>
@@ -31420,7 +31410,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="151"/>
+      <c r="A201" s="146"/>
       <c r="B201" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','063','063','18');</v>
@@ -31443,7 +31433,7 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202" s="151"/>
+      <c r="A202" s="146"/>
       <c r="B202" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','064','064','19');</v>
@@ -31466,7 +31456,7 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="151"/>
+      <c r="A203" s="146"/>
       <c r="B203" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','070','070','20');</v>
@@ -31489,7 +31479,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="151"/>
+      <c r="A204" s="146"/>
       <c r="B204" s="28" t="str">
         <f t="shared" ref="B204:B209" si="31">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C204&amp;"','"&amp;D204&amp;"','"&amp;E204&amp;"','"&amp;F204&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','010','010','1');</v>
@@ -31512,7 +31502,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="151"/>
+      <c r="A205" s="146"/>
       <c r="B205" s="28" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','011','011','2');</v>
@@ -31535,7 +31525,7 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" s="151"/>
+      <c r="A206" s="146"/>
       <c r="B206" s="28" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','016','016','3');</v>
@@ -31558,7 +31548,7 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" s="151"/>
+      <c r="A207" s="146"/>
       <c r="B207" s="28" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','017','017','4');</v>
@@ -31581,7 +31571,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="151"/>
+      <c r="A208" s="146"/>
       <c r="B208" s="28" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','018','018','5');</v>
@@ -31604,7 +31594,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="151"/>
+      <c r="A209" s="146"/>
       <c r="B209" s="28" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','019','019','6');</v>
@@ -31627,7 +31617,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="151"/>
+      <c r="A210" s="146"/>
       <c r="B210" s="28" t="str">
         <f t="shared" ref="B210:B216" si="32">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C210&amp;"','"&amp;D210&amp;"','"&amp;E210&amp;"','"&amp;F210&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','01','사원','1');</v>
@@ -31650,7 +31640,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="151"/>
+      <c r="A211" s="146"/>
       <c r="B211" s="28" t="str">
         <f t="shared" si="32"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','02','대리','2');</v>
@@ -31673,7 +31663,7 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="151"/>
+      <c r="A212" s="146"/>
       <c r="B212" s="28" t="str">
         <f t="shared" si="32"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','03','과장','3');</v>
@@ -31696,7 +31686,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" s="151"/>
+      <c r="A213" s="146"/>
       <c r="B213" s="28" t="str">
         <f t="shared" si="32"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','04','차장','4');</v>
@@ -31719,7 +31709,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="151"/>
+      <c r="A214" s="146"/>
       <c r="B214" s="28" t="str">
         <f t="shared" si="32"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','05','부장','5');</v>
@@ -31742,7 +31732,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" s="151"/>
+      <c r="A215" s="146"/>
       <c r="B215" s="28" t="str">
         <f t="shared" si="32"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','06','임원','6');</v>
@@ -31765,7 +31755,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" s="151"/>
+      <c r="A216" s="146"/>
       <c r="B216" s="28" t="str">
         <f t="shared" si="32"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','07','기타','7');</v>
@@ -31788,10 +31778,10 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" s="151"/>
+      <c r="A217" s="146"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" s="151"/>
+      <c r="A218" s="146"/>
       <c r="B218" s="28" t="str">
         <f t="shared" ref="B218:B220" si="33">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C218&amp;"','"&amp;D218&amp;"','"&amp;E218&amp;"','"&amp;F218&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('ADMIN_AUTH','A','Admin','1');</v>
@@ -31814,7 +31804,7 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" s="151"/>
+      <c r="A219" s="146"/>
       <c r="B219" s="28" t="str">
         <f t="shared" si="33"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('ADMIN_AUTH','C','Contents Admin','2');</v>
@@ -31837,7 +31827,7 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="151"/>
+      <c r="A220" s="146"/>
       <c r="B220" s="28" t="str">
         <f t="shared" si="33"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('ADMIN_AUTH','M','Manage Admin','3');</v>
@@ -31860,10 +31850,10 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" s="151"/>
+      <c r="A221" s="146"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="151"/>
+      <c r="A222" s="146"/>
       <c r="B222" s="28" t="str">
         <f t="shared" ref="B222:B223" si="36">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C222&amp;"','"&amp;D222&amp;"','"&amp;E222&amp;"','"&amp;F222&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('SEX','M','남','1');</v>
@@ -31952,7 +31942,7 @@
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A230" s="150" t="s">
+      <c r="A230" s="145" t="s">
         <v>997</v>
       </c>
       <c r="B230" s="3" t="s">
@@ -31960,13 +31950,13 @@
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A231" s="150"/>
+      <c r="A231" s="145"/>
       <c r="B231" s="3" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A232" s="150"/>
+      <c r="A232" s="145"/>
       <c r="B232" s="3" t="s">
         <v>866</v>
       </c>

--- a/src/main/webapp/resources/setting/setting_20170222.xlsx
+++ b/src/main/webapp/resources/setting/setting_20170222.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4515" uniqueCount="1372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4524" uniqueCount="1379">
   <si>
     <t>USE_YN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5649,6 +5649,35 @@
   </si>
   <si>
     <t>이벤트 게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIRTH_FROM_YEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIRTH_TO_YEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생일 시작연도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생일 종료연도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO SETTING VALUES(16,'BIRTH_FROM_YEAR','1950','생일 시작연도');
+INSERT INTO SETTING VALUES(17,'BIRTH_TO_YEAR','2000','생일 종료연도');</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7574,10 +7603,10 @@
   <dimension ref="A1:R678"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B594" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G84" sqref="G84:G91"/>
+      <selection pane="bottomRight" activeCell="B607" sqref="B607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -25105,7 +25134,7 @@
   <dimension ref="A3:B78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -25133,8 +25162,10 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" s="96"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="96"/>
+    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="B9" s="96" t="s">
+        <v>1378</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="96" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -33192,7 +33223,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F17"/>
+      <selection activeCell="F18" sqref="F18:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -33619,6 +33650,56 @@
         <v>INSERT INTO SETTING VALUES(15,'TO_YEAR','2025','조건 종료연도');</v>
       </c>
     </row>
+    <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F18" s="58" t="str">
+        <f t="shared" ref="F18:F19" si="4">"INSERT INTO SETTING VALUES("&amp;A18&amp;",'"&amp;B18&amp;"','"&amp;C18&amp;"','"&amp;E18&amp;"');"</f>
+        <v>INSERT INTO SETTING VALUES(16,'BIRTH_FROM_YEAR','1950','생일 시작연도');</v>
+      </c>
+      <c r="G18" s="58" t="str">
+        <f t="shared" ref="G18:G19" si="5">"INSERT INTO SETTING VALUES("&amp;A18&amp;",'"&amp;B18&amp;"','"&amp;D18&amp;"','"&amp;E18&amp;"');"</f>
+        <v>INSERT INTO SETTING VALUES(16,'BIRTH_FROM_YEAR','1950','생일 시작연도');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F19" s="58" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO SETTING VALUES(17,'BIRTH_TO_YEAR','2000','생일 종료연도');</v>
+      </c>
+      <c r="G19" s="58" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO SETTING VALUES(17,'BIRTH_TO_YEAR','2000','생일 종료연도');</v>
+      </c>
+    </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" s="41"/>
       <c r="D23" s="41"/>

--- a/src/main/webapp/resources/setting/setting_20170222.xlsx
+++ b/src/main/webapp/resources/setting/setting_20170222.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="630" windowWidth="8100" windowHeight="6225" tabRatio="727" activeTab="5"/>
+    <workbookView xWindow="8100" yWindow="630" windowWidth="8100" windowHeight="6225" tabRatio="727" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="협의사항" sheetId="42" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4524" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4524" uniqueCount="1373">
   <si>
     <t>USE_YN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4532,31 +4532,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>--SEQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--P_SEQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--CONTENTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>--USER_IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--UPDATE_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5918,7 +5894,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6444,6 +6420,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -7020,7 +7008,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B19" si="0">A3&amp;", "</f>
@@ -7037,7 +7025,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -7054,7 +7042,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -7072,7 +7060,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -7089,7 +7077,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -7106,7 +7094,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -7191,7 +7179,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -7310,7 +7298,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" ref="B20:B23" si="3">A20&amp;", "</f>
@@ -7327,7 +7315,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="3"/>
@@ -7344,7 +7332,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="3"/>
@@ -7361,7 +7349,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="3"/>
@@ -7602,11 +7590,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R678"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B594" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B607" sqref="B607"/>
+      <selection pane="bottomRight" activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -7958,7 +7946,7 @@
         <v>898</v>
       </c>
       <c r="C13" s="133" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="D13" s="134" t="s">
         <v>84</v>
@@ -8115,13 +8103,13 @@
         <v>898</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>767</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="F18" s="14">
         <v>1</v>
@@ -9185,7 +9173,7 @@
         <v>911</v>
       </c>
       <c r="C59" s="126" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="D59" s="121" t="s">
         <v>75</v>
@@ -9237,13 +9225,13 @@
         <v>911</v>
       </c>
       <c r="C61" s="76" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="D61" s="82" t="s">
         <v>536</v>
       </c>
       <c r="E61" s="77" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="F61" s="77">
         <v>8</v>
@@ -9263,13 +9251,13 @@
         <v>911</v>
       </c>
       <c r="C62" s="76" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="D62" s="77" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="E62" s="77" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="F62" s="77">
         <v>9</v>
@@ -9639,7 +9627,7 @@
         <v>910</v>
       </c>
       <c r="C77" s="126" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="D77" s="121" t="s">
         <v>75</v>
@@ -9807,10 +9795,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="63" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="B84" s="55" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="C84" s="43"/>
       <c r="D84" s="22"/>
@@ -9827,10 +9815,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="63" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="B85" s="55" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="C85" s="43" t="s">
         <v>50</v>
@@ -9853,10 +9841,10 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="63" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="B86" s="55" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="C86" s="43" t="s">
         <v>16</v>
@@ -9879,10 +9867,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="63" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="B87" s="55" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="C87" s="43" t="s">
         <v>49</v>
@@ -9905,10 +9893,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="63" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="B88" s="55" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="C88" s="43" t="s">
         <v>133</v>
@@ -9931,10 +9919,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="63" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="B89" s="55" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="C89" s="43" t="s">
         <v>67</v>
@@ -9957,10 +9945,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="63" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="B90" s="55" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="C90" s="43" t="s">
         <v>68</v>
@@ -9983,10 +9971,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="63" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="B91" s="55" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="C91" s="43" t="s">
         <v>125</v>
@@ -10409,7 +10397,7 @@
         <v>915</v>
       </c>
       <c r="C108" s="119" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="D108" s="120" t="s">
         <v>75</v>
@@ -11005,7 +10993,7 @@
         <v>908</v>
       </c>
       <c r="C132" s="119" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="D132" s="120" t="s">
         <v>75</v>
@@ -11057,7 +11045,7 @@
         <v>908</v>
       </c>
       <c r="C134" s="119" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="D134" s="120" t="s">
         <v>153</v>
@@ -11173,253 +11161,253 @@
       <c r="H138" s="4"/>
       <c r="I138" s="65"/>
     </row>
-    <row r="139" spans="1:9" s="123" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="117" t="s">
+    <row r="139" spans="1:9" s="138" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B139" s="118" t="s">
+      <c r="B139" s="50" t="s">
         <v>909</v>
       </c>
-      <c r="C139" s="119"/>
-      <c r="D139" s="120"/>
-      <c r="E139" s="121"/>
-      <c r="F139" s="121">
+      <c r="C139" s="45"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14">
         <v>0</v>
       </c>
-      <c r="G139" s="121" t="str">
+      <c r="G139" s="14" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">CREATE TABLE BOARD_QNA_ANSWER ( </v>
       </c>
-      <c r="H139" s="121"/>
-      <c r="I139" s="122"/>
-    </row>
-    <row r="140" spans="1:9" s="123" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="117" t="s">
+      <c r="H139" s="14"/>
+      <c r="I139" s="27"/>
+    </row>
+    <row r="140" spans="1:9" s="138" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B140" s="118" t="s">
+      <c r="B140" s="50" t="s">
         <v>909</v>
       </c>
-      <c r="C140" s="119" t="s">
+      <c r="C140" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F140" s="14">
+        <v>1</v>
+      </c>
+      <c r="G140" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">SEQ INT NOT NULL auto_increment, </v>
+      </c>
+      <c r="H140" s="14"/>
+      <c r="I140" s="27"/>
+    </row>
+    <row r="141" spans="1:9" s="138" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B141" s="50" t="s">
+        <v>909</v>
+      </c>
+      <c r="C141" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F141" s="14">
+        <v>2</v>
+      </c>
+      <c r="G141" s="14" t="str">
+        <f t="shared" ref="G141:G210" si="6">IF(F141=0,"CREATE TABLE "&amp;A141&amp;" ( ",IF(F141=100,C141&amp;" );",IF(F141=200,"ALTER TABLE "&amp;A141&amp;" ADD INDEX "&amp;A141&amp;"_IDX"&amp;C141&amp;"("&amp;D141&amp;");",C141&amp;" "&amp;D141&amp;", ")))</f>
+        <v xml:space="preserve">P_SEQ INT, </v>
+      </c>
+      <c r="H141" s="14"/>
+      <c r="I141" s="27"/>
+    </row>
+    <row r="142" spans="1:9" s="138" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" s="50" t="s">
+        <v>909</v>
+      </c>
+      <c r="C142" s="45" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F142" s="14">
+        <v>3</v>
+      </c>
+      <c r="G142" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">CONTENTS TEXT, </v>
+      </c>
+      <c r="H142" s="14"/>
+      <c r="I142" s="27"/>
+    </row>
+    <row r="143" spans="1:9" s="138" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" s="50" t="s">
+        <v>909</v>
+      </c>
+      <c r="C143" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F143" s="14">
+        <v>4</v>
+      </c>
+      <c r="G143" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">USER_ID VARCHAR(15), </v>
+      </c>
+      <c r="H143" s="14"/>
+      <c r="I143" s="27"/>
+    </row>
+    <row r="144" spans="1:9" s="105" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="175" t="s">
+        <v>154</v>
+      </c>
+      <c r="B144" s="176" t="s">
+        <v>909</v>
+      </c>
+      <c r="C144" s="177" t="s">
         <v>1136</v>
       </c>
-      <c r="D140" s="120" t="s">
-        <v>101</v>
-      </c>
-      <c r="E140" s="120" t="s">
-        <v>51</v>
-      </c>
-      <c r="F140" s="121">
-        <v>1</v>
-      </c>
-      <c r="G140" s="121" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">--SEQ INT NOT NULL auto_increment, </v>
-      </c>
-      <c r="H140" s="121"/>
-      <c r="I140" s="122"/>
-    </row>
-    <row r="141" spans="1:9" s="123" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="117" t="s">
-        <v>154</v>
-      </c>
-      <c r="B141" s="118" t="s">
-        <v>909</v>
-      </c>
-      <c r="C141" s="119" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D141" s="120" t="s">
-        <v>79</v>
-      </c>
-      <c r="E141" s="120" t="s">
-        <v>134</v>
-      </c>
-      <c r="F141" s="121">
-        <v>2</v>
-      </c>
-      <c r="G141" s="121" t="str">
-        <f t="shared" ref="G141:G210" si="6">IF(F141=0,"CREATE TABLE "&amp;A141&amp;" ( ",IF(F141=100,C141&amp;" );",IF(F141=200,"ALTER TABLE "&amp;A141&amp;" ADD INDEX "&amp;A141&amp;"_IDX"&amp;C141&amp;"("&amp;D141&amp;");",C141&amp;" "&amp;D141&amp;", ")))</f>
-        <v xml:space="preserve">--P_SEQ INT, </v>
-      </c>
-      <c r="H141" s="121"/>
-      <c r="I141" s="122"/>
-    </row>
-    <row r="142" spans="1:9" s="123" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="117" t="s">
-        <v>154</v>
-      </c>
-      <c r="B142" s="118" t="s">
-        <v>909</v>
-      </c>
-      <c r="C142" s="119" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D142" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="E142" s="120" t="s">
-        <v>45</v>
-      </c>
-      <c r="F142" s="121">
-        <v>3</v>
-      </c>
-      <c r="G142" s="121" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">--CONTENTS TEXT, </v>
-      </c>
-      <c r="H142" s="121"/>
-      <c r="I142" s="122"/>
-    </row>
-    <row r="143" spans="1:9" s="123" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="117" t="s">
-        <v>154</v>
-      </c>
-      <c r="B143" s="118" t="s">
-        <v>909</v>
-      </c>
-      <c r="C143" s="119" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D143" s="120" t="s">
+      <c r="D144" s="178" t="s">
         <v>75</v>
       </c>
-      <c r="E143" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="F143" s="121">
-        <v>4</v>
-      </c>
-      <c r="G143" s="121" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">--USER_ID VARCHAR(15), </v>
-      </c>
-      <c r="H143" s="121"/>
-      <c r="I143" s="122"/>
-    </row>
-    <row r="144" spans="1:9" s="123" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="117" t="s">
-        <v>154</v>
-      </c>
-      <c r="B144" s="118" t="s">
-        <v>909</v>
-      </c>
-      <c r="C144" s="119" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D144" s="120" t="s">
-        <v>75</v>
-      </c>
-      <c r="E144" s="120" t="s">
+      <c r="E144" s="178" t="s">
         <v>46</v>
       </c>
-      <c r="F144" s="121">
+      <c r="F144" s="103">
         <v>5</v>
       </c>
-      <c r="G144" s="121" t="str">
+      <c r="G144" s="103" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">--USER_IP VARCHAR(15), </v>
       </c>
-      <c r="H144" s="121"/>
-      <c r="I144" s="122"/>
-    </row>
-    <row r="145" spans="1:10" s="123" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="117" t="s">
+      <c r="H144" s="103"/>
+      <c r="I144" s="104"/>
+    </row>
+    <row r="145" spans="1:10" s="138" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B145" s="118" t="s">
+      <c r="B145" s="50" t="s">
         <v>909</v>
       </c>
-      <c r="C145" s="119" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D145" s="120" t="s">
+      <c r="C145" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D145" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E145" s="120" t="s">
+      <c r="E145" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F145" s="121">
+      <c r="F145" s="14">
         <v>6</v>
       </c>
-      <c r="G145" s="121" t="str">
+      <c r="G145" s="14" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">--CREATE_DATE DATETIME, </v>
-      </c>
-      <c r="H145" s="121"/>
-      <c r="I145" s="122"/>
-    </row>
-    <row r="146" spans="1:10" s="123" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="117" t="s">
+        <v xml:space="preserve">CREATE_DATE DATETIME, </v>
+      </c>
+      <c r="H145" s="14"/>
+      <c r="I145" s="27"/>
+    </row>
+    <row r="146" spans="1:10" s="138" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B146" s="118" t="s">
+      <c r="B146" s="50" t="s">
         <v>909</v>
       </c>
-      <c r="C146" s="119" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D146" s="120" t="s">
+      <c r="C146" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="D146" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E146" s="120" t="s">
+      <c r="E146" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F146" s="121">
+      <c r="F146" s="14">
         <v>7</v>
       </c>
-      <c r="G146" s="121" t="str">
+      <c r="G146" s="14" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">--UPDATE_DATE DATETIME, </v>
-      </c>
-      <c r="H146" s="121"/>
-      <c r="I146" s="122"/>
-    </row>
-    <row r="147" spans="1:10" s="123" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="117" t="s">
+        <v xml:space="preserve">UPDATE_DATE DATETIME, </v>
+      </c>
+      <c r="H146" s="14"/>
+      <c r="I146" s="27"/>
+    </row>
+    <row r="147" spans="1:10" s="138" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B147" s="118" t="s">
+      <c r="B147" s="50" t="s">
         <v>909</v>
       </c>
-      <c r="C147" s="119" t="s">
+      <c r="C147" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="D147" s="120"/>
-      <c r="E147" s="120"/>
-      <c r="F147" s="121">
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="14">
         <v>100</v>
       </c>
-      <c r="G147" s="121" t="str">
+      <c r="G147" s="14" t="str">
         <f t="shared" si="6"/>
         <v>PRIMARY KEY(SEQ) );</v>
       </c>
-      <c r="H147" s="121"/>
-      <c r="I147" s="122"/>
-    </row>
-    <row r="148" spans="1:10" s="123" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="117" t="s">
+      <c r="H147" s="14"/>
+      <c r="I147" s="27"/>
+    </row>
+    <row r="148" spans="1:10" s="138" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B148" s="118" t="s">
+      <c r="B148" s="50" t="s">
         <v>909</v>
       </c>
-      <c r="C148" s="119">
+      <c r="C148" s="45">
         <v>1</v>
       </c>
-      <c r="D148" s="120" t="s">
+      <c r="D148" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E148" s="120"/>
-      <c r="F148" s="121">
+      <c r="E148" s="12"/>
+      <c r="F148" s="14">
         <v>200</v>
       </c>
-      <c r="G148" s="121" t="str">
+      <c r="G148" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE BOARD_QNA_ANSWER ADD INDEX BOARD_QNA_ANSWER_IDX1(P_SEQ);</v>
       </c>
-      <c r="H148" s="121"/>
-      <c r="I148" s="122"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="27"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="62" t="s">
@@ -11583,7 +11571,7 @@
         <v>912</v>
       </c>
       <c r="C155" s="126" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="D155" s="121" t="s">
         <v>75</v>
@@ -12075,7 +12063,7 @@
         <v>94</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>99</v>
@@ -12102,7 +12090,7 @@
         <v>95</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>100</v>
@@ -12444,7 +12432,7 @@
         <v>904</v>
       </c>
       <c r="C188" s="126" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="D188" s="121" t="s">
         <v>75</v>
@@ -12774,13 +12762,13 @@
         <v>899</v>
       </c>
       <c r="C200" s="39" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="D200" s="14" t="s">
         <v>489</v>
       </c>
       <c r="E200" s="18" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="F200" s="14">
         <v>2</v>
@@ -12800,13 +12788,13 @@
         <v>899</v>
       </c>
       <c r="C201" s="39" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="D201" s="14" t="s">
         <v>489</v>
       </c>
       <c r="E201" s="18" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="F201" s="14">
         <v>3</v>
@@ -12826,13 +12814,13 @@
         <v>899</v>
       </c>
       <c r="C202" s="39" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="D202" s="14" t="s">
         <v>489</v>
       </c>
       <c r="E202" s="18" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="F202" s="14">
         <v>4</v>
@@ -12852,13 +12840,13 @@
         <v>899</v>
       </c>
       <c r="C203" s="39" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="D203" s="14" t="s">
         <v>489</v>
       </c>
       <c r="E203" s="18" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="F203" s="14">
         <v>5</v>
@@ -12878,13 +12866,13 @@
         <v>899</v>
       </c>
       <c r="C204" s="39" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="D204" s="14" t="s">
         <v>489</v>
       </c>
       <c r="E204" s="18" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="F204" s="14">
         <v>6</v>
@@ -12904,13 +12892,13 @@
         <v>899</v>
       </c>
       <c r="C205" s="39" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="D205" s="14" t="s">
         <v>489</v>
       </c>
       <c r="E205" s="18" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="F205" s="14">
         <v>7</v>
@@ -13042,13 +13030,13 @@
         <v>899</v>
       </c>
       <c r="C210" s="39" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="D210" s="14" t="s">
         <v>489</v>
       </c>
       <c r="E210" s="14" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="F210" s="14">
         <v>12</v>
@@ -13192,10 +13180,10 @@
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A216" s="20" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B216" s="51" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="C216" s="39"/>
       <c r="D216" s="14"/>
@@ -13212,10 +13200,10 @@
     </row>
     <row r="217" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="20" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B217" s="51" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="C217" s="42" t="s">
         <v>38</v>
@@ -13240,10 +13228,10 @@
     </row>
     <row r="218" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="20" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B218" s="51" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="C218" s="42" t="s">
         <v>144</v>
@@ -13252,7 +13240,7 @@
         <v>145</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="F218" s="14">
         <v>2</v>
@@ -13262,7 +13250,7 @@
         <v xml:space="preserve">KIND VARCHAR(10), </v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="I218" s="140"/>
       <c r="J218" s="3"/>
@@ -13270,19 +13258,19 @@
     </row>
     <row r="219" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="20" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B219" s="51" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="C219" s="43" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="D219" s="22" t="s">
         <v>75</v>
       </c>
       <c r="E219" s="22" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="F219" s="14">
         <v>3</v>
@@ -13298,10 +13286,10 @@
     </row>
     <row r="220" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="20" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B220" s="51" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="C220" s="39" t="s">
         <v>595</v>
@@ -13310,7 +13298,7 @@
         <v>489</v>
       </c>
       <c r="E220" s="14" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="F220" s="14">
         <v>4</v>
@@ -13326,10 +13314,10 @@
     </row>
     <row r="221" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="20" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B221" s="51" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="C221" s="39" t="s">
         <v>474</v>
@@ -13338,7 +13326,7 @@
         <v>84</v>
       </c>
       <c r="E221" s="14" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="F221" s="14">
         <v>5</v>
@@ -13354,10 +13342,10 @@
     </row>
     <row r="222" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="20" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B222" s="51" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="C222" s="39" t="s">
         <v>560</v>
@@ -13366,7 +13354,7 @@
         <v>84</v>
       </c>
       <c r="E222" s="14" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="F222" s="14">
         <v>6</v>
@@ -13382,19 +13370,19 @@
     </row>
     <row r="223" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="20" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B223" s="51" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="C223" s="39" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="D223" s="14" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="E223" s="14" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="F223" s="14">
         <v>7</v>
@@ -13410,13 +13398,13 @@
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A224" s="20" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B224" s="51" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="C224" s="39" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="D224" s="14"/>
       <c r="E224" s="14"/>
@@ -13640,7 +13628,7 @@
         <v>923</v>
       </c>
       <c r="C233" s="43" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="D233" s="22" t="s">
         <v>78</v>
@@ -14420,7 +14408,7 @@
         <v>888</v>
       </c>
       <c r="C262" s="76" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="D262" s="77" t="s">
         <v>145</v>
@@ -14448,7 +14436,7 @@
         <v>888</v>
       </c>
       <c r="C263" s="76" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="D263" s="77" t="s">
         <v>145</v>
@@ -14532,7 +14520,7 @@
         <v>888</v>
       </c>
       <c r="C266" s="76" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="D266" s="77" t="s">
         <v>489</v>
@@ -14560,7 +14548,7 @@
         <v>888</v>
       </c>
       <c r="C267" s="76" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="D267" s="77" t="s">
         <v>489</v>
@@ -14588,7 +14576,7 @@
         <v>888</v>
       </c>
       <c r="C268" s="76" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="D268" s="77" t="s">
         <v>489</v>
@@ -14616,7 +14604,7 @@
         <v>888</v>
       </c>
       <c r="C269" s="76" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="D269" s="77" t="s">
         <v>489</v>
@@ -14670,13 +14658,13 @@
         <v>888</v>
       </c>
       <c r="C271" s="76" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="D271" s="77" t="s">
         <v>578</v>
       </c>
       <c r="E271" s="77" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="F271" s="77">
         <v>35</v>
@@ -14687,7 +14675,7 @@
       </c>
       <c r="H271" s="77"/>
       <c r="I271" s="79" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="272" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.3">
@@ -14698,13 +14686,13 @@
         <v>888</v>
       </c>
       <c r="C272" s="76" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="D272" s="77" t="s">
         <v>578</v>
       </c>
       <c r="E272" s="77" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="F272" s="77">
         <v>36</v>
@@ -14724,13 +14712,13 @@
         <v>888</v>
       </c>
       <c r="C273" s="76" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="D273" s="77" t="s">
         <v>578</v>
       </c>
       <c r="E273" s="77" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="F273" s="77">
         <v>37</v>
@@ -14750,13 +14738,13 @@
         <v>888</v>
       </c>
       <c r="C274" s="76" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="D274" s="77" t="s">
         <v>578</v>
       </c>
       <c r="E274" s="77" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="F274" s="77">
         <v>38</v>
@@ -14896,10 +14884,10 @@
     </row>
     <row r="280" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="74" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="B280" s="81" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="C280" s="76"/>
       <c r="D280" s="77"/>
@@ -14916,13 +14904,13 @@
     </row>
     <row r="281" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="74" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="B281" s="81" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="C281" s="76" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="D281" s="77" t="s">
         <v>101</v>
@@ -14942,10 +14930,10 @@
     </row>
     <row r="282" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="74" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="B282" s="81" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="C282" s="76" t="s">
         <v>38</v>
@@ -14968,10 +14956,10 @@
     </row>
     <row r="283" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="74" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="B283" s="81" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="C283" s="97" t="s">
         <v>36</v>
@@ -14994,13 +14982,13 @@
     </row>
     <row r="284" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="74" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="B284" s="81" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="C284" s="76" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="D284" s="77"/>
       <c r="E284" s="77"/>
@@ -15120,13 +15108,13 @@
         <v>878</v>
       </c>
       <c r="C289" s="42" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="D289" s="14" t="s">
         <v>75</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="F289" s="14">
         <v>3</v>
@@ -15607,13 +15595,13 @@
         <v>895</v>
       </c>
       <c r="C308" s="76" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="D308" s="77" t="s">
         <v>75</v>
       </c>
       <c r="E308" s="77" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="F308" s="14">
         <v>3</v>
@@ -15991,13 +15979,13 @@
         <v>895</v>
       </c>
       <c r="C322" s="97" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="D322" s="77" t="s">
         <v>174</v>
       </c>
       <c r="E322" s="77" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="F322" s="14">
         <v>17</v>
@@ -16018,13 +16006,13 @@
         <v>895</v>
       </c>
       <c r="C323" s="97" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="D323" s="82" t="s">
         <v>578</v>
       </c>
       <c r="E323" s="82" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="F323" s="14">
         <v>18</v>
@@ -16045,13 +16033,13 @@
         <v>895</v>
       </c>
       <c r="C324" s="97" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="D324" s="77" t="s">
         <v>174</v>
       </c>
       <c r="E324" s="77" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="F324" s="14">
         <v>19</v>
@@ -16134,7 +16122,7 @@
         <v>600</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="F327" s="14">
         <v>22</v>
@@ -16155,13 +16143,13 @@
         <v>895</v>
       </c>
       <c r="C328" s="13" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>578</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="F328" s="14">
         <v>22</v>
@@ -16569,13 +16557,13 @@
         <v>887</v>
       </c>
       <c r="C344" s="76" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="D344" s="77" t="s">
         <v>765</v>
       </c>
       <c r="E344" s="78" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="F344" s="77">
         <v>9</v>
@@ -16586,7 +16574,7 @@
       </c>
       <c r="H344" s="77"/>
       <c r="I344" s="79" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="345" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -18039,13 +18027,13 @@
         <v>886</v>
       </c>
       <c r="C399" s="76" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="D399" s="77" t="s">
         <v>489</v>
       </c>
       <c r="E399" s="78" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="F399" s="14">
         <v>16</v>
@@ -18065,13 +18053,13 @@
         <v>886</v>
       </c>
       <c r="C400" s="76" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="D400" s="77" t="s">
         <v>489</v>
       </c>
       <c r="E400" s="78" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="F400" s="14">
         <v>17</v>
@@ -18091,13 +18079,13 @@
         <v>886</v>
       </c>
       <c r="C401" s="76" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="D401" s="77" t="s">
         <v>489</v>
       </c>
       <c r="E401" s="78" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="F401" s="14">
         <v>18</v>
@@ -18117,13 +18105,13 @@
         <v>886</v>
       </c>
       <c r="C402" s="76" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="D402" s="77" t="s">
         <v>489</v>
       </c>
       <c r="E402" s="78" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="F402" s="14">
         <v>19</v>
@@ -18143,13 +18131,13 @@
         <v>886</v>
       </c>
       <c r="C403" s="76" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="D403" s="77" t="s">
         <v>489</v>
       </c>
       <c r="E403" s="78" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="F403" s="14">
         <v>20</v>
@@ -18169,13 +18157,13 @@
         <v>886</v>
       </c>
       <c r="C404" s="76" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="D404" s="77" t="s">
         <v>489</v>
       </c>
       <c r="E404" s="78" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="F404" s="14">
         <v>21</v>
@@ -18429,13 +18417,13 @@
         <v>886</v>
       </c>
       <c r="C414" s="42" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="D414" s="6" t="s">
         <v>578</v>
       </c>
       <c r="E414" s="34" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="F414" s="14">
         <v>31</v>
@@ -18711,7 +18699,7 @@
         <v>882</v>
       </c>
       <c r="C425" s="133" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="D425" s="134" t="s">
         <v>79</v>
@@ -18728,7 +18716,7 @@
       </c>
       <c r="H425" s="135"/>
       <c r="I425" s="136" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="426" spans="1:9" s="137" customFormat="1" x14ac:dyDescent="0.3">
@@ -18739,7 +18727,7 @@
         <v>882</v>
       </c>
       <c r="C426" s="133" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="D426" s="134" t="s">
         <v>79</v>
@@ -18756,7 +18744,7 @@
       </c>
       <c r="H426" s="135"/>
       <c r="I426" s="136" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="427" spans="1:9" s="137" customFormat="1" x14ac:dyDescent="0.3">
@@ -18767,7 +18755,7 @@
         <v>882</v>
       </c>
       <c r="C427" s="133" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="D427" s="134" t="s">
         <v>79</v>
@@ -18784,7 +18772,7 @@
       </c>
       <c r="H427" s="135"/>
       <c r="I427" s="136" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.3">
@@ -18873,7 +18861,7 @@
         <v>882</v>
       </c>
       <c r="C431" s="126" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="D431" s="121" t="s">
         <v>788</v>
@@ -19568,13 +19556,13 @@
         <v>884</v>
       </c>
       <c r="C458" s="39" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="D458" s="14" t="s">
         <v>489</v>
       </c>
       <c r="E458" s="18" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="F458" s="14">
         <v>7</v>
@@ -19714,10 +19702,10 @@
     </row>
     <row r="464" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A464" s="74" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B464" s="81" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="C464" s="76"/>
       <c r="D464" s="77"/>
@@ -19731,15 +19719,15 @@
       </c>
       <c r="H464" s="82"/>
       <c r="I464" s="116" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="465" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A465" s="74" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B465" s="81" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="C465" s="97" t="s">
         <v>38</v>
@@ -19759,15 +19747,15 @@
       </c>
       <c r="H465" s="82"/>
       <c r="I465" s="116" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="466" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A466" s="74" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B466" s="81" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="C466" s="97" t="s">
         <v>179</v>
@@ -19787,18 +19775,18 @@
       </c>
       <c r="H466" s="82"/>
       <c r="I466" s="116" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="467" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A467" s="74" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B467" s="81" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="C467" s="97" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="D467" s="82" t="s">
         <v>79</v>
@@ -19815,18 +19803,18 @@
       </c>
       <c r="H467" s="82"/>
       <c r="I467" s="116" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="468" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A468" s="74" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B468" s="81" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="C468" s="97" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="D468" s="82" t="s">
         <v>79</v>
@@ -19843,15 +19831,15 @@
       </c>
       <c r="H468" s="82"/>
       <c r="I468" s="116" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="469" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A469" s="74" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B469" s="81" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="C469" s="76" t="s">
         <v>0</v>
@@ -19876,13 +19864,13 @@
     </row>
     <row r="470" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A470" s="74" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B470" s="81" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="C470" s="76" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="D470" s="77"/>
       <c r="E470" s="77"/>
@@ -19895,7 +19883,7 @@
       </c>
       <c r="H470" s="82"/>
       <c r="I470" s="116" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.3">
@@ -21984,7 +21972,7 @@
         <v>916</v>
       </c>
       <c r="C554" s="119" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="D554" s="120" t="s">
         <v>75</v>
@@ -22010,13 +21998,13 @@
         <v>916</v>
       </c>
       <c r="C555" s="76" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="D555" s="82" t="s">
         <v>536</v>
       </c>
       <c r="E555" s="77" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="F555" s="77">
         <v>8</v>
@@ -22036,13 +22024,13 @@
         <v>916</v>
       </c>
       <c r="C556" s="76" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="D556" s="77" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="E556" s="77" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="F556" s="77">
         <v>9</v>
@@ -22480,13 +22468,13 @@
         <v>922</v>
       </c>
       <c r="C574" s="76" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="D574" s="82" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="E574" s="77" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="F574" s="77">
         <v>3</v>
@@ -22497,7 +22485,7 @@
       </c>
       <c r="H574" s="77"/>
       <c r="I574" s="79" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.3">
@@ -23140,13 +23128,13 @@
         <v>903</v>
       </c>
       <c r="C600" s="39" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="D600" s="14" t="s">
         <v>578</v>
       </c>
       <c r="E600" s="14" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="F600" s="14">
         <v>3</v>
@@ -23166,13 +23154,13 @@
         <v>903</v>
       </c>
       <c r="C601" s="39" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="D601" s="14" t="s">
         <v>735</v>
       </c>
       <c r="E601" s="14" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="F601" s="14">
         <v>3</v>
@@ -23367,7 +23355,7 @@
       </c>
       <c r="H608" s="134"/>
       <c r="I608" s="139" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="609" spans="1:9" s="138" customFormat="1" x14ac:dyDescent="0.3">
@@ -23378,7 +23366,7 @@
         <v>903</v>
       </c>
       <c r="C609" s="39" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="D609" s="14" t="s">
         <v>145</v>
@@ -23882,7 +23870,7 @@
         <v>903</v>
       </c>
       <c r="C628" s="119" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="D628" s="121" t="s">
         <v>840</v>
@@ -23908,13 +23896,13 @@
         <v>903</v>
       </c>
       <c r="C629" s="76" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="D629" s="77" t="s">
         <v>578</v>
       </c>
       <c r="E629" s="77" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="F629" s="77">
         <v>11</v>
@@ -23925,7 +23913,7 @@
       </c>
       <c r="H629" s="77"/>
       <c r="I629" s="79" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="J629" s="80"/>
       <c r="R629" s="99"/>
@@ -24220,7 +24208,7 @@
         <v>489</v>
       </c>
       <c r="E641" s="78" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="F641" s="14">
         <v>3</v>
@@ -24422,13 +24410,13 @@
         <v>902</v>
       </c>
       <c r="C649" s="39" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="D649" s="14" t="s">
         <v>78</v>
       </c>
       <c r="E649" s="14" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="F649" s="14">
         <v>33</v>
@@ -24448,7 +24436,7 @@
         <v>902</v>
       </c>
       <c r="C650" s="13" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="D650" s="2"/>
       <c r="E650" s="2"/>
@@ -24562,7 +24550,7 @@
     </row>
     <row r="655" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A655" s="58" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="B655" s="49" t="s">
         <v>901</v>
@@ -24594,7 +24582,7 @@
         <v>901</v>
       </c>
       <c r="C656" s="13" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="D656" s="14" t="s">
         <v>578</v>
@@ -24620,7 +24608,7 @@
         <v>901</v>
       </c>
       <c r="C657" s="13" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="D657" s="14" t="s">
         <v>578</v>
@@ -24646,7 +24634,7 @@
         <v>901</v>
       </c>
       <c r="C658" s="13" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="D658" s="14" t="s">
         <v>578</v>
@@ -24672,7 +24660,7 @@
         <v>901</v>
       </c>
       <c r="C659" s="13" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="D659" s="14" t="s">
         <v>578</v>
@@ -25133,7 +25121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -25164,53 +25152,53 @@
     </row>
     <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="B9" s="96" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="96" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="B10" s="165" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="165" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B12" s="165" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="B13" s="160" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="B14" s="160" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="B15" s="160" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180" x14ac:dyDescent="0.3">
       <c r="B16" s="160" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="36" x14ac:dyDescent="0.3">
       <c r="B17" s="160" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="72" x14ac:dyDescent="0.3">
@@ -25318,77 +25306,77 @@
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="143" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="36" x14ac:dyDescent="0.3">
       <c r="B40" s="144" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="143" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="36" x14ac:dyDescent="0.3">
       <c r="B42" s="144" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B43" s="144" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="36" x14ac:dyDescent="0.3">
       <c r="B44" s="144" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="48" x14ac:dyDescent="0.3">
       <c r="B45" s="144" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="46" spans="2:2" ht="48" x14ac:dyDescent="0.3">
       <c r="B46" s="144" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="84" x14ac:dyDescent="0.3">
       <c r="B47" s="144" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="48" spans="2:2" ht="48" x14ac:dyDescent="0.3">
       <c r="B48" s="144" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="143" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="36" x14ac:dyDescent="0.3">
       <c r="B50" s="144" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="51" spans="2:2" ht="36" x14ac:dyDescent="0.3">
       <c r="B51" s="144" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="143" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B53" s="144" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
@@ -25396,27 +25384,27 @@
     </row>
     <row r="55" spans="2:2" ht="36" x14ac:dyDescent="0.3">
       <c r="B55" s="144" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="108" x14ac:dyDescent="0.3">
       <c r="B56" s="144" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="57" spans="2:2" ht="84" x14ac:dyDescent="0.3">
       <c r="B57" s="144" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="58" spans="2:2" ht="96" x14ac:dyDescent="0.3">
       <c r="B58" s="144" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="59" spans="2:2" ht="409.5" x14ac:dyDescent="0.3">
       <c r="B59" s="144" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
@@ -25427,87 +25415,87 @@
     </row>
     <row r="62" spans="2:2" ht="96" x14ac:dyDescent="0.3">
       <c r="B62" s="144" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="63" spans="2:2" ht="48" x14ac:dyDescent="0.3">
       <c r="B63" s="144" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="64" spans="2:2" ht="48" x14ac:dyDescent="0.3">
       <c r="B64" s="144" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="228" x14ac:dyDescent="0.3">
       <c r="B65" s="144" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="108" x14ac:dyDescent="0.3">
       <c r="B66" s="144" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="409.5" x14ac:dyDescent="0.3">
       <c r="B67" s="154" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="68" spans="2:2" ht="36" x14ac:dyDescent="0.3">
       <c r="B68" s="154" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="69" spans="2:2" ht="216" x14ac:dyDescent="0.3">
       <c r="B69" s="154" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="70" spans="2:2" ht="24" x14ac:dyDescent="0.3">
       <c r="B70" s="154" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="71" spans="2:2" ht="48" x14ac:dyDescent="0.3">
       <c r="B71" s="154" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="155" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="73" spans="2:2" ht="36" x14ac:dyDescent="0.3">
       <c r="B73" s="154" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="74" spans="2:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B74" s="158" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="159" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="76" spans="2:2" ht="48" x14ac:dyDescent="0.3">
       <c r="B76" s="158" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="77" spans="2:2" ht="60" x14ac:dyDescent="0.3">
       <c r="B77" s="158" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="78" spans="2:2" ht="36" x14ac:dyDescent="0.3">
       <c r="B78" s="158" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
     </row>
   </sheetData>
@@ -31244,10 +31232,10 @@
         <v>586</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -31270,7 +31258,7 @@
         <v>739</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F149" s="3">
         <v>2</v>
@@ -31290,10 +31278,10 @@
         <v>586</v>
       </c>
       <c r="D150" s="9" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E150" s="3" t="s">
         <v>1295</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>1301</v>
       </c>
       <c r="F150" s="3">
         <v>3</v>
@@ -31320,7 +31308,7 @@
         <v>586</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>815</v>
@@ -31350,10 +31338,10 @@
         <v>586</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="F152" s="3">
         <v>5</v>
@@ -31380,10 +31368,10 @@
         <v>586</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="F153" s="3">
         <v>6</v>
@@ -31410,10 +31398,10 @@
         <v>586</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="F154" s="3">
         <v>7</v>
@@ -31440,10 +31428,10 @@
         <v>586</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="F155" s="3">
         <v>8</v>
@@ -31735,7 +31723,7 @@
         <v>354</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="F173" s="3">
         <v>1</v>
@@ -31758,7 +31746,7 @@
         <v>328</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="F174" s="3">
         <v>2</v>
@@ -31781,7 +31769,7 @@
         <v>357</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="F175" s="3">
         <v>3</v>
@@ -31804,7 +31792,7 @@
         <v>359</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="F176" s="3">
         <v>4</v>
@@ -31827,7 +31815,7 @@
         <v>361</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="F177" s="3">
         <v>5</v>
@@ -33046,7 +33034,7 @@
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('APPROVAL_CARD_STATUS','A','승인','1');</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>323</v>
@@ -33075,7 +33063,7 @@
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('APPROVAL_CARD_STATUS','R','환불','2');</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>499</v>
@@ -33118,13 +33106,13 @@
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('OPEN_KIND','OPEN','오픈','1');</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="F243" s="3">
         <v>1</v>
@@ -33140,13 +33128,13 @@
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('OPEN_KIND','NOT_OPEN','미오픈','2');</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="F244" s="3">
         <v>2</v>
@@ -33162,13 +33150,13 @@
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('OPEN_KIND','CLOSE','종료','3');</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>401</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="F245" s="3">
         <v>3</v>
@@ -33184,13 +33172,13 @@
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('OPEN_KIND','NOT_CLOSE','미종료','4');</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="F246" s="3">
         <v>4</v>
@@ -33269,10 +33257,10 @@
       <c r="D2" s="149"/>
       <c r="E2" s="27"/>
       <c r="F2" s="27" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.3">
@@ -33283,13 +33271,13 @@
         <v>947</v>
       </c>
       <c r="C3" s="147" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="D3" s="147" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="F3" s="58" t="str">
         <f>"INSERT INTO SETTING VALUES("&amp;A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;E3&amp;"');"</f>
@@ -33305,16 +33293,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="C4" s="147" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="F4" s="58" t="str">
         <f t="shared" ref="F4:F9" si="0">"INSERT INTO SETTING VALUES("&amp;A4&amp;",'"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;E4&amp;"');"</f>
@@ -33330,16 +33318,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="F5" s="58" t="str">
         <f t="shared" si="0"/>
@@ -33355,16 +33343,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="F6" s="58" t="str">
         <f t="shared" si="0"/>
@@ -33380,16 +33368,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="F7" s="58" t="str">
         <f t="shared" si="0"/>
@@ -33405,16 +33393,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="F8" s="58" t="str">
         <f t="shared" si="0"/>
@@ -33430,16 +33418,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="F9" s="58" t="str">
         <f t="shared" si="0"/>
@@ -33464,7 +33452,7 @@
         <v>950</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="F10" s="58" t="str">
         <f t="shared" ref="F10:F17" si="2">"INSERT INTO SETTING VALUES("&amp;A10&amp;",'"&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;E10&amp;"');"</f>
@@ -33489,7 +33477,7 @@
         <v>953</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="F11" s="58" t="str">
         <f t="shared" si="2"/>
@@ -33514,7 +33502,7 @@
         <v>1119</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="F12" s="58" t="str">
         <f t="shared" si="2"/>
@@ -33530,16 +33518,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="C13" s="147" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="D13" s="147" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="F13" s="58" t="str">
         <f t="shared" si="2"/>
@@ -33564,7 +33552,7 @@
         <v>956</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="F14" s="58" t="str">
         <f t="shared" si="2"/>
@@ -33580,16 +33568,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="F15" s="58" t="str">
         <f t="shared" si="2"/>
@@ -33605,7 +33593,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="C16" s="15">
         <v>2015</v>
@@ -33614,7 +33602,7 @@
         <v>2015</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="F16" s="58" t="str">
         <f t="shared" si="2"/>
@@ -33630,7 +33618,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="C17" s="15">
         <v>2025</v>
@@ -33639,7 +33627,7 @@
         <v>2025</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="F17" s="58" t="str">
         <f t="shared" si="2"/>
@@ -33655,16 +33643,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="F18" s="58" t="str">
         <f t="shared" ref="F18:F19" si="4">"INSERT INTO SETTING VALUES("&amp;A18&amp;",'"&amp;B18&amp;"','"&amp;C18&amp;"','"&amp;E18&amp;"');"</f>
@@ -33680,16 +33668,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="F19" s="58" t="str">
         <f t="shared" si="4"/>

--- a/src/main/webapp/resources/setting/setting_20170222.xlsx
+++ b/src/main/webapp/resources/setting/setting_20170222.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4488" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="1376">
   <si>
     <t>USE_YN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5670,6 +5670,10 @@
 );    
 ALTER TABLE BOARD_QNA  DROP COLUMN USER_IP;
 ALTER TABLE BOARD_QNA  DROP COLUMN REPLY_CNT;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10.28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24900,10 +24904,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A3:B78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -24913,16 +24917,6 @@
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="96" x14ac:dyDescent="0.3">
-      <c r="B2" s="96" t="s">
-        <v>1374</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="96"/>
     </row>
@@ -24936,10 +24930,17 @@
       <c r="B6" s="96"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="96"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="96"/>
+      <c r="A7" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="96" x14ac:dyDescent="0.3">
+      <c r="B8" s="96" t="s">
+        <v>1374</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="B9" s="96" t="s">

--- a/src/main/webapp/resources/setting/setting_20170222.xlsx
+++ b/src/main/webapp/resources/setting/setting_20170222.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="630" windowWidth="8100" windowHeight="6225" tabRatio="727" activeTab="3"/>
+    <workbookView xWindow="8100" yWindow="630" windowWidth="8100" windowHeight="6225" tabRatio="727" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="협의사항" sheetId="42" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4496" uniqueCount="1379">
   <si>
     <t>USE_YN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7612,7 +7612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R670"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B251" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -24944,10 +24944,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A3:B78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -24957,11 +24957,6 @@
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="B1" s="96" t="s">
-        <v>1378</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="96"/>
     </row>
@@ -24971,8 +24966,13 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="96"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="96"/>
+    <row r="6" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>1378</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">

--- a/src/main/webapp/resources/setting/setting_20170222.xlsx
+++ b/src/main/webapp/resources/setting/setting_20170222.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="630" windowWidth="8100" windowHeight="6225" tabRatio="727" activeTab="5"/>
+    <workbookView xWindow="8100" yWindow="630" windowWidth="8100" windowHeight="6225" tabRatio="727" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="협의사항" sheetId="42" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4496" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4497" uniqueCount="1383">
   <si>
     <t>USE_YN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5688,6 +5688,24 @@
     <t>ALTER TABLE COURSE ADD(
  CATEGORY_MAIN_YN CHAR(1) DEFAULT 'N'
 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--COMPANY_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--TEACHER_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--TUTOR_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE COURSE_CODE  DROP COLUMN COMPANY_RATE;
+ALTER TABLE COURSE_CODE  DROP COLUMN TEACHER_RATE;
+ALTER TABLE COURSE_CODE  DROP COLUMN TUTOR_RATE;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7612,11 +7630,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R670"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B251" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B314" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C278" sqref="C278"/>
+      <selection pane="bottomRight" activeCell="C285" sqref="C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -15081,83 +15099,83 @@
       <c r="H286" s="2"/>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A287" s="11" t="s">
+    <row r="287" spans="1:9" s="123" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="124" t="s">
         <v>877</v>
       </c>
-      <c r="B287" s="48" t="s">
+      <c r="B287" s="162" t="s">
         <v>876</v>
       </c>
-      <c r="C287" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="D287" s="12" t="s">
+      <c r="C287" s="119" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D287" s="120" t="s">
         <v>541</v>
       </c>
-      <c r="E287" s="12" t="s">
+      <c r="E287" s="120" t="s">
         <v>465</v>
       </c>
-      <c r="F287" s="14">
+      <c r="F287" s="121">
         <v>9</v>
       </c>
-      <c r="G287" s="4" t="str">
+      <c r="G287" s="121" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">COMPANY_RATE INT DEFAULT 0, </v>
-      </c>
-      <c r="H287" s="2"/>
-      <c r="I287" s="17"/>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A288" s="11" t="s">
+        <v xml:space="preserve">--COMPANY_RATE INT DEFAULT 0, </v>
+      </c>
+      <c r="H287" s="120"/>
+      <c r="I287" s="156"/>
+    </row>
+    <row r="288" spans="1:9" s="123" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="124" t="s">
         <v>877</v>
       </c>
-      <c r="B288" s="48" t="s">
+      <c r="B288" s="162" t="s">
         <v>876</v>
       </c>
-      <c r="C288" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="D288" s="12" t="s">
+      <c r="C288" s="119" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D288" s="120" t="s">
         <v>541</v>
       </c>
-      <c r="E288" s="12" t="s">
+      <c r="E288" s="120" t="s">
         <v>466</v>
       </c>
-      <c r="F288" s="14">
+      <c r="F288" s="121">
         <v>10</v>
       </c>
-      <c r="G288" s="4" t="str">
+      <c r="G288" s="121" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">TEACHER_RATE INT DEFAULT 0, </v>
-      </c>
-      <c r="H288" s="2"/>
-      <c r="I288" s="17"/>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A289" s="11" t="s">
+        <v xml:space="preserve">--TEACHER_RATE INT DEFAULT 0, </v>
+      </c>
+      <c r="H288" s="120"/>
+      <c r="I288" s="156"/>
+    </row>
+    <row r="289" spans="1:10" s="123" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="124" t="s">
         <v>877</v>
       </c>
-      <c r="B289" s="48" t="s">
+      <c r="B289" s="162" t="s">
         <v>876</v>
       </c>
-      <c r="C289" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="D289" s="12" t="s">
+      <c r="C289" s="119" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D289" s="120" t="s">
         <v>542</v>
       </c>
-      <c r="E289" s="12" t="s">
+      <c r="E289" s="120" t="s">
         <v>467</v>
       </c>
-      <c r="F289" s="14">
+      <c r="F289" s="121">
         <v>11</v>
       </c>
-      <c r="G289" s="4" t="str">
+      <c r="G289" s="121" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">TUTOR_RATE INT DEFAULT 0, </v>
-      </c>
-      <c r="H289" s="2"/>
-      <c r="I289" s="17"/>
+        <v xml:space="preserve">--TUTOR_RATE INT DEFAULT 0, </v>
+      </c>
+      <c r="H289" s="120"/>
+      <c r="I289" s="156"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="11" t="s">
@@ -24944,10 +24962,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B78"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -24957,6 +24975,11 @@
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="B1" s="96" t="s">
+        <v>1382</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="96"/>
     </row>

--- a/src/main/webapp/resources/setting/setting_20170222.xlsx
+++ b/src/main/webapp/resources/setting/setting_20170222.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="630" windowWidth="8100" windowHeight="6225" tabRatio="727" activeTab="5"/>
+    <workbookView xWindow="8100" yWindow="630" windowWidth="8100" windowHeight="6225" tabRatio="727" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="협의사항" sheetId="42" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4476" uniqueCount="1378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4517" uniqueCount="1391">
   <si>
     <t>USE_YN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5722,6 +5722,65 @@
   </si>
   <si>
     <t>2018.11.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGOUT_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속 ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logout 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_LOGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 접속로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID,LOGIN_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE USER_LOGIN ( 
+SEQ INT NOT NULL auto_increment, 
+USER_ID VARCHAR(15), 
+LOGIN_TIME DATETIME, 
+LOGOUT_TIME DATETIME, 
+LOGIN_IP VARCHAR(15), 
+PRIMARY KEY(SEQ) );
+ALTER TABLE USER_LOGIN ADD INDEX USER_LOGIN_IDX1(USER_ID,LOGIN_TIME);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 접속 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5938,7 +5997,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6315,6 +6374,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7503,13 +7565,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R660"/>
+  <dimension ref="A1:R669"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B638" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D88" sqref="D88"/>
+      <selection pane="bottomRight" activeCell="C663" sqref="C663"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -22882,7 +22944,7 @@
         <v>122</v>
       </c>
       <c r="F594" s="14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G594" s="14" t="str">
         <f t="shared" ref="G594" si="39">IF(F594=0,"CREATE TABLE "&amp;A594&amp;" ( ",IF(F594=100,C594&amp;" );",IF(F594=200,"ALTER TABLE "&amp;A594&amp;" ADD INDEX "&amp;A594&amp;"_IDX"&amp;C594&amp;"("&amp;D594&amp;");",C594&amp;" "&amp;D594&amp;", ")))</f>
@@ -22933,8 +22995,8 @@
       <c r="E596" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="F596" s="91">
-        <v>11</v>
+      <c r="F596" s="14">
+        <v>12</v>
       </c>
       <c r="G596" s="91" t="str">
         <f t="shared" ref="G596" si="40">IF(F596=0,"CREATE TABLE "&amp;A596&amp;" ( ",IF(F596=100,C596&amp;" );",IF(F596=200,"ALTER TABLE "&amp;A596&amp;" ADD INDEX "&amp;A596&amp;"_IDX"&amp;C596&amp;"("&amp;D596&amp;");",C596&amp;" "&amp;D596&amp;", ")))</f>
@@ -22962,7 +23024,7 @@
         <v>58</v>
       </c>
       <c r="F597" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G597" s="4" t="str">
         <f t="shared" si="37"/>
@@ -22988,7 +23050,7 @@
         <v>59</v>
       </c>
       <c r="F598" s="14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G598" s="4" t="str">
         <f t="shared" si="37"/>
@@ -23014,7 +23076,7 @@
         <v>112</v>
       </c>
       <c r="F599" s="14">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G599" s="4" t="str">
         <f t="shared" si="37"/>
@@ -23040,7 +23102,7 @@
         <v>375</v>
       </c>
       <c r="F600" s="14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G600" s="4" t="str">
         <f t="shared" si="37"/>
@@ -23066,7 +23128,7 @@
         <v>120</v>
       </c>
       <c r="F601" s="14">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G601" s="4" t="str">
         <f t="shared" si="37"/>
@@ -23092,7 +23154,7 @@
         <v>565</v>
       </c>
       <c r="F602" s="14">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G602" s="4" t="str">
         <f t="shared" si="37"/>
@@ -23118,7 +23180,7 @@
         <v>549</v>
       </c>
       <c r="F603" s="14">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G603" s="4" t="str">
         <f t="shared" si="37"/>
@@ -23144,7 +23206,7 @@
         <v>550</v>
       </c>
       <c r="F604" s="14">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G604" s="4" t="str">
         <f t="shared" si="37"/>
@@ -23170,7 +23232,7 @@
         <v>760</v>
       </c>
       <c r="F605" s="14">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G605" s="4" t="str">
         <f t="shared" si="37"/>
@@ -23196,7 +23258,7 @@
         <v>763</v>
       </c>
       <c r="F606" s="14">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G606" s="4" t="str">
         <f t="shared" si="37"/>
@@ -23221,8 +23283,8 @@
       <c r="E607" s="76" t="s">
         <v>1074</v>
       </c>
-      <c r="F607" s="76">
-        <v>11</v>
+      <c r="F607" s="14">
+        <v>23</v>
       </c>
       <c r="G607" s="76" t="str">
         <f t="shared" si="37"/>
@@ -23252,7 +23314,7 @@
         <v>794</v>
       </c>
       <c r="F608" s="14">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G608" s="4" t="str">
         <f t="shared" si="37"/>
@@ -24415,7 +24477,9 @@
       <c r="A656" s="59" t="s">
         <v>1307</v>
       </c>
-      <c r="B656" s="60"/>
+      <c r="B656" s="60" t="s">
+        <v>1308</v>
+      </c>
       <c r="C656" s="39" t="s">
         <v>1326</v>
       </c>
@@ -24438,7 +24502,9 @@
       <c r="A657" s="59" t="s">
         <v>1307</v>
       </c>
-      <c r="B657" s="60"/>
+      <c r="B657" s="60" t="s">
+        <v>1308</v>
+      </c>
       <c r="C657" s="39" t="s">
         <v>1329</v>
       </c>
@@ -24461,8 +24527,8 @@
       <c r="A658" s="59" t="s">
         <v>1307</v>
       </c>
-      <c r="B658" s="52" t="s">
-        <v>855</v>
+      <c r="B658" s="60" t="s">
+        <v>1308</v>
       </c>
       <c r="C658" s="39" t="s">
         <v>172</v>
@@ -24528,6 +24594,226 @@
         <f t="shared" si="46"/>
         <v>PRIMARY KEY(SEQ) );</v>
       </c>
+    </row>
+    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A661" s="20" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B661" s="52" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C661" s="39"/>
+      <c r="D661" s="14"/>
+      <c r="E661" s="14"/>
+      <c r="F661" s="14">
+        <v>0</v>
+      </c>
+      <c r="G661" s="4" t="str">
+        <f t="shared" ref="G661:G663" si="52">IF(F661=0,"CREATE TABLE "&amp;A661&amp;" ( ",IF(F661=100,C661&amp;" );",IF(F661=200,"ALTER TABLE "&amp;A661&amp;" ADD INDEX "&amp;A661&amp;"_IDX"&amp;C661&amp;"("&amp;D661&amp;");",C661&amp;" "&amp;D661&amp;", ")))</f>
+        <v xml:space="preserve">CREATE TABLE USER_LOGIN ( </v>
+      </c>
+      <c r="H661" s="4"/>
+      <c r="I661" s="127"/>
+    </row>
+    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A662" s="20" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B662" s="52" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C662" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D662" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E662" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F662" s="14">
+        <v>1</v>
+      </c>
+      <c r="G662" s="4" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">SEQ INT NOT NULL auto_increment, </v>
+      </c>
+      <c r="H662" s="4"/>
+      <c r="I662" s="127"/>
+    </row>
+    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A663" s="20" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B663" s="52" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C663" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="D663" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E663" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F663" s="14">
+        <v>2</v>
+      </c>
+      <c r="G663" s="4" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">USER_ID VARCHAR(15), </v>
+      </c>
+      <c r="H663" s="4"/>
+      <c r="I663" s="127"/>
+    </row>
+    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A664" s="20" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B664" s="52" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C664" s="39" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D664" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E664" s="14" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F664" s="14">
+        <v>3</v>
+      </c>
+      <c r="G664" s="4" t="str">
+        <f>IF(F664=0,"CREATE TABLE "&amp;A664&amp;" ( ",IF(F664=100,C664&amp;" );",IF(F664=200,"ALTER TABLE "&amp;A664&amp;" ADD INDEX "&amp;A664&amp;"_IDX"&amp;C664&amp;"("&amp;D664&amp;");",C664&amp;" "&amp;D664&amp;", ")))</f>
+        <v xml:space="preserve">LOGIN_TIME DATETIME, </v>
+      </c>
+      <c r="H664" s="4"/>
+      <c r="I664" s="127"/>
+    </row>
+    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A665" s="20" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B665" s="52" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C665" s="39" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D665" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E665" s="14" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F665" s="14">
+        <v>4</v>
+      </c>
+      <c r="G665" s="4" t="str">
+        <f>IF(F665=0,"CREATE TABLE "&amp;A665&amp;" ( ",IF(F665=100,C665&amp;" );",IF(F665=200,"ALTER TABLE "&amp;A665&amp;" ADD INDEX "&amp;A665&amp;"_IDX"&amp;C665&amp;"("&amp;D665&amp;");",C665&amp;" "&amp;D665&amp;", ")))</f>
+        <v xml:space="preserve">LOGOUT_TIME DATETIME, </v>
+      </c>
+      <c r="H665" s="4"/>
+      <c r="I665" s="127"/>
+    </row>
+    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A666" s="20" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B666" s="52" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C666" s="39" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D666" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E666" s="14" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F666" s="14">
+        <v>5</v>
+      </c>
+      <c r="G666" s="4" t="str">
+        <f>IF(F666=0,"CREATE TABLE "&amp;A666&amp;" ( ",IF(F666=100,C666&amp;" );",IF(F666=200,"ALTER TABLE "&amp;A666&amp;" ADD INDEX "&amp;A666&amp;"_IDX"&amp;C666&amp;"("&amp;D666&amp;");",C666&amp;" "&amp;D666&amp;", ")))</f>
+        <v xml:space="preserve">LAST_TIME DATETIME, </v>
+      </c>
+      <c r="H666" s="4"/>
+      <c r="I666" s="127"/>
+    </row>
+    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A667" s="20" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B667" s="52" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C667" s="39" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D667" s="14" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E667" s="14" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F667" s="14">
+        <v>6</v>
+      </c>
+      <c r="G667" s="4" t="str">
+        <f>IF(F667=0,"CREATE TABLE "&amp;A667&amp;" ( ",IF(F667=100,C667&amp;" );",IF(F667=200,"ALTER TABLE "&amp;A667&amp;" ADD INDEX "&amp;A667&amp;"_IDX"&amp;C667&amp;"("&amp;D667&amp;");",C667&amp;" "&amp;D667&amp;", ")))</f>
+        <v xml:space="preserve">LOGIN_IP VARCHAR(15), </v>
+      </c>
+      <c r="H667" s="4"/>
+      <c r="I667" s="127"/>
+    </row>
+    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A668" s="20" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B668" s="52" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C668" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D668" s="14"/>
+      <c r="E668" s="14"/>
+      <c r="F668" s="14">
+        <v>100</v>
+      </c>
+      <c r="G668" s="4" t="str">
+        <f t="shared" ref="G668:G669" si="53">IF(F668=0,"CREATE TABLE "&amp;A668&amp;" ( ",IF(F668=100,C668&amp;" );",IF(F668=200,"ALTER TABLE "&amp;A668&amp;" ADD INDEX "&amp;A668&amp;"_IDX"&amp;C668&amp;"("&amp;D668&amp;");",C668&amp;" "&amp;D668&amp;", ")))</f>
+        <v>PRIMARY KEY(SEQ) );</v>
+      </c>
+    </row>
+    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A669" s="20" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B669" s="52" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C669" s="44">
+        <v>1</v>
+      </c>
+      <c r="D669" s="6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E669" s="6"/>
+      <c r="F669" s="6">
+        <v>200</v>
+      </c>
+      <c r="G669" s="4" t="str">
+        <f t="shared" si="53"/>
+        <v>ALTER TABLE USER_LOGIN ADD INDEX USER_LOGIN_IDX1(USER_ID,LOGIN_TIME);</v>
+      </c>
+      <c r="H669" s="4"/>
+      <c r="I669" s="127"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1"/>
@@ -24560,8 +24846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -24571,8 +24857,10 @@
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="84"/>
+    <row r="1" spans="2:2" ht="96" x14ac:dyDescent="0.3">
+      <c r="B1" s="84" t="s">
+        <v>1388</v>
+      </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="84"/>
@@ -25482,7 +25770,7 @@
       <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="133" t="s">
         <v>597</v>
       </c>
       <c r="B2" s="2"/>
@@ -25515,7 +25803,7 @@
       <c r="S2" s="23"/>
     </row>
     <row r="3" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="132"/>
+      <c r="A3" s="133"/>
       <c r="B3" s="32" t="str">
         <f t="shared" ref="B3:B18" si="0">"INSERT INTO CATEGORY("&amp;$C$2&amp;","&amp;$D$2&amp;","&amp;$E$2&amp;","&amp;$F$2&amp;","&amp;$G$2&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C01','IT','','1','Y',NOW(),'ADMIN');</v>
@@ -25547,7 +25835,7 @@
       <c r="S3" s="23"/>
     </row>
     <row r="4" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="132"/>
+      <c r="A4" s="133"/>
       <c r="B4" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C02','자격대비','','1','Y',NOW(),'ADMIN');</v>
@@ -25579,7 +25867,7 @@
       <c r="S4" s="23"/>
     </row>
     <row r="5" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="132"/>
+      <c r="A5" s="133"/>
       <c r="B5" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C03','경영/비즈니스','','1','Y',NOW(),'ADMIN');</v>
@@ -25611,7 +25899,7 @@
       <c r="S5" s="23"/>
     </row>
     <row r="6" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="132"/>
+      <c r="A6" s="133"/>
       <c r="B6" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C04','아카데미 시리즈','','1','Y',NOW(),'ADMIN');</v>
@@ -25643,7 +25931,7 @@
       <c r="S6" s="23"/>
     </row>
     <row r="7" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="132"/>
+      <c r="A7" s="133"/>
       <c r="B7" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0101','보안','C01','2','Y',NOW(),'ADMIN');</v>
@@ -25678,7 +25966,7 @@
       <c r="S7" s="23"/>
     </row>
     <row r="8" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132"/>
+      <c r="A8" s="133"/>
       <c r="B8" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0102','프로그래밍','C01','2','Y',NOW(),'ADMIN');</v>
@@ -25713,7 +26001,7 @@
       <c r="S8" s="23"/>
     </row>
     <row r="9" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="132"/>
+      <c r="A9" s="133"/>
       <c r="B9" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0103','모바일','C01','2','Y',NOW(),'ADMIN');</v>
@@ -25748,7 +26036,7 @@
       <c r="S9" s="23"/>
     </row>
     <row r="10" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="132"/>
+      <c r="A10" s="133"/>
       <c r="B10" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0104','OS','C01','2','Y',NOW(),'ADMIN');</v>
@@ -25783,7 +26071,7 @@
       <c r="S10" s="23"/>
     </row>
     <row r="11" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="132"/>
+      <c r="A11" s="133"/>
       <c r="B11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0105','DB','C01','2','Y',NOW(),'ADMIN');</v>
@@ -25818,7 +26106,7 @@
       <c r="S11" s="23"/>
     </row>
     <row r="12" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="132"/>
+      <c r="A12" s="133"/>
       <c r="B12" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0106','네트워크','C01','2','Y',NOW(),'ADMIN');</v>
@@ -25853,7 +26141,7 @@
       <c r="S12" s="23"/>
     </row>
     <row r="13" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="132"/>
+      <c r="A13" s="133"/>
       <c r="B13" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0201','경영 자격증','C02','2','Y',NOW(),'ADMIN');</v>
@@ -25888,7 +26176,7 @@
       <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="132"/>
+      <c r="A14" s="133"/>
       <c r="B14" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0202','IT 자격증','C02','2','Y',NOW(),'ADMIN');</v>
@@ -25923,7 +26211,7 @@
       <c r="S14" s="23"/>
     </row>
     <row r="15" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="132"/>
+      <c r="A15" s="133"/>
       <c r="B15" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0301','경영직무','C03','2','Y',NOW(),'ADMIN');</v>
@@ -25958,7 +26246,7 @@
       <c r="S15" s="23"/>
     </row>
     <row r="16" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="132"/>
+      <c r="A16" s="133"/>
       <c r="B16" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0302','Biz 스킬','C03','2','Y',NOW(),'ADMIN');</v>
@@ -25993,7 +26281,7 @@
       <c r="S16" s="23"/>
     </row>
     <row r="17" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="132"/>
+      <c r="A17" s="133"/>
       <c r="B17" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0303','리더쉽','C03','2','Y',NOW(),'ADMIN');</v>
@@ -26028,7 +26316,7 @@
       <c r="S17" s="23"/>
     </row>
     <row r="18" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="132"/>
+      <c r="A18" s="133"/>
       <c r="B18" s="32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010201','HTML','C0102','3','Y',NOW(),'ADMIN');</v>
@@ -26063,7 +26351,7 @@
       <c r="S18" s="23"/>
     </row>
     <row r="19" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="132"/>
+      <c r="A19" s="133"/>
       <c r="B19" s="32" t="str">
         <f>"INSERT INTO CATEGORY("&amp;$C$2&amp;","&amp;$D$2&amp;","&amp;$E$2&amp;","&amp;$F$2&amp;","&amp;$G$2&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"','"&amp;F19&amp;"','"&amp;G19&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010202','JAVA','C0102','3','Y',NOW(),'ADMIN');</v>
@@ -26098,7 +26386,7 @@
       <c r="S19" s="23"/>
     </row>
     <row r="20" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="132"/>
+      <c r="A20" s="133"/>
       <c r="B20" s="32" t="str">
         <f t="shared" ref="B20:B27" si="3">"INSERT INTO CATEGORY("&amp;$C$2&amp;","&amp;$D$2&amp;","&amp;$E$2&amp;","&amp;$F$2&amp;","&amp;$G$2&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C20&amp;"','"&amp;D20&amp;"','"&amp;E20&amp;"','"&amp;F20&amp;"','"&amp;G20&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010203','.Net','C0102','3','Y',NOW(),'ADMIN');</v>
@@ -26133,7 +26421,7 @@
       <c r="S20" s="23"/>
     </row>
     <row r="21" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="132"/>
+      <c r="A21" s="133"/>
       <c r="B21" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010204','Web Programming','C0102','3','Y',NOW(),'ADMIN');</v>
@@ -26168,7 +26456,7 @@
       <c r="S21" s="23"/>
     </row>
     <row r="22" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="132"/>
+      <c r="A22" s="133"/>
       <c r="B22" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010205','Visual Basic','C0102','3','Y',NOW(),'ADMIN');</v>
@@ -26203,7 +26491,7 @@
       <c r="S22" s="23"/>
     </row>
     <row r="23" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="132"/>
+      <c r="A23" s="133"/>
       <c r="B23" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010501','Oracle','C0105','3','Y',NOW(),'ADMIN');</v>
@@ -26238,7 +26526,7 @@
       <c r="S23" s="23"/>
     </row>
     <row r="24" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="132"/>
+      <c r="A24" s="133"/>
       <c r="B24" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C010502','Ms Sql','C0105','3','Y',NOW(),'ADMIN');</v>
@@ -26273,7 +26561,7 @@
       <c r="S24" s="23"/>
     </row>
     <row r="25" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="132"/>
+      <c r="A25" s="133"/>
       <c r="B25" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C05','대분류1','','1','Y',NOW(),'ADMIN');</v>
@@ -26305,7 +26593,7 @@
       <c r="S25" s="23"/>
     </row>
     <row r="26" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="132"/>
+      <c r="A26" s="133"/>
       <c r="B26" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C06','대분류2','','1','Y',NOW(),'ADMIN');</v>
@@ -26337,7 +26625,7 @@
       <c r="S26" s="23"/>
     </row>
     <row r="27" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="132"/>
+      <c r="A27" s="133"/>
       <c r="B27" s="32" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO CATEGORY(CODE,CODE_NAME,PARENT_CODE,DEPTH,USE_YN,CREATE_DATE,CREATE_USER) VALUES('C0601','대분류2-1','C06','2','Y',NOW(),'ADMIN');</v>
@@ -26371,7 +26659,7 @@
       <c r="S27" s="23"/>
     </row>
     <row r="28" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="132"/>
+      <c r="A28" s="133"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -26392,7 +26680,7 @@
       <c r="S28" s="23"/>
     </row>
     <row r="29" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="132"/>
+      <c r="A29" s="133"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -26413,7 +26701,7 @@
       <c r="S29" s="23"/>
     </row>
     <row r="30" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="132" t="s">
+      <c r="A30" s="133" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -26462,7 +26750,7 @@
       <c r="S30" s="23"/>
     </row>
     <row r="31" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="132"/>
+      <c r="A31" s="133"/>
       <c r="B31" s="30" t="str">
         <f>"INSERT INTO COURSE_CODE("&amp;$C$30&amp;","&amp;$D$30&amp;","&amp;$E$30&amp;","&amp;$F$30&amp;","&amp;$G$30&amp;","&amp;$H$30&amp;","&amp;$I$30&amp;","&amp;$J$30&amp;","&amp;$K$30&amp;","&amp;$L$30&amp;","&amp;$M$30&amp;","&amp;$N$30&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C31&amp;"','"&amp;D31&amp;"','"&amp;E31&amp;"','"&amp;F31&amp;"','"&amp;G31&amp;"','"&amp;H31&amp;"','"&amp;I31&amp;"','"&amp;J31&amp;"','"&amp;K31&amp;"','"&amp;L31&amp;"','"&amp;M31&amp;"','"&amp;N31&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_CODE(COURSE_CODE,COURSE_NAME,TEACHER_ID,H_PX,V_PX,CODE,USE_YN,DIRECTORY,COMPANY_RATE,TEACHER_RATE,TUTOR_RATE,POINT,CREATE_DATE,CREATE_USER) VALUES('C010202001','Java Master','teacher1','1000','900','C010202','Y','C010202001','80','10','10','0',NOW(),'ADMIN');</v>
@@ -26510,7 +26798,7 @@
       <c r="S31" s="23"/>
     </row>
     <row r="32" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="132"/>
+      <c r="A32" s="133"/>
       <c r="B32" s="30" t="str">
         <f t="shared" ref="B32:B33" si="4">"INSERT INTO COURSE_CODE("&amp;$C$30&amp;","&amp;$D$30&amp;","&amp;$E$30&amp;","&amp;$F$30&amp;","&amp;$G$30&amp;","&amp;$H$30&amp;","&amp;$I$30&amp;","&amp;$J$30&amp;","&amp;$K$30&amp;","&amp;$L$30&amp;","&amp;$M$30&amp;","&amp;$N$30&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C32&amp;"','"&amp;D32&amp;"','"&amp;E32&amp;"','"&amp;F32&amp;"','"&amp;G32&amp;"','"&amp;H32&amp;"','"&amp;I32&amp;"','"&amp;J32&amp;"','"&amp;K32&amp;"','"&amp;L32&amp;"','"&amp;M32&amp;"','"&amp;N32&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_CODE(COURSE_CODE,COURSE_NAME,TEACHER_ID,H_PX,V_PX,CODE,USE_YN,DIRECTORY,COMPANY_RATE,TEACHER_RATE,TUTOR_RATE,POINT,CREATE_DATE,CREATE_USER) VALUES('C010202002','Java 실무 과정','teacher2','1000','900','C010202','Y','C010202001','80','10','10','0',NOW(),'ADMIN');</v>
@@ -26558,7 +26846,7 @@
       <c r="S32" s="23"/>
     </row>
     <row r="33" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="132"/>
+      <c r="A33" s="133"/>
       <c r="B33" s="30" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO COURSE_CODE(COURSE_CODE,COURSE_NAME,TEACHER_ID,H_PX,V_PX,CODE,USE_YN,DIRECTORY,COMPANY_RATE,TEACHER_RATE,TUTOR_RATE,POINT,CREATE_DATE,CREATE_USER) VALUES('C010202003','Java 기초 문법','teacher3','1000','900','C010202','Y','C010202001','80','10','10','0',NOW(),'ADMIN');</v>
@@ -26606,7 +26894,7 @@
       <c r="S33" s="23"/>
     </row>
     <row r="34" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="132"/>
+      <c r="A34" s="133"/>
       <c r="B34" s="2"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -26627,7 +26915,7 @@
       <c r="S34" s="23"/>
     </row>
     <row r="35" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="132"/>
+      <c r="A35" s="133"/>
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
@@ -26648,7 +26936,7 @@
       <c r="S35" s="23"/>
     </row>
     <row r="36" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="133" t="s">
+      <c r="A36" s="134" t="s">
         <v>563</v>
       </c>
       <c r="B36" s="23" t="s">
@@ -26699,7 +26987,7 @@
       <c r="S36" s="23"/>
     </row>
     <row r="37" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="133"/>
+      <c r="A37" s="134"/>
       <c r="B37" s="30" t="str">
         <f>"INSERT INTO COURSE_MASTER("&amp;$C$36&amp;","&amp;$D$36&amp;","&amp;$E$36&amp;","&amp;$F$36&amp;","&amp;$G$36&amp;","&amp;$H$36&amp;","&amp;$I$36&amp;","&amp;$J$36&amp;","&amp;$K$36&amp;","&amp;$L$36&amp;","&amp;$M$36&amp;","&amp;$N$36&amp;","&amp;$O$36&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C37&amp;"','"&amp;D37&amp;"','"&amp;E37&amp;"','"&amp;F37&amp;"','"&amp;G37&amp;"','"&amp;H37&amp;"','"&amp;I37&amp;"','"&amp;J37&amp;"','"&amp;K37&amp;"','"&amp;L37&amp;"','"&amp;M37&amp;"','"&amp;N37&amp;"','"&amp;O37&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_MASTER(COURSE_CODE,TUTOR_ID,HTML_YN,LEARING_GOAL,LEARING_CONTENT,EVAL_METHOD,LEARING_TARGET,LEARING_COST,COURSE_COST,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,CREATE_DATE,CREATE_USER) VALUES('C010202001','TUTOR1','N','LEARING_GOAL','LEARING_CONTENT','EVAL_METHOD','LEARING_TARGET','LEARING_COST','50000','0','0','0','100',NOW(),'ADMIN');</v>
@@ -26749,7 +27037,7 @@
       <c r="S37" s="23"/>
     </row>
     <row r="38" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="133"/>
+      <c r="A38" s="134"/>
       <c r="B38" s="30" t="str">
         <f t="shared" ref="B38:B39" si="5">"INSERT INTO COURSE_MASTER("&amp;$C$36&amp;","&amp;$D$36&amp;","&amp;$E$36&amp;","&amp;$F$36&amp;","&amp;$G$36&amp;","&amp;$H$36&amp;","&amp;$I$36&amp;","&amp;$J$36&amp;","&amp;$K$36&amp;","&amp;$L$36&amp;","&amp;$M$36&amp;","&amp;$N$36&amp;","&amp;$O$36&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C38&amp;"','"&amp;D38&amp;"','"&amp;E38&amp;"','"&amp;F38&amp;"','"&amp;G38&amp;"','"&amp;H38&amp;"','"&amp;I38&amp;"','"&amp;J38&amp;"','"&amp;K38&amp;"','"&amp;L38&amp;"','"&amp;M38&amp;"','"&amp;N38&amp;"','"&amp;O38&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_MASTER(COURSE_CODE,TUTOR_ID,HTML_YN,LEARING_GOAL,LEARING_CONTENT,EVAL_METHOD,LEARING_TARGET,LEARING_COST,COURSE_COST,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,CREATE_DATE,CREATE_USER) VALUES('C010202002','TUTOR2','N','LEARING_GOAL','LEARING_CONTENT','EVAL_METHOD','LEARING_TARGET','LEARING_COST','50000','0','0','0','100',NOW(),'ADMIN');</v>
@@ -26799,7 +27087,7 @@
       <c r="S38" s="23"/>
     </row>
     <row r="39" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="133"/>
+      <c r="A39" s="134"/>
       <c r="B39" s="30" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO COURSE_MASTER(COURSE_CODE,TUTOR_ID,HTML_YN,LEARING_GOAL,LEARING_CONTENT,EVAL_METHOD,LEARING_TARGET,LEARING_COST,COURSE_COST,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,CREATE_DATE,CREATE_USER) VALUES('C010202003','TUTOR3','N','LEARING_GOAL','LEARING_CONTENT','EVAL_METHOD','LEARING_TARGET','LEARING_COST','50000','0','0','0','100',NOW(),'ADMIN');</v>
@@ -26849,7 +27137,7 @@
       <c r="S39" s="23"/>
     </row>
     <row r="40" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="133"/>
+      <c r="A40" s="134"/>
       <c r="B40" s="4"/>
       <c r="C40" s="31"/>
       <c r="D40" s="26"/>
@@ -26870,7 +27158,7 @@
       <c r="S40" s="23"/>
     </row>
     <row r="41" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="133"/>
+      <c r="A41" s="134"/>
       <c r="B41" s="4"/>
       <c r="C41" s="31"/>
       <c r="D41" s="26"/>
@@ -26891,7 +27179,7 @@
       <c r="S41" s="23"/>
     </row>
     <row r="42" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="129" t="s">
+      <c r="A42" s="130" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -26940,7 +27228,7 @@
       <c r="S42" s="23"/>
     </row>
     <row r="43" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="130"/>
+      <c r="A43" s="131"/>
       <c r="B43" s="30" t="str">
         <f>"INSERT INTO COURSE("&amp;$C$42&amp;","&amp;$D$42&amp;","&amp;$E$42&amp;","&amp;$F$42&amp;","&amp;$G$42&amp;","&amp;$H$42&amp;","&amp;$I$42&amp;","&amp;$J$42&amp;","&amp;$K$42&amp;","&amp;$L$42&amp;","&amp;$M$42&amp;","&amp;$N$42&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C43&amp;"','"&amp;D43&amp;"','"&amp;E43&amp;"','"&amp;F43&amp;"','"&amp;G43&amp;"','"&amp;H43&amp;"','"&amp;I43&amp;"','"&amp;J43&amp;"','"&amp;K43&amp;"','"&amp;L43&amp;"','"&amp;M43&amp;"','"&amp;N43&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('1','C010202001','NORMAL','50000','50000','','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -26986,7 +27274,7 @@
       <c r="S43" s="23"/>
     </row>
     <row r="44" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="130"/>
+      <c r="A44" s="131"/>
       <c r="B44" s="30" t="str">
         <f t="shared" ref="B44:B49" si="6">"INSERT INTO COURSE("&amp;$C$42&amp;","&amp;$D$42&amp;","&amp;$E$42&amp;","&amp;$F$42&amp;","&amp;$G$42&amp;","&amp;$H$42&amp;","&amp;$I$42&amp;","&amp;$J$42&amp;","&amp;$K$42&amp;","&amp;$L$42&amp;","&amp;$M$42&amp;","&amp;$N$42&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C44&amp;"','"&amp;D44&amp;"','"&amp;E44&amp;"','"&amp;F44&amp;"','"&amp;G44&amp;"','"&amp;H44&amp;"','"&amp;I44&amp;"','"&amp;J44&amp;"','"&amp;K44&amp;"','"&amp;L44&amp;"','"&amp;M44&amp;"','"&amp;N44&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('2','C010202001','NORMAL','50000','50000','','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -27032,7 +27320,7 @@
       <c r="S44" s="23"/>
     </row>
     <row r="45" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="130"/>
+      <c r="A45" s="131"/>
       <c r="B45" s="30" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('3','C010202002','NORMAL','50000','50000','','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -27078,7 +27366,7 @@
       <c r="S45" s="23"/>
     </row>
     <row r="46" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="130"/>
+      <c r="A46" s="131"/>
       <c r="B46" s="30" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('4','C010202002','NORMAL','50000','50000','','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -27124,7 +27412,7 @@
       <c r="S46" s="23"/>
     </row>
     <row r="47" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="130"/>
+      <c r="A47" s="131"/>
       <c r="B47" s="30" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('6','C010202003','COMPANY','50000','50000','COMP1','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -27172,7 +27460,7 @@
       <c r="S47" s="23"/>
     </row>
     <row r="48" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="130"/>
+      <c r="A48" s="131"/>
       <c r="B48" s="30" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('7','C010202003','COMPANY','50000','50000','COMP2','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -27220,7 +27508,7 @@
       <c r="S48" s="23"/>
     </row>
     <row r="49" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="130"/>
+      <c r="A49" s="131"/>
       <c r="B49" s="30" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO COURSE(COURSE_ID,COURSE_CODE,COURSE_KIND,COURSE_COST,TUTOR_ID,COMP_CD,REPORT_RATE,EXAM_RATE,DISCUSSION_RATE,PROGRESS_RATE,OPEN_YN,C_PERIOD,CREATE_DATE,CREATE_USER) VALUES('8','C010202003','COMPANY','50000','50000','COMP3','0','0','0','100','Y','40',NOW(),'ADMIN');</v>
@@ -27268,7 +27556,7 @@
       <c r="S49" s="23"/>
     </row>
     <row r="50" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="130"/>
+      <c r="A50" s="131"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
@@ -27289,7 +27577,7 @@
       <c r="S50" s="23"/>
     </row>
     <row r="51" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="131"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
@@ -27310,7 +27598,7 @@
       <c r="S51" s="23"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A52" s="129" t="s">
+      <c r="A52" s="130" t="s">
         <v>582</v>
       </c>
       <c r="B52" s="29"/>
@@ -27353,7 +27641,7 @@
       <c r="S52" s="2"/>
     </row>
     <row r="53" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="130"/>
+      <c r="A53" s="131"/>
       <c r="B53" s="30" t="str">
         <f>"INSERT INTO COURSE_REGISTER("&amp;$C$52&amp;","&amp;$D$52&amp;","&amp;$E$52&amp;","&amp;$F$52&amp;","&amp;$G$52&amp;","&amp;$H$52&amp;","&amp;$I$52&amp;","&amp;$J$52&amp;","&amp;$K$52&amp;","&amp;$L$52&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C53&amp;"','"&amp;D53&amp;"','"&amp;E53&amp;"','"&amp;F53&amp;"','"&amp;G53&amp;"','"&amp;H53&amp;"','"&amp;I53&amp;"','"&amp;J53&amp;"','"&amp;K53&amp;"','"&amp;L53&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('1','USER001','A','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27395,7 +27683,7 @@
       <c r="S53" s="2"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="130"/>
+      <c r="A54" s="131"/>
       <c r="B54" s="30" t="str">
         <f t="shared" ref="B54:B70" si="7">"INSERT INTO COURSE_REGISTER("&amp;$C$52&amp;","&amp;$D$52&amp;","&amp;$E$52&amp;","&amp;$F$52&amp;","&amp;$G$52&amp;","&amp;$H$52&amp;","&amp;$I$52&amp;","&amp;$J$52&amp;","&amp;$K$52&amp;","&amp;$L$52&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C54&amp;"','"&amp;D54&amp;"','"&amp;E54&amp;"','"&amp;F54&amp;"','"&amp;G54&amp;"','"&amp;H54&amp;"','"&amp;I54&amp;"','"&amp;J54&amp;"','"&amp;K54&amp;"','"&amp;L54&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('1','USER002','A','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27437,7 +27725,7 @@
       <c r="S54" s="2"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="130"/>
+      <c r="A55" s="131"/>
       <c r="B55" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('1','USER003','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27479,7 +27767,7 @@
       <c r="S55" s="2"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="130"/>
+      <c r="A56" s="131"/>
       <c r="B56" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('2','USER002','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27521,7 +27809,7 @@
       <c r="S56" s="2"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="130"/>
+      <c r="A57" s="131"/>
       <c r="B57" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('3','USER003','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27563,7 +27851,7 @@
       <c r="S57" s="2"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="130"/>
+      <c r="A58" s="131"/>
       <c r="B58" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('4','USER004','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27605,7 +27893,7 @@
       <c r="S58" s="2"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="130"/>
+      <c r="A59" s="131"/>
       <c r="B59" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('5','USER005','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27647,7 +27935,7 @@
       <c r="S59" s="2"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="130"/>
+      <c r="A60" s="131"/>
       <c r="B60" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('6','COMP1','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27689,7 +27977,7 @@
       <c r="S60" s="2"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="130"/>
+      <c r="A61" s="131"/>
       <c r="B61" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('6','COMP_T_7','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27731,7 +28019,7 @@
       <c r="S61" s="2"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="130"/>
+      <c r="A62" s="131"/>
       <c r="B62" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('6','COMP_T_8','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27773,7 +28061,7 @@
       <c r="S62" s="2"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="130"/>
+      <c r="A63" s="131"/>
       <c r="B63" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('6','COMP_T_9','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27815,7 +28103,7 @@
       <c r="S63" s="2"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A64" s="130"/>
+      <c r="A64" s="131"/>
       <c r="B64" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('6','COMP_T_10','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27857,7 +28145,7 @@
       <c r="S64" s="2"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A65" s="130"/>
+      <c r="A65" s="131"/>
       <c r="B65" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('7','COMP2','A','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27899,7 +28187,7 @@
       <c r="S65" s="2"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A66" s="130"/>
+      <c r="A66" s="131"/>
       <c r="B66" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('8','COMP3','A','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27941,7 +28229,7 @@
       <c r="S66" s="2"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A67" s="130"/>
+      <c r="A67" s="131"/>
       <c r="B67" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('1','USER004','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -27983,7 +28271,7 @@
       <c r="S67" s="2"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A68" s="130"/>
+      <c r="A68" s="131"/>
       <c r="B68" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('13','USER001','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -28025,7 +28313,7 @@
       <c r="S68" s="2"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A69" s="130"/>
+      <c r="A69" s="131"/>
       <c r="B69" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('13','USER002','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -28067,7 +28355,7 @@
       <c r="S69" s="2"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A70" s="130"/>
+      <c r="A70" s="131"/>
       <c r="B70" s="30" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO COURSE_REGISTER(COURSE_ID,USER_ID,STATUS,COURSE_COST,COMPANY_COST,TEACHER_COST,TUTOR_COST,APPROVAL_ID,CONFIRM_DATE,COST_ID,CREATE_DATE,CREATE_USER) VALUES('13','USER003','Y','0','0','0','0','0','','0',NOW(),'ADMIN');</v>
@@ -28109,7 +28397,7 @@
       <c r="S70" s="2"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A71" s="130"/>
+      <c r="A71" s="131"/>
       <c r="B71" s="30"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
@@ -28130,7 +28418,7 @@
       <c r="S71" s="2"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A72" s="131"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="30"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
@@ -28151,7 +28439,7 @@
       <c r="S72" s="2"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A73" s="134" t="s">
+      <c r="A73" s="135" t="s">
         <v>65</v>
       </c>
       <c r="B73" s="14" t="s">
@@ -28228,7 +28516,7 @@
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A74" s="135"/>
+      <c r="A74" s="136"/>
       <c r="B74" s="30" t="str">
         <f>"INSERT INTO USER("&amp;$C$73&amp;","&amp;$D$73&amp;","&amp;$E$73&amp;","&amp;$F$73&amp;","&amp;$G$73&amp;","&amp;$H$73&amp;","&amp;$I$73&amp;","&amp;$K$73&amp;","&amp;$L$73&amp;","&amp;$M$73&amp;","&amp;$N$73&amp;","&amp;$O$73&amp;","&amp;$P$73&amp;","&amp;$Q$73&amp;","&amp;$R$73&amp;","&amp;$S$73&amp;","&amp;$T$73&amp;","&amp;$U$73&amp;","&amp;$V$73&amp;","&amp;$W$73&amp;","&amp;$X$73&amp;","&amp;$Y$73&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C74&amp;"','"&amp;D74&amp;"','"&amp;E74&amp;"','"&amp;F74&amp;"','"&amp;G74&amp;"','"&amp;H74&amp;"',"&amp;I74&amp;",'"&amp;K74&amp;"','"&amp;L74&amp;"','"&amp;M74&amp;"','"&amp;N74&amp;"','"&amp;O74&amp;"','"&amp;P74&amp;"','"&amp;Q74&amp;"','"&amp;R74&amp;"','"&amp;S74&amp;"','"&amp;T74&amp;"','"&amp;U74&amp;"','"&amp;V74&amp;"','"&amp;W74&amp;"','"&amp;X74&amp;"','"&amp;Y74&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('admin','어드민','A','N','N','limsm9449@naver.com',PASSWORD(1),'','','','','','','010','1111','0001','','','N','','','',NOW(),'ADMIN');</v>
@@ -28275,7 +28563,7 @@
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A75" s="135"/>
+      <c r="A75" s="136"/>
       <c r="B75" s="30" t="str">
         <f>"INSERT INTO USER("&amp;$C$73&amp;","&amp;$D$73&amp;","&amp;$E$73&amp;","&amp;$F$73&amp;","&amp;$G$73&amp;","&amp;$H$73&amp;","&amp;$I$73&amp;","&amp;$K$73&amp;","&amp;$L$73&amp;","&amp;$M$73&amp;","&amp;$N$73&amp;","&amp;$O$73&amp;","&amp;$P$73&amp;","&amp;$Q$73&amp;","&amp;$R$73&amp;","&amp;$S$73&amp;","&amp;$T$73&amp;","&amp;$U$73&amp;","&amp;$V$73&amp;","&amp;$W$73&amp;","&amp;$X$73&amp;","&amp;$Y$73&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C75&amp;"','"&amp;D75&amp;"','"&amp;E75&amp;"','"&amp;F75&amp;"','"&amp;G75&amp;"','"&amp;H75&amp;"',"&amp;I75&amp;",'"&amp;K75&amp;"','"&amp;L75&amp;"','"&amp;M75&amp;"','"&amp;N75&amp;"','"&amp;O75&amp;"','"&amp;P75&amp;"','"&amp;Q75&amp;"','"&amp;R75&amp;"','"&amp;S75&amp;"','"&amp;T75&amp;"','"&amp;U75&amp;"','"&amp;V75&amp;"','"&amp;W75&amp;"','"&amp;X75&amp;"','"&amp;Y75&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('admin2','어드민','C','N','N','limsm9449@naver.com',PASSWORD(1),'','','','','','','010','1111','0001','','','N','','','',NOW(),'ADMIN');</v>
@@ -28322,7 +28610,7 @@
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A76" s="135"/>
+      <c r="A76" s="136"/>
       <c r="B76" s="30" t="str">
         <f>"INSERT INTO USER("&amp;$C$73&amp;","&amp;$D$73&amp;","&amp;$E$73&amp;","&amp;$F$73&amp;","&amp;$G$73&amp;","&amp;$H$73&amp;","&amp;$I$73&amp;","&amp;$K$73&amp;","&amp;$L$73&amp;","&amp;$M$73&amp;","&amp;$N$73&amp;","&amp;$O$73&amp;","&amp;$P$73&amp;","&amp;$Q$73&amp;","&amp;$R$73&amp;","&amp;$S$73&amp;","&amp;$T$73&amp;","&amp;$U$73&amp;","&amp;$V$73&amp;","&amp;$W$73&amp;","&amp;$X$73&amp;","&amp;$Y$73&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C76&amp;"','"&amp;D76&amp;"','"&amp;E76&amp;"','"&amp;F76&amp;"','"&amp;G76&amp;"','"&amp;H76&amp;"',"&amp;I76&amp;",'"&amp;K76&amp;"','"&amp;L76&amp;"','"&amp;M76&amp;"','"&amp;N76&amp;"','"&amp;O76&amp;"','"&amp;P76&amp;"','"&amp;Q76&amp;"','"&amp;R76&amp;"','"&amp;S76&amp;"','"&amp;T76&amp;"','"&amp;U76&amp;"','"&amp;V76&amp;"','"&amp;W76&amp;"','"&amp;X76&amp;"','"&amp;Y76&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('admin3','어드민','M','N','N','limsm9449@naver.com',PASSWORD(1),'','','','','','','010','1111','0001','','','N','','','',NOW(),'ADMIN');</v>
@@ -28369,7 +28657,7 @@
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A77" s="135"/>
+      <c r="A77" s="136"/>
       <c r="B77" s="30" t="str">
         <f t="shared" ref="B77:B116" si="8">"INSERT INTO USER("&amp;$C$73&amp;","&amp;$D$73&amp;","&amp;$E$73&amp;","&amp;$F$73&amp;","&amp;$G$73&amp;","&amp;$H$73&amp;","&amp;$I$73&amp;","&amp;$K$73&amp;","&amp;$L$73&amp;","&amp;$M$73&amp;","&amp;$N$73&amp;","&amp;$O$73&amp;","&amp;$P$73&amp;","&amp;$Q$73&amp;","&amp;$R$73&amp;","&amp;$S$73&amp;","&amp;$T$73&amp;","&amp;$U$73&amp;","&amp;$V$73&amp;","&amp;$W$73&amp;","&amp;$X$73&amp;","&amp;$Y$73&amp;",CREATE_DATE,CREATE_USER) VALUES('"&amp;C77&amp;"','"&amp;D77&amp;"','"&amp;E77&amp;"','"&amp;F77&amp;"','"&amp;G77&amp;"','"&amp;H77&amp;"',"&amp;I77&amp;",'"&amp;K77&amp;"','"&amp;L77&amp;"','"&amp;M77&amp;"','"&amp;N77&amp;"','"&amp;O77&amp;"','"&amp;P77&amp;"','"&amp;Q77&amp;"','"&amp;R77&amp;"','"&amp;S77&amp;"','"&amp;T77&amp;"','"&amp;U77&amp;"','"&amp;V77&amp;"','"&amp;W77&amp;"','"&amp;X77&amp;"','"&amp;Y77&amp;"',NOW(),'ADMIN');"</f>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER001','USER001','N','N','N','limsm1@naver.com',PASSWORD(1),'','','','','','','010','1111','0002','','','N','','','',NOW(),'ADMIN');</v>
@@ -28416,7 +28704,7 @@
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A78" s="135"/>
+      <c r="A78" s="136"/>
       <c r="B78" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER002','USER002','N','N','N','limsm2@naver.com',PASSWORD(1),'','','','','','','010','1111','0003','','','N','','','',NOW(),'ADMIN');</v>
@@ -28463,7 +28751,7 @@
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A79" s="135"/>
+      <c r="A79" s="136"/>
       <c r="B79" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER003','USER003','N','N','N','limsm3@naver.com',PASSWORD(1),'','','','','','','010','1111','0004','','','N','','','',NOW(),'ADMIN');</v>
@@ -28510,7 +28798,7 @@
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A80" s="135"/>
+      <c r="A80" s="136"/>
       <c r="B80" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER004','USER004','N','N','N','limsm4@naver.com',PASSWORD(1),'','','','','','','010','1111','0005','','','N','','','',NOW(),'ADMIN');</v>
@@ -28557,7 +28845,7 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A81" s="135"/>
+      <c r="A81" s="136"/>
       <c r="B81" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER005','USER005','N','N','N','limsm5@naver.com',PASSWORD(1),'','','','','','','010','1111','0006','','','N','','','',NOW(),'ADMIN');</v>
@@ -28604,7 +28892,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A82" s="135"/>
+      <c r="A82" s="136"/>
       <c r="B82" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER006','USER006','N','N','N','limsm6@naver.com',PASSWORD(1),'','','','','','','010','1111','0007','','','N','','','',NOW(),'ADMIN');</v>
@@ -28651,7 +28939,7 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A83" s="135"/>
+      <c r="A83" s="136"/>
       <c r="B83" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER007','USER007','N','N','N','limsm7@naver.com',PASSWORD(1),'','','','','','','010','1111','0008','','','N','','','',NOW(),'ADMIN');</v>
@@ -28698,7 +28986,7 @@
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A84" s="135"/>
+      <c r="A84" s="136"/>
       <c r="B84" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER008','USER008','N','N','N','limsm8@naver.com',PASSWORD(1),'','','','','','','010','1111','0009','','','N','','','',NOW(),'ADMIN');</v>
@@ -28745,7 +29033,7 @@
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A85" s="135"/>
+      <c r="A85" s="136"/>
       <c r="B85" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER009','USER009','N','N','N','limsm9@naver.com',PASSWORD(1),'','','','','','','010','1111','0010','','','N','','','',NOW(),'ADMIN');</v>
@@ -28792,7 +29080,7 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A86" s="135"/>
+      <c r="A86" s="136"/>
       <c r="B86" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('USER010','USER010','N','N','N','limsm10@naver.com',PASSWORD(1),'','','','','','','010','1111','0011','','','N','','','',NOW(),'ADMIN');</v>
@@ -28839,7 +29127,7 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A87" s="135"/>
+      <c r="A87" s="136"/>
       <c r="B87" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER1','TEACHER1','N','N','Y','limsm11@naver.com',PASSWORD(1),'','','','','','','010','1111','0012','','','N','','','',NOW(),'ADMIN');</v>
@@ -28886,7 +29174,7 @@
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A88" s="135"/>
+      <c r="A88" s="136"/>
       <c r="B88" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER2','TEACHER2','N','N','Y','limsm12@naver.com',PASSWORD(1),'','','','','','','010','1111','0013','','','N','','','',NOW(),'ADMIN');</v>
@@ -28933,7 +29221,7 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A89" s="135"/>
+      <c r="A89" s="136"/>
       <c r="B89" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER3','TEACHER3','N','N','Y','limsm13@naver.com',PASSWORD(1),'','','','','','','010','1111','0014','','','N','','','',NOW(),'ADMIN');</v>
@@ -28980,7 +29268,7 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A90" s="135"/>
+      <c r="A90" s="136"/>
       <c r="B90" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER4','TEACHER4','N','N','Y','limsm14@naver.com',PASSWORD(1),'','','','','','','010','1111','0015','','','N','','','',NOW(),'ADMIN');</v>
@@ -29027,7 +29315,7 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A91" s="135"/>
+      <c r="A91" s="136"/>
       <c r="B91" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER5','TEACHER5','N','N','Y','limsm15@naver.com',PASSWORD(1),'','','','','','','010','1111','0016','','','N','','','',NOW(),'ADMIN');</v>
@@ -29074,7 +29362,7 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A92" s="135"/>
+      <c r="A92" s="136"/>
       <c r="B92" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER6','TEACHER6','N','N','Y','limsm16@naver.com',PASSWORD(1),'','','','','','','010','1111','0017','','','N','','','',NOW(),'ADMIN');</v>
@@ -29121,7 +29409,7 @@
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A93" s="135"/>
+      <c r="A93" s="136"/>
       <c r="B93" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER7','TEACHER7','N','N','Y','limsm17@naver.com',PASSWORD(1),'','','','','','','010','1111','0018','','','N','','','',NOW(),'ADMIN');</v>
@@ -29165,7 +29453,7 @@
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A94" s="135"/>
+      <c r="A94" s="136"/>
       <c r="B94" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER8','TEACHER8','N','N','Y','limsm18@naver.com',PASSWORD(1),'','','','','','','010','1111','0019','','','N','','','',NOW(),'ADMIN');</v>
@@ -29209,7 +29497,7 @@
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A95" s="135"/>
+      <c r="A95" s="136"/>
       <c r="B95" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER9','TEACHER9','N','N','Y','limsm19@naver.com',PASSWORD(1),'','','','','','','010','1111','0020','','','N','','','',NOW(),'ADMIN');</v>
@@ -29253,7 +29541,7 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A96" s="135"/>
+      <c r="A96" s="136"/>
       <c r="B96" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TEACHER10','TEACHER10','N','N','Y','limsm20@naver.com',PASSWORD(1),'','','','','','','010','1111','0021','','','N','','','',NOW(),'ADMIN');</v>
@@ -29297,7 +29585,7 @@
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A97" s="135"/>
+      <c r="A97" s="136"/>
       <c r="B97" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR1','TUTOR1','N','Y','N','limsm21@naver.com',PASSWORD(1),'','','','','','','010','1111','0022','','','N','','','',NOW(),'ADMIN');</v>
@@ -29341,7 +29629,7 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A98" s="135"/>
+      <c r="A98" s="136"/>
       <c r="B98" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR2','TUTOR2','N','Y','N','limsm22@naver.com',PASSWORD(1),'','','','','','','010','1111','0023','','','N','','','',NOW(),'ADMIN');</v>
@@ -29385,7 +29673,7 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A99" s="135"/>
+      <c r="A99" s="136"/>
       <c r="B99" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR3','TUTOR3','N','Y','N','limsm23@naver.com',PASSWORD(1),'','','','','','','010','1111','0024','','','N','','','',NOW(),'ADMIN');</v>
@@ -29429,7 +29717,7 @@
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A100" s="135"/>
+      <c r="A100" s="136"/>
       <c r="B100" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR4','TUTOR4','N','Y','N','limsm24@naver.com',PASSWORD(1),'','','','','','','010','1111','0025','','COMP1','N','','','',NOW(),'ADMIN');</v>
@@ -29476,7 +29764,7 @@
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A101" s="135"/>
+      <c r="A101" s="136"/>
       <c r="B101" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR5','TUTOR5','N','Y','N','limsm25@naver.com',PASSWORD(1),'','','','','','','010','1111','0026','','COMP2','N','','','',NOW(),'ADMIN');</v>
@@ -29523,7 +29811,7 @@
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A102" s="135"/>
+      <c r="A102" s="136"/>
       <c r="B102" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR6','TUTOR6','N','Y','N','limsm26@naver.com',PASSWORD(1),'','','','','','','010','1111','0027','','COMP3','N','','','',NOW(),'ADMIN');</v>
@@ -29570,7 +29858,7 @@
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A103" s="135"/>
+      <c r="A103" s="136"/>
       <c r="B103" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR7','TUTOR7','N','Y','N','limsm27@naver.com',PASSWORD(1),'','','','','','','010','1111','0028','','','N','','','',NOW(),'ADMIN');</v>
@@ -29614,7 +29902,7 @@
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A104" s="135"/>
+      <c r="A104" s="136"/>
       <c r="B104" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR8','TUTOR8','N','Y','N','limsm28@naver.com',PASSWORD(1),'','','','','','','010','1111','0029','','','N','','','',NOW(),'ADMIN');</v>
@@ -29658,7 +29946,7 @@
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A105" s="135"/>
+      <c r="A105" s="136"/>
       <c r="B105" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR9','TUTOR9','N','Y','N','limsm29@naver.com',PASSWORD(1),'','','','','','','010','1111','0030','','','N','','','',NOW(),'ADMIN');</v>
@@ -29702,7 +29990,7 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A106" s="135"/>
+      <c r="A106" s="136"/>
       <c r="B106" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('TUTOR10','TUTOR10','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0031','','','N','','','',NOW(),'ADMIN');</v>
@@ -29746,7 +30034,7 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A107" s="135"/>
+      <c r="A107" s="136"/>
       <c r="B107" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_1','COMP_T_1','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0032','','COMP1','N','','','',NOW(),'ADMIN');</v>
@@ -29793,7 +30081,7 @@
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A108" s="135"/>
+      <c r="A108" s="136"/>
       <c r="B108" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_2','COMP_T_2','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0033','','COMP2','N','','','',NOW(),'ADMIN');</v>
@@ -29840,7 +30128,7 @@
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A109" s="135"/>
+      <c r="A109" s="136"/>
       <c r="B109" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_3','COMP_T_3','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0034','','COMP3','N','','','',NOW(),'ADMIN');</v>
@@ -29887,7 +30175,7 @@
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A110" s="135"/>
+      <c r="A110" s="136"/>
       <c r="B110" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_4','COMP_T_4','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0035','','COMP4','N','','','',NOW(),'ADMIN');</v>
@@ -29934,7 +30222,7 @@
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A111" s="135"/>
+      <c r="A111" s="136"/>
       <c r="B111" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_5','COMP_T_5','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0036','','COMP5','N','','','',NOW(),'ADMIN');</v>
@@ -29981,7 +30269,7 @@
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A112" s="135"/>
+      <c r="A112" s="136"/>
       <c r="B112" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_6','COMP_T_6','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0037','','COMP6','N','','','',NOW(),'ADMIN');</v>
@@ -30028,7 +30316,7 @@
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A113" s="135"/>
+      <c r="A113" s="136"/>
       <c r="B113" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_7','COMP_T_7','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0038','','COMP7','N','','','',NOW(),'ADMIN');</v>
@@ -30075,7 +30363,7 @@
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A114" s="135"/>
+      <c r="A114" s="136"/>
       <c r="B114" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_8','COMP_T_8','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0039','','COMP8','N','','','',NOW(),'ADMIN');</v>
@@ -30122,7 +30410,7 @@
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A115" s="135"/>
+      <c r="A115" s="136"/>
       <c r="B115" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_9','COMP_T_9','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0040','','COMP9','N','','','',NOW(),'ADMIN');</v>
@@ -30169,7 +30457,7 @@
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A116" s="135"/>
+      <c r="A116" s="136"/>
       <c r="B116" s="30" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO USER(USER_ID,USER_NAME,ADMIN_YN,TUTOR_YN,TEACHER_YN,EMAIL,USER_PASSWORD,HOME_ADDR,HOME_TEL,HOME_TEL1,HOME_TEL2,HOME_TEL3,MOBILE,MOBILE1,MOBILE2,MOBILE3,JOB,COMP_CD,RETIRED_YN,RETIRED_REASON,BANK,ACC_NUM,CREATE_DATE,CREATE_USER) VALUES('COMP_T_10','COMP_T_10','N','Y','N','limsm30@naver.com',PASSWORD(1),'','','','','','','010','1111','0041','','COMP10','N','','','',NOW(),'ADMIN');</v>
@@ -30216,7 +30504,7 @@
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A117" s="135"/>
+      <c r="A117" s="136"/>
       <c r="B117" s="33"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
@@ -30446,7 +30734,7 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="128" t="s">
+      <c r="A132" s="129" t="s">
         <v>92</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -30466,7 +30754,7 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="128"/>
+      <c r="A133" s="129"/>
       <c r="B133" s="28" t="str">
         <f>"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C133&amp;"','"&amp;D133&amp;"','"&amp;E133&amp;"','"&amp;F133&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_KIND','NORMAL','일반 강좌','1');</v>
@@ -30489,7 +30777,7 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="128"/>
+      <c r="A134" s="129"/>
       <c r="B134" s="28" t="str">
         <f t="shared" ref="B134" si="11">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C134&amp;"','"&amp;D134&amp;"','"&amp;E134&amp;"','"&amp;F134&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_KIND','COMPANY','회사 강좌','3');</v>
@@ -30512,7 +30800,7 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="128"/>
+      <c r="A135" s="129"/>
       <c r="C135" s="3"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -30520,7 +30808,7 @@
       <c r="G135" s="3"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="128"/>
+      <c r="A136" s="129"/>
       <c r="C136" s="3"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -30528,7 +30816,7 @@
       <c r="G136" s="3"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="128"/>
+      <c r="A137" s="129"/>
       <c r="C137" s="3"/>
       <c r="D137" s="1"/>
       <c r="E137" s="19"/>
@@ -30536,7 +30824,7 @@
       <c r="G137" s="3"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="128"/>
+      <c r="A138" s="129"/>
       <c r="C138" s="3"/>
       <c r="D138" s="1"/>
       <c r="E138" s="19"/>
@@ -30544,7 +30832,7 @@
       <c r="G138" s="3"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="128"/>
+      <c r="A139" s="129"/>
       <c r="B139" s="28" t="str">
         <f t="shared" ref="B139:B149" si="12">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C139&amp;"','"&amp;D139&amp;"','"&amp;E139&amp;"','"&amp;F139&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('AUTH','ADMIN','Admin','1');</v>
@@ -30567,7 +30855,7 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="128"/>
+      <c r="A140" s="129"/>
       <c r="B140" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('AUTH','TEACHER','강사','2');</v>
@@ -30590,7 +30878,7 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="128"/>
+      <c r="A141" s="129"/>
       <c r="B141" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('AUTH','TUTOR','튜터','3');</v>
@@ -30613,7 +30901,7 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="128"/>
+      <c r="A142" s="129"/>
       <c r="B142" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('AUTH','USER','사용자','4');</v>
@@ -30636,7 +30924,7 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="128"/>
+      <c r="A143" s="129"/>
       <c r="B143" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('REG_STATUS','Y','승인요청','1');</v>
@@ -30659,7 +30947,7 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="128"/>
+      <c r="A144" s="129"/>
       <c r="B144" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('REG_STATUS','B','현금입금','1');</v>
@@ -30682,7 +30970,7 @@
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A145" s="128"/>
+      <c r="A145" s="129"/>
       <c r="B145" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('REG_STATUS','A','승인','2');</v>
@@ -30705,7 +30993,7 @@
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A146" s="128"/>
+      <c r="A146" s="129"/>
       <c r="B146" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('REG_STATUS','C','거절','3');</v>
@@ -30728,7 +31016,7 @@
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A147" s="128"/>
+      <c r="A147" s="129"/>
       <c r="B147" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('REG_STATUS','R','환불','4');</v>
@@ -30751,7 +31039,7 @@
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A148" s="128"/>
+      <c r="A148" s="129"/>
       <c r="B148" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND','SC0010','신용카드','1');</v>
@@ -30774,7 +31062,7 @@
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A149" s="128"/>
+      <c r="A149" s="129"/>
       <c r="B149" s="28" t="str">
         <f t="shared" si="12"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND','CASH','계좌이체','2');</v>
@@ -30797,7 +31085,7 @@
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A150" s="128"/>
+      <c r="A150" s="129"/>
       <c r="B150" s="28" t="str">
         <f t="shared" ref="B150:B155" si="16">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C150&amp;"','"&amp;D150&amp;"','"&amp;E150&amp;"','"&amp;F150&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND','SC0040','무통장입금','3');</v>
@@ -30827,7 +31115,7 @@
       <c r="N150" s="110"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A151" s="128"/>
+      <c r="A151" s="129"/>
       <c r="B151" s="28" t="str">
         <f t="shared" si="16"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND','SC0060','휴대폰','4');</v>
@@ -30857,7 +31145,7 @@
       <c r="N151" s="110"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A152" s="128"/>
+      <c r="A152" s="129"/>
       <c r="B152" s="28" t="str">
         <f t="shared" si="16"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND','SC0070','유선전화결제','5');</v>
@@ -30887,7 +31175,7 @@
       <c r="N152" s="110"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A153" s="128"/>
+      <c r="A153" s="129"/>
       <c r="B153" s="28" t="str">
         <f t="shared" si="16"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND','SC0090','OK캐쉬백','6');</v>
@@ -30917,7 +31205,7 @@
       <c r="N153" s="110"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A154" s="128"/>
+      <c r="A154" s="129"/>
       <c r="B154" s="28" t="str">
         <f t="shared" si="16"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND','SC0111','문화상품권','7');</v>
@@ -30947,7 +31235,7 @@
       <c r="N154" s="110"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A155" s="128"/>
+      <c r="A155" s="129"/>
       <c r="B155" s="28" t="str">
         <f t="shared" si="16"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('PAYMENT_KIND','SC0112','게임문화상품권','8');</v>
@@ -30977,7 +31265,7 @@
       <c r="N155" s="110"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A156" s="128"/>
+      <c r="A156" s="129"/>
       <c r="C156" s="3"/>
       <c r="D156" s="9"/>
       <c r="E156" s="3"/>
@@ -30992,7 +31280,7 @@
       <c r="N156" s="110"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A157" s="128"/>
+      <c r="A157" s="129"/>
       <c r="C157" s="3"/>
       <c r="D157" s="9"/>
       <c r="E157" s="3"/>
@@ -31007,7 +31295,7 @@
       <c r="N157" s="110"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A158" s="128"/>
+      <c r="A158" s="129"/>
       <c r="C158" s="3"/>
       <c r="D158" s="9"/>
       <c r="E158" s="3"/>
@@ -31022,7 +31310,7 @@
       <c r="N158" s="110"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A159" s="128"/>
+      <c r="A159" s="129"/>
       <c r="C159" s="3"/>
       <c r="D159" s="9"/>
       <c r="E159" s="3"/>
@@ -31030,7 +31318,7 @@
       <c r="G159" s="3"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A160" s="128"/>
+      <c r="A160" s="129"/>
       <c r="C160" s="3"/>
       <c r="D160" s="9"/>
       <c r="E160" s="3"/>
@@ -31038,7 +31326,7 @@
       <c r="G160" s="3"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="128"/>
+      <c r="A161" s="129"/>
       <c r="C161" s="3"/>
       <c r="D161" s="1"/>
       <c r="E161" s="19"/>
@@ -31046,7 +31334,7 @@
       <c r="G161" s="3"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="128"/>
+      <c r="A162" s="129"/>
       <c r="B162" s="28" t="str">
         <f t="shared" ref="B162:B168" si="17">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C162&amp;"','"&amp;D162&amp;"','"&amp;E162&amp;"','"&amp;F162&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','G_BEFORE','모집전','1');</v>
@@ -31069,7 +31357,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="128"/>
+      <c r="A163" s="129"/>
       <c r="B163" s="28" t="str">
         <f t="shared" si="17"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','G_ING','모집중','2');</v>
@@ -31092,7 +31380,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="128"/>
+      <c r="A164" s="129"/>
       <c r="B164" s="28" t="str">
         <f t="shared" si="17"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','P_BEFORE','강좌 진행전','3');</v>
@@ -31115,7 +31403,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="128"/>
+      <c r="A165" s="129"/>
       <c r="B165" s="28" t="str">
         <f t="shared" si="17"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','P_ING','강좌 진행중','4');</v>
@@ -31138,7 +31426,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="128"/>
+      <c r="A166" s="129"/>
       <c r="B166" s="28" t="str">
         <f t="shared" si="17"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','COMPLETE','강좌 완료','5');</v>
@@ -31161,7 +31449,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="128"/>
+      <c r="A167" s="129"/>
       <c r="B167" s="28" t="str">
         <f t="shared" si="17"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','CLOSE','강좌 종강','6');</v>
@@ -31184,7 +31472,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="128"/>
+      <c r="A168" s="129"/>
       <c r="B168" s="28" t="str">
         <f t="shared" si="17"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('COURSE_STATUS','CANCEL','강좌 취소','7');</v>
@@ -31207,7 +31495,7 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="128"/>
+      <c r="A169" s="129"/>
       <c r="C169" s="3"/>
       <c r="D169" s="9"/>
       <c r="E169" s="3"/>
@@ -31215,7 +31503,7 @@
       <c r="G169" s="3"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="128"/>
+      <c r="A170" s="129"/>
       <c r="C170" s="3"/>
       <c r="D170" s="9"/>
       <c r="E170" s="3"/>
@@ -31223,7 +31511,7 @@
       <c r="G170" s="3"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="128"/>
+      <c r="A171" s="129"/>
       <c r="C171" s="3"/>
       <c r="D171" s="9"/>
       <c r="E171" s="3"/>
@@ -31231,7 +31519,7 @@
       <c r="G171" s="3"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="128"/>
+      <c r="A172" s="129"/>
       <c r="C172" s="3"/>
       <c r="D172" s="9"/>
       <c r="E172" s="3"/>
@@ -31239,7 +31527,7 @@
       <c r="G172" s="3"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="128"/>
+      <c r="A173" s="129"/>
       <c r="B173" s="28" t="str">
         <f t="shared" ref="B173:B179" si="20">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C173&amp;"','"&amp;D173&amp;"','"&amp;E173&amp;"','"&amp;F173&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','01','동영상 강의 수강','1');</v>
@@ -31262,7 +31550,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="128"/>
+      <c r="A174" s="129"/>
       <c r="B174" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','02','회원가입/탈퇴','2');</v>
@@ -31285,7 +31573,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="128"/>
+      <c r="A175" s="129"/>
       <c r="B175" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','03','결제관련','3');</v>
@@ -31308,7 +31596,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="128"/>
+      <c r="A176" s="129"/>
       <c r="B176" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','04','동영상 문제해결','4');</v>
@@ -31331,7 +31619,7 @@
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A177" s="128"/>
+      <c r="A177" s="129"/>
       <c r="B177" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('FAQ','05','M러닝','5');</v>
@@ -31354,7 +31642,7 @@
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A178" s="128"/>
+      <c r="A178" s="129"/>
       <c r="C178" s="3"/>
       <c r="D178" s="9"/>
       <c r="E178" s="3"/>
@@ -31369,7 +31657,7 @@
       <c r="N178" s="119"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A179" s="128"/>
+      <c r="A179" s="129"/>
       <c r="B179" s="28" t="str">
         <f t="shared" si="20"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('POINT_KIND','COURSE','과정 수강 적립','1');</v>
@@ -31392,7 +31680,7 @@
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A180" s="128"/>
+      <c r="A180" s="129"/>
       <c r="B180" s="28" t="str">
         <f t="shared" ref="B180:B181" si="23">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C180&amp;"','"&amp;D180&amp;"','"&amp;E180&amp;"','"&amp;F180&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('POINT_KIND','COURSE_REFUND','과정 환불','2');</v>
@@ -31415,7 +31703,7 @@
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A181" s="128"/>
+      <c r="A181" s="129"/>
       <c r="B181" s="28" t="str">
         <f t="shared" si="23"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('POINT_KIND','POSTSCRIPT','수강 후기','3');</v>
@@ -31438,7 +31726,7 @@
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A182" s="128"/>
+      <c r="A182" s="129"/>
       <c r="B182" s="28" t="str">
         <f t="shared" ref="B182:B183" si="24">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C182&amp;"','"&amp;D182&amp;"','"&amp;E182&amp;"','"&amp;F182&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('UC_KIND','U','사용자','1');</v>
@@ -31461,7 +31749,7 @@
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A183" s="128"/>
+      <c r="A183" s="129"/>
       <c r="B183" s="28" t="str">
         <f t="shared" si="24"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('UC_KIND','C','회사','2');</v>
@@ -31484,7 +31772,7 @@
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A184" s="128"/>
+      <c r="A184" s="129"/>
       <c r="B184" s="28" t="str">
         <f t="shared" ref="B184:B203" si="26">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C184&amp;"','"&amp;D184&amp;"','"&amp;E184&amp;"','"&amp;F184&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','02','02','1');</v>
@@ -31507,7 +31795,7 @@
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A185" s="128"/>
+      <c r="A185" s="129"/>
       <c r="B185" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','031','031','2');</v>
@@ -31530,7 +31818,7 @@
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A186" s="128"/>
+      <c r="A186" s="129"/>
       <c r="B186" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','032','032','3');</v>
@@ -31553,7 +31841,7 @@
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A187" s="128"/>
+      <c r="A187" s="129"/>
       <c r="B187" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','033','033','4');</v>
@@ -31576,7 +31864,7 @@
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A188" s="128"/>
+      <c r="A188" s="129"/>
       <c r="B188" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','041','041','5');</v>
@@ -31599,7 +31887,7 @@
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A189" s="128"/>
+      <c r="A189" s="129"/>
       <c r="B189" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','042','042','6');</v>
@@ -31622,7 +31910,7 @@
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A190" s="128"/>
+      <c r="A190" s="129"/>
       <c r="B190" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','043','043','7');</v>
@@ -31645,7 +31933,7 @@
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A191" s="128"/>
+      <c r="A191" s="129"/>
       <c r="B191" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','0502','0502','8');</v>
@@ -31668,7 +31956,7 @@
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A192" s="128"/>
+      <c r="A192" s="129"/>
       <c r="B192" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','0505','0505','9');</v>
@@ -31691,7 +31979,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="128"/>
+      <c r="A193" s="129"/>
       <c r="B193" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','0506','0506','10');</v>
@@ -31714,7 +32002,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="128"/>
+      <c r="A194" s="129"/>
       <c r="B194" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','051','051','11');</v>
@@ -31737,7 +32025,7 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="128"/>
+      <c r="A195" s="129"/>
       <c r="B195" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','052','052','12');</v>
@@ -31760,7 +32048,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="128"/>
+      <c r="A196" s="129"/>
       <c r="B196" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','053','053','13');</v>
@@ -31783,7 +32071,7 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="128"/>
+      <c r="A197" s="129"/>
       <c r="B197" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','054','054','14');</v>
@@ -31806,7 +32094,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="128"/>
+      <c r="A198" s="129"/>
       <c r="B198" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','055','055','15');</v>
@@ -31829,7 +32117,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="128"/>
+      <c r="A199" s="129"/>
       <c r="B199" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','061','061','16');</v>
@@ -31852,7 +32140,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="128"/>
+      <c r="A200" s="129"/>
       <c r="B200" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','062','062','17');</v>
@@ -31875,7 +32163,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="128"/>
+      <c r="A201" s="129"/>
       <c r="B201" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','063','063','18');</v>
@@ -31898,7 +32186,7 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202" s="128"/>
+      <c r="A202" s="129"/>
       <c r="B202" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','064','064','19');</v>
@@ -31921,7 +32209,7 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="128"/>
+      <c r="A203" s="129"/>
       <c r="B203" s="28" t="str">
         <f t="shared" si="26"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('TEL','070','070','20');</v>
@@ -31944,7 +32232,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="128"/>
+      <c r="A204" s="129"/>
       <c r="B204" s="28" t="str">
         <f t="shared" ref="B204:B209" si="28">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C204&amp;"','"&amp;D204&amp;"','"&amp;E204&amp;"','"&amp;F204&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','010','010','1');</v>
@@ -31967,7 +32255,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="128"/>
+      <c r="A205" s="129"/>
       <c r="B205" s="28" t="str">
         <f t="shared" si="28"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','011','011','2');</v>
@@ -31990,7 +32278,7 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" s="128"/>
+      <c r="A206" s="129"/>
       <c r="B206" s="28" t="str">
         <f t="shared" si="28"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','016','016','3');</v>
@@ -32013,7 +32301,7 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" s="128"/>
+      <c r="A207" s="129"/>
       <c r="B207" s="28" t="str">
         <f t="shared" si="28"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','017','017','4');</v>
@@ -32036,7 +32324,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="128"/>
+      <c r="A208" s="129"/>
       <c r="B208" s="28" t="str">
         <f t="shared" si="28"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','018','018','5');</v>
@@ -32059,7 +32347,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="128"/>
+      <c r="A209" s="129"/>
       <c r="B209" s="28" t="str">
         <f t="shared" si="28"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('MOBILE','019','019','6');</v>
@@ -32082,7 +32370,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="128"/>
+      <c r="A210" s="129"/>
       <c r="B210" s="28" t="str">
         <f t="shared" ref="B210:B216" si="29">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C210&amp;"','"&amp;D210&amp;"','"&amp;E210&amp;"','"&amp;F210&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','01','사원','1');</v>
@@ -32105,7 +32393,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="128"/>
+      <c r="A211" s="129"/>
       <c r="B211" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','02','대리','2');</v>
@@ -32128,7 +32416,7 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="128"/>
+      <c r="A212" s="129"/>
       <c r="B212" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','03','과장','3');</v>
@@ -32151,7 +32439,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" s="128"/>
+      <c r="A213" s="129"/>
       <c r="B213" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','04','차장','4');</v>
@@ -32174,7 +32462,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="128"/>
+      <c r="A214" s="129"/>
       <c r="B214" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','05','부장','5');</v>
@@ -32197,7 +32485,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" s="128"/>
+      <c r="A215" s="129"/>
       <c r="B215" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','06','임원','6');</v>
@@ -32220,7 +32508,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" s="128"/>
+      <c r="A216" s="129"/>
       <c r="B216" s="28" t="str">
         <f t="shared" si="29"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('JOB','07','기타','7');</v>
@@ -32243,10 +32531,10 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" s="128"/>
+      <c r="A217" s="129"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" s="128"/>
+      <c r="A218" s="129"/>
       <c r="B218" s="28" t="str">
         <f t="shared" ref="B218:B220" si="30">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C218&amp;"','"&amp;D218&amp;"','"&amp;E218&amp;"','"&amp;F218&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('ADMIN_AUTH','A','Admin','1');</v>
@@ -32269,7 +32557,7 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" s="128"/>
+      <c r="A219" s="129"/>
       <c r="B219" s="28" t="str">
         <f t="shared" si="30"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('ADMIN_AUTH','C','Contents Admin','2');</v>
@@ -32292,7 +32580,7 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="128"/>
+      <c r="A220" s="129"/>
       <c r="B220" s="28" t="str">
         <f t="shared" si="30"/>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('ADMIN_AUTH','M','Manage Admin','3');</v>
@@ -32315,10 +32603,10 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" s="128"/>
+      <c r="A221" s="129"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="128"/>
+      <c r="A222" s="129"/>
       <c r="B222" s="28" t="str">
         <f t="shared" ref="B222:B223" si="33">"INSERT INTO CODE("&amp;$C$132&amp;","&amp;$D$132&amp;","&amp;$E$132&amp;","&amp;$F$132&amp;") VALUES('"&amp;C222&amp;"','"&amp;D222&amp;"','"&amp;E222&amp;"','"&amp;F222&amp;"');"</f>
         <v>INSERT INTO CODE(DD_MAIN,DD_KEY,DD_VALUE,ORD) VALUES('SEX','M','남','1');</v>
@@ -32407,7 +32695,7 @@
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A230" s="127" t="s">
+      <c r="A230" s="128" t="s">
         <v>888</v>
       </c>
       <c r="B230" s="3" t="s">
@@ -32415,13 +32703,13 @@
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A231" s="127"/>
+      <c r="A231" s="128"/>
       <c r="B231" s="3" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A232" s="127"/>
+      <c r="A232" s="128"/>
       <c r="B232" s="3" t="s">
         <v>792</v>
       </c>
